--- a/data/Split_Plot_Factor_Decomposition.xlsx
+++ b/data/Split_Plot_Factor_Decomposition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/drp36_byui_edu/Documents/Math326DoE/Math326_Quarto4/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="840" documentId="8_{03FC996A-6457-4581-A064-FD1819AFF93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2879E17F-8A6F-49D2-BBCB-309319FC111C}"/>
+  <xr:revisionPtr revIDLastSave="841" documentId="8_{03FC996A-6457-4581-A064-FD1819AFF93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF1B9FE6-BB81-419E-8DD3-DD6BE24B0882}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="746" firstSheet="3" activeTab="6" xr2:uid="{3E9518DA-0BE2-47A9-9D95-D7E19C6F5013}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="746" activeTab="7" xr2:uid="{3E9518DA-0BE2-47A9-9D95-D7E19C6F5013}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,11 @@
     <sheet name="Fctr Struc unrep nesting subs" sheetId="9" r:id="rId9"/>
     <sheet name="two levels of units" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
-    <pivotCache cacheId="1" r:id="rId12"/>
-    <pivotCache cacheId="2" r:id="rId13"/>
+    <pivotCache cacheId="5" r:id="rId11"/>
+    <pivotCache cacheId="6" r:id="rId12"/>
+    <pivotCache cacheId="7" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1111,7 +1111,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1508,228 +1508,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1814,10 +1598,7 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1828,6 +1609,183 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -4049,8 +4007,8 @@
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1571626" cy="473078"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -4123,7 +4081,7 @@
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>𝑗</m:t>
+                          <m:t>𝑖𝑗</m:t>
                         </m:r>
                       </m:sub>
                     </m:sSub>
@@ -4135,7 +4093,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -4190,7 +4148,7 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑗</a:t>
+                <a:t>𝑖𝑗</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="2800"/>
             </a:p>
@@ -7388,7 +7346,53 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F809E903-9374-4F54-8137-CABE704CA4B4}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14E3D180-C145-432D-9A0D-E2C1BE77FA22}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="U11:V14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Yield" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F809E903-9374-4F54-8137-CABE704CA4B4}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AF11:AI16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -7456,8 +7460,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7408E8E3-E5AD-4FC2-827A-A669DD0C5455}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7408E8E3-E5AD-4FC2-827A-A669DD0C5455}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Z11:AA15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -7507,8 +7511,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{212D3ED0-919D-4BF0-9EBF-A8FEE7D6C286}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{212D3ED0-919D-4BF0-9EBF-A8FEE7D6C286}" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="O11:P14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -7555,56 +7559,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14E3D180-C145-432D-9A0D-E2C1BE77FA22}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="U11:V14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Yield" fld="1" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7642,7 +7600,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7748,7 +7706,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7890,7 +7848,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7949,52 +7907,52 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="J2" s="155" t="s">
+      <c r="J2" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="156" t="s">
+      <c r="O2" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
+      <c r="P2" s="192"/>
+      <c r="Q2" s="192"/>
+      <c r="R2" s="192"/>
       <c r="S2" s="2"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="156" t="s">
+      <c r="U2" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="156" t="s">
+      <c r="Z2" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="156"/>
-      <c r="AB2" s="156"/>
-      <c r="AC2" s="156"/>
+      <c r="AA2" s="192"/>
+      <c r="AB2" s="192"/>
+      <c r="AC2" s="192"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="1"/>
-      <c r="AF2" s="157" t="s">
+      <c r="AF2" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="157"/>
-      <c r="AH2" s="157"/>
-      <c r="AI2" s="157"/>
+      <c r="AG2" s="193"/>
+      <c r="AH2" s="193"/>
+      <c r="AI2" s="193"/>
       <c r="AJ2" s="3"/>
       <c r="AK2" s="1"/>
-      <c r="AL2" s="156" t="s">
+      <c r="AL2" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="AM2" s="156"/>
-      <c r="AN2" s="156"/>
-      <c r="AO2" s="156"/>
-      <c r="AP2" s="156"/>
-      <c r="AQ2" s="156"/>
+      <c r="AM2" s="192"/>
+      <c r="AN2" s="192"/>
+      <c r="AO2" s="192"/>
+      <c r="AP2" s="192"/>
+      <c r="AQ2" s="192"/>
     </row>
     <row r="3" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -8012,58 +7970,58 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="J3" s="144">
+      <c r="J3" s="194">
         <f>AVERAGE(D:D)</f>
         <v>208.86051964166666</v>
       </c>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="146"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="196"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="144">
+      <c r="O3" s="194">
         <f>GETPIVOTDATA("Yield",$O$11,"Farmer","John ")</f>
         <v>202.7968888888889</v>
       </c>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="152" t="s">
+      <c r="P3" s="195"/>
+      <c r="Q3" s="195"/>
+      <c r="R3" s="196"/>
+      <c r="S3" s="197" t="s">
         <v>21</v>
       </c>
       <c r="T3" s="7"/>
-      <c r="U3" s="144">
+      <c r="U3" s="194">
         <f>AVERAGE(D2:D10,D20:D28)</f>
         <v>205.49519437777775</v>
       </c>
-      <c r="V3" s="146"/>
-      <c r="W3" s="144">
+      <c r="V3" s="196"/>
+      <c r="W3" s="194">
         <f>AVERAGE(D11:D19,D29:D37)</f>
         <v>212.22584490555553</v>
       </c>
-      <c r="X3" s="146"/>
+      <c r="X3" s="196"/>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="144">
+      <c r="Z3" s="194">
         <f>GETPIVOTDATA("Yield",$Z$11,"Variety",1)</f>
         <v>208.83170394166666</v>
       </c>
-      <c r="AA3" s="145"/>
-      <c r="AB3" s="145"/>
-      <c r="AC3" s="146"/>
-      <c r="AD3" s="150" t="s">
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="195"/>
+      <c r="AC3" s="196"/>
+      <c r="AD3" s="205" t="s">
         <v>18</v>
       </c>
       <c r="AE3" s="7"/>
-      <c r="AF3" s="144">
+      <c r="AF3" s="194">
         <f>GETPIVOTDATA("Yield",$AF$11,"Variety",1,"Fungicide","A")</f>
         <v>208.03038681666669</v>
       </c>
-      <c r="AG3" s="146"/>
-      <c r="AH3" s="144">
+      <c r="AG3" s="196"/>
+      <c r="AH3" s="194">
         <f>GETPIVOTDATA("Yield",$AF$11,"Variety",1,"Fungicide","B")</f>
         <v>209.63302106666666</v>
       </c>
-      <c r="AI3" s="146"/>
-      <c r="AJ3" s="150" t="s">
+      <c r="AI3" s="196"/>
+      <c r="AJ3" s="205" t="s">
         <v>18</v>
       </c>
       <c r="AK3" s="1"/>
@@ -8085,7 +8043,7 @@
       <c r="AQ3" s="10">
         <v>205.7</v>
       </c>
-      <c r="AR3" s="143" t="s">
+      <c r="AR3" s="206" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8105,33 +8063,33 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="J4" s="152"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
-      <c r="M4" s="154"/>
+      <c r="J4" s="197"/>
+      <c r="K4" s="198"/>
+      <c r="L4" s="198"/>
+      <c r="M4" s="199"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="153"/>
-      <c r="R4" s="154"/>
-      <c r="S4" s="152"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="198"/>
+      <c r="Q4" s="198"/>
+      <c r="R4" s="199"/>
+      <c r="S4" s="197"/>
       <c r="T4" s="7"/>
-      <c r="U4" s="152"/>
-      <c r="V4" s="154"/>
-      <c r="W4" s="152"/>
-      <c r="X4" s="154"/>
+      <c r="U4" s="197"/>
+      <c r="V4" s="199"/>
+      <c r="W4" s="197"/>
+      <c r="X4" s="199"/>
       <c r="Y4" s="7"/>
-      <c r="Z4" s="147"/>
-      <c r="AA4" s="148"/>
-      <c r="AB4" s="148"/>
-      <c r="AC4" s="149"/>
-      <c r="AD4" s="150"/>
+      <c r="Z4" s="200"/>
+      <c r="AA4" s="201"/>
+      <c r="AB4" s="201"/>
+      <c r="AC4" s="202"/>
+      <c r="AD4" s="205"/>
       <c r="AE4" s="7"/>
-      <c r="AF4" s="147"/>
-      <c r="AG4" s="149"/>
-      <c r="AH4" s="147"/>
-      <c r="AI4" s="149"/>
-      <c r="AJ4" s="150"/>
+      <c r="AF4" s="200"/>
+      <c r="AG4" s="202"/>
+      <c r="AH4" s="200"/>
+      <c r="AI4" s="202"/>
+      <c r="AJ4" s="205"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="10">
         <v>208.84</v>
@@ -8151,7 +8109,7 @@
       <c r="AQ4" s="10">
         <v>209.72399999999999</v>
       </c>
-      <c r="AR4" s="143"/>
+      <c r="AR4" s="206"/>
     </row>
     <row r="5" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -8169,44 +8127,44 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="J5" s="152"/>
-      <c r="K5" s="153"/>
-      <c r="L5" s="153"/>
-      <c r="M5" s="154"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="198"/>
+      <c r="L5" s="198"/>
+      <c r="M5" s="199"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="148"/>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="149"/>
-      <c r="S5" s="152"/>
+      <c r="O5" s="200"/>
+      <c r="P5" s="201"/>
+      <c r="Q5" s="201"/>
+      <c r="R5" s="202"/>
+      <c r="S5" s="197"/>
       <c r="T5" s="7"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="154"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="154"/>
+      <c r="U5" s="197"/>
+      <c r="V5" s="199"/>
+      <c r="W5" s="197"/>
+      <c r="X5" s="199"/>
       <c r="Y5" s="7"/>
-      <c r="Z5" s="144">
+      <c r="Z5" s="194">
         <f>GETPIVOTDATA("Yield",$Z$11,"Variety",2)</f>
         <v>207.83568869166663</v>
       </c>
-      <c r="AA5" s="145"/>
-      <c r="AB5" s="145"/>
-      <c r="AC5" s="146"/>
-      <c r="AD5" s="150" t="s">
+      <c r="AA5" s="195"/>
+      <c r="AB5" s="195"/>
+      <c r="AC5" s="196"/>
+      <c r="AD5" s="205" t="s">
         <v>19</v>
       </c>
       <c r="AE5" s="7"/>
-      <c r="AF5" s="144">
+      <c r="AF5" s="194">
         <f>GETPIVOTDATA("Yield",$AF$11,"Variety",2,"Fungicide","A")</f>
         <v>202.42010643333333</v>
       </c>
-      <c r="AG5" s="146"/>
-      <c r="AH5" s="144">
+      <c r="AG5" s="196"/>
+      <c r="AH5" s="194">
         <f>GETPIVOTDATA("Yield",$AF$11,"Variety",2,"Fungicide","B")</f>
         <v>213.25127094999996</v>
       </c>
-      <c r="AI5" s="146"/>
-      <c r="AJ5" s="150" t="s">
+      <c r="AI5" s="196"/>
+      <c r="AJ5" s="205" t="s">
         <v>19</v>
       </c>
       <c r="AK5" s="1"/>
@@ -8228,7 +8186,7 @@
       <c r="AQ5" s="10">
         <v>199.46799999999999</v>
       </c>
-      <c r="AR5" s="143"/>
+      <c r="AR5" s="206"/>
     </row>
     <row r="6" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -8246,38 +8204,38 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="J6" s="152"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="153"/>
-      <c r="M6" s="154"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="198"/>
+      <c r="L6" s="198"/>
+      <c r="M6" s="199"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="144">
+      <c r="O6" s="194">
         <f>GETPIVOTDATA("Yield",$O$11,"Farmer","Maggot")</f>
         <v>214.92415039444441</v>
       </c>
-      <c r="P6" s="145"/>
-      <c r="Q6" s="145"/>
-      <c r="R6" s="146"/>
-      <c r="S6" s="152" t="s">
+      <c r="P6" s="195"/>
+      <c r="Q6" s="195"/>
+      <c r="R6" s="196"/>
+      <c r="S6" s="197" t="s">
         <v>13</v>
       </c>
       <c r="T6" s="7"/>
-      <c r="U6" s="152"/>
-      <c r="V6" s="154"/>
-      <c r="W6" s="152"/>
-      <c r="X6" s="154"/>
+      <c r="U6" s="197"/>
+      <c r="V6" s="199"/>
+      <c r="W6" s="197"/>
+      <c r="X6" s="199"/>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="147"/>
-      <c r="AA6" s="148"/>
-      <c r="AB6" s="148"/>
-      <c r="AC6" s="149"/>
-      <c r="AD6" s="150"/>
+      <c r="Z6" s="200"/>
+      <c r="AA6" s="201"/>
+      <c r="AB6" s="201"/>
+      <c r="AC6" s="202"/>
+      <c r="AD6" s="205"/>
       <c r="AE6" s="7"/>
-      <c r="AF6" s="147"/>
-      <c r="AG6" s="149"/>
-      <c r="AH6" s="147"/>
-      <c r="AI6" s="149"/>
-      <c r="AJ6" s="150"/>
+      <c r="AF6" s="200"/>
+      <c r="AG6" s="202"/>
+      <c r="AH6" s="200"/>
+      <c r="AI6" s="202"/>
+      <c r="AJ6" s="205"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="10">
         <v>214.1420071</v>
@@ -8297,7 +8255,7 @@
       <c r="AQ6" s="10">
         <v>215.27541189999999</v>
       </c>
-      <c r="AR6" s="143" t="s">
+      <c r="AR6" s="206" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8317,44 +8275,44 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="J7" s="152"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="153"/>
-      <c r="M7" s="154"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="198"/>
+      <c r="L7" s="198"/>
+      <c r="M7" s="199"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="154"/>
-      <c r="S7" s="152"/>
+      <c r="O7" s="197"/>
+      <c r="P7" s="198"/>
+      <c r="Q7" s="198"/>
+      <c r="R7" s="199"/>
+      <c r="S7" s="197"/>
       <c r="T7" s="7"/>
-      <c r="U7" s="152"/>
-      <c r="V7" s="154"/>
-      <c r="W7" s="152"/>
-      <c r="X7" s="154"/>
+      <c r="U7" s="197"/>
+      <c r="V7" s="199"/>
+      <c r="W7" s="197"/>
+      <c r="X7" s="199"/>
       <c r="Y7" s="7"/>
-      <c r="Z7" s="144">
+      <c r="Z7" s="194">
         <f>GETPIVOTDATA("Yield",$Z$11,"Variety",3)</f>
         <v>209.91416629166667</v>
       </c>
-      <c r="AA7" s="145"/>
-      <c r="AB7" s="145"/>
-      <c r="AC7" s="146"/>
-      <c r="AD7" s="150" t="s">
+      <c r="AA7" s="195"/>
+      <c r="AB7" s="195"/>
+      <c r="AC7" s="196"/>
+      <c r="AD7" s="205" t="s">
         <v>20</v>
       </c>
       <c r="AE7" s="7"/>
-      <c r="AF7" s="144">
+      <c r="AF7" s="194">
         <f>GETPIVOTDATA("Yield",$AF$11,"Variety",3,"Fungicide","A")</f>
         <v>206.03508988333331</v>
       </c>
-      <c r="AG7" s="146"/>
-      <c r="AH7" s="144">
+      <c r="AG7" s="196"/>
+      <c r="AH7" s="194">
         <f>GETPIVOTDATA("Yield",$AF$11,"Variety",3,"Fungicide","B")</f>
         <v>213.79324269999998</v>
       </c>
-      <c r="AI7" s="146"/>
-      <c r="AJ7" s="150" t="s">
+      <c r="AI7" s="196"/>
+      <c r="AJ7" s="205" t="s">
         <v>20</v>
       </c>
       <c r="AK7" s="1"/>
@@ -8376,7 +8334,7 @@
       <c r="AQ7" s="10">
         <v>227.04792860000001</v>
       </c>
-      <c r="AR7" s="143"/>
+      <c r="AR7" s="206"/>
     </row>
     <row r="8" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -8394,33 +8352,33 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="J8" s="147"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="149"/>
+      <c r="J8" s="200"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="202"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="149"/>
-      <c r="S8" s="152"/>
+      <c r="O8" s="200"/>
+      <c r="P8" s="201"/>
+      <c r="Q8" s="201"/>
+      <c r="R8" s="202"/>
+      <c r="S8" s="197"/>
       <c r="T8" s="7"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="149"/>
-      <c r="W8" s="147"/>
-      <c r="X8" s="149"/>
+      <c r="U8" s="200"/>
+      <c r="V8" s="202"/>
+      <c r="W8" s="200"/>
+      <c r="X8" s="202"/>
       <c r="Y8" s="7"/>
-      <c r="Z8" s="147"/>
-      <c r="AA8" s="148"/>
-      <c r="AB8" s="148"/>
-      <c r="AC8" s="149"/>
-      <c r="AD8" s="150"/>
+      <c r="Z8" s="200"/>
+      <c r="AA8" s="201"/>
+      <c r="AB8" s="201"/>
+      <c r="AC8" s="202"/>
+      <c r="AD8" s="205"/>
       <c r="AE8" s="7"/>
-      <c r="AF8" s="147"/>
-      <c r="AG8" s="149"/>
-      <c r="AH8" s="147"/>
-      <c r="AI8" s="149"/>
-      <c r="AJ8" s="150"/>
+      <c r="AF8" s="200"/>
+      <c r="AG8" s="202"/>
+      <c r="AH8" s="200"/>
+      <c r="AI8" s="202"/>
+      <c r="AJ8" s="205"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="10">
         <v>213.8975671</v>
@@ -8440,7 +8398,7 @@
       <c r="AQ8" s="10">
         <v>225.54411569999999</v>
       </c>
-      <c r="AR8" s="143"/>
+      <c r="AR8" s="206"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -8458,22 +8416,22 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="U9" s="142" t="s">
+      <c r="U9" s="204" t="s">
         <v>24</v>
       </c>
-      <c r="V9" s="142"/>
-      <c r="W9" s="142" t="s">
+      <c r="V9" s="204"/>
+      <c r="W9" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="X9" s="142"/>
-      <c r="AF9" s="142" t="s">
+      <c r="X9" s="204"/>
+      <c r="AF9" s="204" t="s">
         <v>24</v>
       </c>
-      <c r="AG9" s="142"/>
-      <c r="AH9" s="142" t="s">
+      <c r="AG9" s="204"/>
+      <c r="AH9" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="AI9" s="142"/>
+      <c r="AI9" s="204"/>
       <c r="AJ9" s="9"/>
       <c r="AL9" s="9" t="s">
         <v>18</v>
@@ -8510,16 +8468,16 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="AL10" s="151" t="s">
+      <c r="AL10" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="AM10" s="151"/>
-      <c r="AN10" s="151"/>
-      <c r="AO10" s="151" t="s">
+      <c r="AM10" s="203"/>
+      <c r="AN10" s="203"/>
+      <c r="AO10" s="203" t="s">
         <v>23</v>
       </c>
-      <c r="AP10" s="151"/>
-      <c r="AQ10" s="151"/>
+      <c r="AP10" s="203"/>
+      <c r="AQ10" s="203"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -9600,19 +9558,16 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="J3:M8"/>
-    <mergeCell ref="O3:R5"/>
-    <mergeCell ref="O6:R8"/>
-    <mergeCell ref="U3:V8"/>
-    <mergeCell ref="W3:X8"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="AR3:AR5"/>
+    <mergeCell ref="AR6:AR8"/>
+    <mergeCell ref="Z3:AC4"/>
+    <mergeCell ref="Z5:AC6"/>
+    <mergeCell ref="Z7:AC8"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AD7:AD8"/>
     <mergeCell ref="AL10:AN10"/>
     <mergeCell ref="AO10:AQ10"/>
     <mergeCell ref="AF9:AG9"/>
@@ -9626,16 +9581,19 @@
     <mergeCell ref="AF7:AG8"/>
     <mergeCell ref="AH3:AI4"/>
     <mergeCell ref="AH5:AI6"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="AR3:AR5"/>
-    <mergeCell ref="AR6:AR8"/>
-    <mergeCell ref="Z3:AC4"/>
-    <mergeCell ref="Z5:AC6"/>
-    <mergeCell ref="Z7:AC8"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="J3:M8"/>
+    <mergeCell ref="O3:R5"/>
+    <mergeCell ref="O6:R8"/>
+    <mergeCell ref="U3:V8"/>
+    <mergeCell ref="W3:X8"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AF2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9823,57 +9781,57 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="I5" s="160" t="s">
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="209"/>
+      <c r="G5" s="209"/>
+      <c r="I5" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="210"/>
+      <c r="L5" s="210"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="158" t="s">
+      <c r="N5" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="158"/>
-      <c r="P5" s="158"/>
-      <c r="Q5" s="158"/>
-      <c r="S5" s="158" t="s">
+      <c r="O5" s="209"/>
+      <c r="P5" s="209"/>
+      <c r="Q5" s="209"/>
+      <c r="S5" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="158"/>
-      <c r="U5" s="158"/>
-      <c r="V5" s="158"/>
+      <c r="T5" s="209"/>
+      <c r="U5" s="209"/>
+      <c r="V5" s="209"/>
       <c r="W5" s="17"/>
-      <c r="X5" s="158" t="s">
+      <c r="X5" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="Y5" s="158"/>
-      <c r="Z5" s="158"/>
-      <c r="AA5" s="158"/>
+      <c r="Y5" s="209"/>
+      <c r="Z5" s="209"/>
+      <c r="AA5" s="209"/>
       <c r="AB5" s="13"/>
-      <c r="AD5" s="159" t="s">
+      <c r="AD5" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="AE5" s="159"/>
-      <c r="AF5" s="159"/>
-      <c r="AG5" s="159"/>
+      <c r="AE5" s="211"/>
+      <c r="AF5" s="211"/>
+      <c r="AG5" s="211"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="14"/>
-      <c r="AJ5" s="158" t="s">
+      <c r="AJ5" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="AK5" s="158"/>
-      <c r="AL5" s="158"/>
-      <c r="AM5" s="158"/>
-      <c r="AN5" s="158"/>
-      <c r="AO5" s="158"/>
+      <c r="AK5" s="209"/>
+      <c r="AL5" s="209"/>
+      <c r="AM5" s="209"/>
+      <c r="AN5" s="209"/>
+      <c r="AO5" s="209"/>
     </row>
     <row r="6" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
@@ -9882,10 +9840,10 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="146"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="195"/>
+      <c r="L6" s="196"/>
       <c r="M6" s="2"/>
       <c r="N6" s="27"/>
       <c r="O6" s="28"/>
@@ -9896,18 +9854,18 @@
       <c r="U6" s="33"/>
       <c r="V6" s="28"/>
       <c r="W6" s="8"/>
-      <c r="X6" s="144"/>
-      <c r="Y6" s="145"/>
-      <c r="Z6" s="145"/>
-      <c r="AA6" s="146"/>
-      <c r="AB6" s="150" t="s">
+      <c r="X6" s="194"/>
+      <c r="Y6" s="195"/>
+      <c r="Z6" s="195"/>
+      <c r="AA6" s="196"/>
+      <c r="AB6" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="AD6" s="144"/>
-      <c r="AE6" s="146"/>
-      <c r="AF6" s="144"/>
-      <c r="AG6" s="146"/>
-      <c r="AH6" s="150" t="s">
+      <c r="AD6" s="194"/>
+      <c r="AE6" s="196"/>
+      <c r="AF6" s="194"/>
+      <c r="AG6" s="196"/>
+      <c r="AH6" s="205" t="s">
         <v>18</v>
       </c>
       <c r="AJ6" s="10"/>
@@ -9916,7 +9874,7 @@
       <c r="AM6" s="10"/>
       <c r="AN6" s="10"/>
       <c r="AO6" s="10"/>
-      <c r="AP6" s="161"/>
+      <c r="AP6" s="208"/>
     </row>
     <row r="7" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
@@ -9925,10 +9883,10 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="154"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="198"/>
+      <c r="K7" s="198"/>
+      <c r="L7" s="199"/>
       <c r="M7" s="2"/>
       <c r="N7" s="29"/>
       <c r="O7" s="30"/>
@@ -9939,23 +9897,23 @@
       <c r="U7" s="35"/>
       <c r="V7" s="30"/>
       <c r="W7" s="8"/>
-      <c r="X7" s="147"/>
-      <c r="Y7" s="148"/>
-      <c r="Z7" s="148"/>
-      <c r="AA7" s="149"/>
-      <c r="AB7" s="150"/>
-      <c r="AD7" s="147"/>
-      <c r="AE7" s="149"/>
-      <c r="AF7" s="147"/>
-      <c r="AG7" s="149"/>
-      <c r="AH7" s="150"/>
+      <c r="X7" s="200"/>
+      <c r="Y7" s="201"/>
+      <c r="Z7" s="201"/>
+      <c r="AA7" s="202"/>
+      <c r="AB7" s="205"/>
+      <c r="AD7" s="200"/>
+      <c r="AE7" s="202"/>
+      <c r="AF7" s="200"/>
+      <c r="AG7" s="202"/>
+      <c r="AH7" s="205"/>
       <c r="AJ7" s="10"/>
       <c r="AK7" s="10"/>
       <c r="AL7" s="10"/>
       <c r="AM7" s="10"/>
       <c r="AN7" s="10"/>
       <c r="AO7" s="10"/>
-      <c r="AP7" s="161"/>
+      <c r="AP7" s="208"/>
     </row>
     <row r="8" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
@@ -9967,10 +9925,10 @@
       <c r="H8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="152"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="154"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="198"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="199"/>
       <c r="M8" s="2" t="s">
         <v>46</v>
       </c>
@@ -9988,21 +9946,21 @@
       <c r="W8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="X8" s="144"/>
-      <c r="Y8" s="145"/>
-      <c r="Z8" s="145"/>
-      <c r="AA8" s="146"/>
-      <c r="AB8" s="150" t="s">
+      <c r="X8" s="194"/>
+      <c r="Y8" s="195"/>
+      <c r="Z8" s="195"/>
+      <c r="AA8" s="196"/>
+      <c r="AB8" s="205" t="s">
         <v>19</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD8" s="144"/>
-      <c r="AE8" s="146"/>
-      <c r="AF8" s="144"/>
-      <c r="AG8" s="146"/>
-      <c r="AH8" s="150" t="s">
+      <c r="AD8" s="194"/>
+      <c r="AE8" s="196"/>
+      <c r="AF8" s="194"/>
+      <c r="AG8" s="196"/>
+      <c r="AH8" s="205" t="s">
         <v>19</v>
       </c>
       <c r="AI8" s="1" t="s">
@@ -10014,7 +9972,7 @@
       <c r="AM8" s="10"/>
       <c r="AN8" s="10"/>
       <c r="AO8" s="10"/>
-      <c r="AP8" s="161"/>
+      <c r="AP8" s="208"/>
     </row>
     <row r="9" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
@@ -10023,10 +9981,10 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="154"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="199"/>
       <c r="M9" s="2"/>
       <c r="N9" s="29"/>
       <c r="O9" s="30"/>
@@ -10037,23 +9995,23 @@
       <c r="U9" s="33"/>
       <c r="V9" s="28"/>
       <c r="W9" s="8"/>
-      <c r="X9" s="147"/>
-      <c r="Y9" s="148"/>
-      <c r="Z9" s="148"/>
-      <c r="AA9" s="149"/>
-      <c r="AB9" s="150"/>
-      <c r="AD9" s="147"/>
-      <c r="AE9" s="149"/>
-      <c r="AF9" s="147"/>
-      <c r="AG9" s="149"/>
-      <c r="AH9" s="150"/>
+      <c r="X9" s="200"/>
+      <c r="Y9" s="201"/>
+      <c r="Z9" s="201"/>
+      <c r="AA9" s="202"/>
+      <c r="AB9" s="205"/>
+      <c r="AD9" s="200"/>
+      <c r="AE9" s="202"/>
+      <c r="AF9" s="200"/>
+      <c r="AG9" s="202"/>
+      <c r="AH9" s="205"/>
       <c r="AJ9" s="10"/>
       <c r="AK9" s="10"/>
       <c r="AL9" s="10"/>
       <c r="AM9" s="10"/>
       <c r="AN9" s="10"/>
       <c r="AO9" s="10"/>
-      <c r="AP9" s="161"/>
+      <c r="AP9" s="208"/>
     </row>
     <row r="10" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
@@ -10062,10 +10020,10 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="154"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="199"/>
       <c r="M10" s="2"/>
       <c r="N10" s="29"/>
       <c r="O10" s="30"/>
@@ -10076,18 +10034,18 @@
       <c r="U10" s="35"/>
       <c r="V10" s="30"/>
       <c r="W10" s="8"/>
-      <c r="X10" s="144"/>
-      <c r="Y10" s="145"/>
-      <c r="Z10" s="145"/>
-      <c r="AA10" s="146"/>
-      <c r="AB10" s="150" t="s">
+      <c r="X10" s="194"/>
+      <c r="Y10" s="195"/>
+      <c r="Z10" s="195"/>
+      <c r="AA10" s="196"/>
+      <c r="AB10" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="AD10" s="144"/>
-      <c r="AE10" s="146"/>
-      <c r="AF10" s="144"/>
-      <c r="AG10" s="146"/>
-      <c r="AH10" s="150" t="s">
+      <c r="AD10" s="194"/>
+      <c r="AE10" s="196"/>
+      <c r="AF10" s="194"/>
+      <c r="AG10" s="196"/>
+      <c r="AH10" s="205" t="s">
         <v>20</v>
       </c>
       <c r="AJ10" s="10"/>
@@ -10096,7 +10054,7 @@
       <c r="AM10" s="10"/>
       <c r="AN10" s="10"/>
       <c r="AO10" s="10"/>
-      <c r="AP10" s="161"/>
+      <c r="AP10" s="208"/>
     </row>
     <row r="11" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
@@ -10105,10 +10063,10 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="149"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="202"/>
       <c r="M11" s="2"/>
       <c r="N11" s="31"/>
       <c r="O11" s="32"/>
@@ -10119,23 +10077,23 @@
       <c r="U11" s="34"/>
       <c r="V11" s="32"/>
       <c r="W11" s="8"/>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="148"/>
-      <c r="Z11" s="148"/>
-      <c r="AA11" s="149"/>
-      <c r="AB11" s="150"/>
-      <c r="AD11" s="147"/>
-      <c r="AE11" s="149"/>
-      <c r="AF11" s="147"/>
-      <c r="AG11" s="149"/>
-      <c r="AH11" s="150"/>
+      <c r="X11" s="200"/>
+      <c r="Y11" s="201"/>
+      <c r="Z11" s="201"/>
+      <c r="AA11" s="202"/>
+      <c r="AB11" s="205"/>
+      <c r="AD11" s="200"/>
+      <c r="AE11" s="202"/>
+      <c r="AF11" s="200"/>
+      <c r="AG11" s="202"/>
+      <c r="AH11" s="205"/>
       <c r="AJ11" s="10"/>
       <c r="AK11" s="10"/>
       <c r="AL11" s="10"/>
       <c r="AM11" s="10"/>
       <c r="AN11" s="10"/>
       <c r="AO11" s="10"/>
-      <c r="AP11" s="161"/>
+      <c r="AP11" s="208"/>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
@@ -10157,22 +10115,22 @@
         <v>20</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="164" t="s">
+      <c r="N12" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="164"/>
-      <c r="P12" s="164" t="s">
+      <c r="O12" s="207"/>
+      <c r="P12" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="Q12" s="164"/>
-      <c r="AD12" s="164" t="s">
+      <c r="Q12" s="207"/>
+      <c r="AD12" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="AE12" s="164"/>
-      <c r="AF12" s="164" t="s">
+      <c r="AE12" s="207"/>
+      <c r="AF12" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="AG12" s="164"/>
+      <c r="AG12" s="207"/>
       <c r="AH12" s="2"/>
       <c r="AJ12" s="2" t="s">
         <v>18</v>
@@ -10194,26 +10152,26 @@
       </c>
     </row>
     <row r="13" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B13" s="156" t="s">
+      <c r="B13" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156" t="s">
+      <c r="C13" s="192"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="AJ13" s="156" t="s">
+      <c r="F13" s="192"/>
+      <c r="G13" s="192"/>
+      <c r="AJ13" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="AK13" s="156"/>
-      <c r="AL13" s="156"/>
-      <c r="AM13" s="156" t="s">
+      <c r="AK13" s="192"/>
+      <c r="AL13" s="192"/>
+      <c r="AM13" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="AN13" s="156"/>
-      <c r="AO13" s="156"/>
+      <c r="AN13" s="192"/>
+      <c r="AO13" s="192"/>
     </row>
     <row r="14" spans="2:42" ht="31.5" x14ac:dyDescent="0.5">
       <c r="I14" s="18"/>
@@ -10224,19 +10182,19 @@
       <c r="H15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="162" t="s">
+      <c r="I15" s="212" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="162"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="162"/>
+      <c r="J15" s="212"/>
+      <c r="K15" s="212"/>
+      <c r="L15" s="212"/>
       <c r="M15" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="163"/>
-      <c r="O15" s="163"/>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="163"/>
+      <c r="N15" s="213"/>
+      <c r="O15" s="213"/>
+      <c r="P15" s="213"/>
+      <c r="Q15" s="213"/>
       <c r="R15" s="19" t="s">
         <v>46</v>
       </c>
@@ -10244,10 +10202,10 @@
       <c r="W15" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="X15" s="156"/>
-      <c r="Y15" s="156"/>
-      <c r="Z15" s="156"/>
-      <c r="AA15" s="156"/>
+      <c r="X15" s="192"/>
+      <c r="Y15" s="192"/>
+      <c r="Z15" s="192"/>
+      <c r="AA15" s="192"/>
       <c r="AC15" s="19" t="s">
         <v>46</v>
       </c>
@@ -10279,56 +10237,56 @@
       <c r="X25" s="16"/>
     </row>
     <row r="26" spans="9:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J26" s="160" t="s">
+      <c r="J26" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="K26" s="160"/>
-      <c r="L26" s="160"/>
-      <c r="M26" s="160"/>
+      <c r="K26" s="210"/>
+      <c r="L26" s="210"/>
+      <c r="M26" s="210"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="158" t="s">
+      <c r="O26" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="158"/>
-      <c r="R26" s="158"/>
+      <c r="P26" s="209"/>
+      <c r="Q26" s="209"/>
+      <c r="R26" s="209"/>
       <c r="S26" s="2"/>
-      <c r="T26" s="158" t="s">
+      <c r="T26" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="U26" s="158"/>
-      <c r="V26" s="158"/>
-      <c r="W26" s="158"/>
+      <c r="U26" s="209"/>
+      <c r="V26" s="209"/>
+      <c r="W26" s="209"/>
       <c r="X26" s="17"/>
-      <c r="Y26" s="158" t="s">
+      <c r="Y26" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="Z26" s="158"/>
-      <c r="AA26" s="158"/>
-      <c r="AB26" s="158"/>
+      <c r="Z26" s="209"/>
+      <c r="AA26" s="209"/>
+      <c r="AB26" s="209"/>
       <c r="AC26" s="13"/>
-      <c r="AE26" s="159" t="s">
+      <c r="AE26" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="AF26" s="159"/>
-      <c r="AG26" s="159"/>
-      <c r="AH26" s="159"/>
+      <c r="AF26" s="211"/>
+      <c r="AG26" s="211"/>
+      <c r="AH26" s="211"/>
       <c r="AI26" s="15"/>
       <c r="AJ26" s="14"/>
-      <c r="AK26" s="158" t="s">
+      <c r="AK26" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="AL26" s="158"/>
-      <c r="AM26" s="158"/>
-      <c r="AN26" s="158"/>
-      <c r="AO26" s="158"/>
-      <c r="AP26" s="158"/>
+      <c r="AL26" s="209"/>
+      <c r="AM26" s="209"/>
+      <c r="AN26" s="209"/>
+      <c r="AO26" s="209"/>
+      <c r="AP26" s="209"/>
     </row>
     <row r="27" spans="9:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J27" s="144"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="145"/>
-      <c r="M27" s="146"/>
+      <c r="J27" s="194"/>
+      <c r="K27" s="195"/>
+      <c r="L27" s="195"/>
+      <c r="M27" s="196"/>
       <c r="N27" s="2"/>
       <c r="O27" s="27"/>
       <c r="P27" s="28"/>
@@ -10340,18 +10298,18 @@
       <c r="V27" s="33"/>
       <c r="W27" s="28"/>
       <c r="X27" s="8"/>
-      <c r="Y27" s="144"/>
-      <c r="Z27" s="145"/>
-      <c r="AA27" s="145"/>
-      <c r="AB27" s="146"/>
-      <c r="AC27" s="150" t="s">
+      <c r="Y27" s="194"/>
+      <c r="Z27" s="195"/>
+      <c r="AA27" s="195"/>
+      <c r="AB27" s="196"/>
+      <c r="AC27" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="AE27" s="144"/>
-      <c r="AF27" s="146"/>
-      <c r="AG27" s="144"/>
-      <c r="AH27" s="146"/>
-      <c r="AI27" s="150" t="s">
+      <c r="AE27" s="194"/>
+      <c r="AF27" s="196"/>
+      <c r="AG27" s="194"/>
+      <c r="AH27" s="196"/>
+      <c r="AI27" s="205" t="s">
         <v>18</v>
       </c>
       <c r="AK27" s="10"/>
@@ -10360,13 +10318,13 @@
       <c r="AN27" s="10"/>
       <c r="AO27" s="10"/>
       <c r="AP27" s="10"/>
-      <c r="AQ27" s="161"/>
+      <c r="AQ27" s="208"/>
     </row>
     <row r="28" spans="9:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J28" s="152"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="154"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="198"/>
+      <c r="L28" s="198"/>
+      <c r="M28" s="199"/>
       <c r="N28" s="2"/>
       <c r="O28" s="29"/>
       <c r="P28" s="30"/>
@@ -10378,32 +10336,32 @@
       <c r="V28" s="35"/>
       <c r="W28" s="30"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="147"/>
-      <c r="Z28" s="148"/>
-      <c r="AA28" s="148"/>
-      <c r="AB28" s="149"/>
-      <c r="AC28" s="150"/>
-      <c r="AE28" s="147"/>
-      <c r="AF28" s="149"/>
-      <c r="AG28" s="147"/>
-      <c r="AH28" s="149"/>
-      <c r="AI28" s="150"/>
+      <c r="Y28" s="200"/>
+      <c r="Z28" s="201"/>
+      <c r="AA28" s="201"/>
+      <c r="AB28" s="202"/>
+      <c r="AC28" s="205"/>
+      <c r="AE28" s="200"/>
+      <c r="AF28" s="202"/>
+      <c r="AG28" s="200"/>
+      <c r="AH28" s="202"/>
+      <c r="AI28" s="205"/>
       <c r="AK28" s="10"/>
       <c r="AL28" s="10"/>
       <c r="AM28" s="10"/>
       <c r="AN28" s="10"/>
       <c r="AO28" s="10"/>
       <c r="AP28" s="10"/>
-      <c r="AQ28" s="161"/>
+      <c r="AQ28" s="208"/>
     </row>
     <row r="29" spans="9:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="152"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="154"/>
+      <c r="J29" s="197"/>
+      <c r="K29" s="198"/>
+      <c r="L29" s="198"/>
+      <c r="M29" s="199"/>
       <c r="N29" s="2" t="s">
         <v>46</v>
       </c>
@@ -10421,21 +10379,21 @@
       <c r="X29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="Y29" s="144"/>
-      <c r="Z29" s="145"/>
-      <c r="AA29" s="145"/>
-      <c r="AB29" s="146"/>
-      <c r="AC29" s="150" t="s">
+      <c r="Y29" s="194"/>
+      <c r="Z29" s="195"/>
+      <c r="AA29" s="195"/>
+      <c r="AB29" s="196"/>
+      <c r="AC29" s="205" t="s">
         <v>19</v>
       </c>
       <c r="AD29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AE29" s="144"/>
-      <c r="AF29" s="146"/>
-      <c r="AG29" s="144"/>
-      <c r="AH29" s="146"/>
-      <c r="AI29" s="150" t="s">
+      <c r="AE29" s="194"/>
+      <c r="AF29" s="196"/>
+      <c r="AG29" s="194"/>
+      <c r="AH29" s="196"/>
+      <c r="AI29" s="205" t="s">
         <v>19</v>
       </c>
       <c r="AJ29" s="1" t="s">
@@ -10447,13 +10405,13 @@
       <c r="AN29" s="10"/>
       <c r="AO29" s="10"/>
       <c r="AP29" s="10"/>
-      <c r="AQ29" s="161"/>
+      <c r="AQ29" s="208"/>
     </row>
     <row r="30" spans="9:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J30" s="152"/>
-      <c r="K30" s="153"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="154"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="198"/>
+      <c r="L30" s="198"/>
+      <c r="M30" s="199"/>
       <c r="N30" s="2"/>
       <c r="O30" s="29"/>
       <c r="P30" s="30"/>
@@ -10465,29 +10423,29 @@
       <c r="V30" s="33"/>
       <c r="W30" s="28"/>
       <c r="X30" s="8"/>
-      <c r="Y30" s="147"/>
-      <c r="Z30" s="148"/>
-      <c r="AA30" s="148"/>
-      <c r="AB30" s="149"/>
-      <c r="AC30" s="150"/>
-      <c r="AE30" s="147"/>
-      <c r="AF30" s="149"/>
-      <c r="AG30" s="147"/>
-      <c r="AH30" s="149"/>
-      <c r="AI30" s="150"/>
+      <c r="Y30" s="200"/>
+      <c r="Z30" s="201"/>
+      <c r="AA30" s="201"/>
+      <c r="AB30" s="202"/>
+      <c r="AC30" s="205"/>
+      <c r="AE30" s="200"/>
+      <c r="AF30" s="202"/>
+      <c r="AG30" s="200"/>
+      <c r="AH30" s="202"/>
+      <c r="AI30" s="205"/>
       <c r="AK30" s="10"/>
       <c r="AL30" s="10"/>
       <c r="AM30" s="10"/>
       <c r="AN30" s="10"/>
       <c r="AO30" s="10"/>
       <c r="AP30" s="10"/>
-      <c r="AQ30" s="161"/>
+      <c r="AQ30" s="208"/>
     </row>
     <row r="31" spans="9:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J31" s="152"/>
-      <c r="K31" s="153"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="154"/>
+      <c r="J31" s="197"/>
+      <c r="K31" s="198"/>
+      <c r="L31" s="198"/>
+      <c r="M31" s="199"/>
       <c r="N31" s="2"/>
       <c r="O31" s="29"/>
       <c r="P31" s="30"/>
@@ -10499,18 +10457,18 @@
       <c r="V31" s="35"/>
       <c r="W31" s="30"/>
       <c r="X31" s="8"/>
-      <c r="Y31" s="144"/>
-      <c r="Z31" s="145"/>
-      <c r="AA31" s="145"/>
-      <c r="AB31" s="146"/>
-      <c r="AC31" s="150" t="s">
+      <c r="Y31" s="194"/>
+      <c r="Z31" s="195"/>
+      <c r="AA31" s="195"/>
+      <c r="AB31" s="196"/>
+      <c r="AC31" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="AE31" s="144"/>
-      <c r="AF31" s="146"/>
-      <c r="AG31" s="144"/>
-      <c r="AH31" s="146"/>
-      <c r="AI31" s="150" t="s">
+      <c r="AE31" s="194"/>
+      <c r="AF31" s="196"/>
+      <c r="AG31" s="194"/>
+      <c r="AH31" s="196"/>
+      <c r="AI31" s="205" t="s">
         <v>20</v>
       </c>
       <c r="AK31" s="10"/>
@@ -10519,13 +10477,13 @@
       <c r="AN31" s="10"/>
       <c r="AO31" s="10"/>
       <c r="AP31" s="10"/>
-      <c r="AQ31" s="161"/>
+      <c r="AQ31" s="208"/>
     </row>
     <row r="32" spans="9:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J32" s="147"/>
-      <c r="K32" s="148"/>
-      <c r="L32" s="148"/>
-      <c r="M32" s="149"/>
+      <c r="J32" s="200"/>
+      <c r="K32" s="201"/>
+      <c r="L32" s="201"/>
+      <c r="M32" s="202"/>
       <c r="N32" s="2"/>
       <c r="O32" s="31"/>
       <c r="P32" s="32"/>
@@ -10537,45 +10495,45 @@
       <c r="V32" s="34"/>
       <c r="W32" s="32"/>
       <c r="X32" s="8"/>
-      <c r="Y32" s="147"/>
-      <c r="Z32" s="148"/>
-      <c r="AA32" s="148"/>
-      <c r="AB32" s="149"/>
-      <c r="AC32" s="150"/>
-      <c r="AE32" s="147"/>
-      <c r="AF32" s="149"/>
-      <c r="AG32" s="147"/>
-      <c r="AH32" s="149"/>
-      <c r="AI32" s="150"/>
+      <c r="Y32" s="200"/>
+      <c r="Z32" s="201"/>
+      <c r="AA32" s="201"/>
+      <c r="AB32" s="202"/>
+      <c r="AC32" s="205"/>
+      <c r="AE32" s="200"/>
+      <c r="AF32" s="202"/>
+      <c r="AG32" s="200"/>
+      <c r="AH32" s="202"/>
+      <c r="AI32" s="205"/>
       <c r="AK32" s="10"/>
       <c r="AL32" s="10"/>
       <c r="AM32" s="10"/>
       <c r="AN32" s="10"/>
       <c r="AO32" s="10"/>
       <c r="AP32" s="10"/>
-      <c r="AQ32" s="161"/>
+      <c r="AQ32" s="208"/>
     </row>
     <row r="33" spans="10:42" x14ac:dyDescent="0.25">
       <c r="N33" s="2"/>
-      <c r="O33" s="164" t="s">
+      <c r="O33" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="P33" s="164"/>
-      <c r="Q33" s="164" t="s">
+      <c r="P33" s="207"/>
+      <c r="Q33" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="R33" s="164"/>
+      <c r="R33" s="207"/>
       <c r="S33" s="2"/>
       <c r="W33" s="1"/>
       <c r="X33" s="16"/>
-      <c r="AE33" s="164" t="s">
+      <c r="AE33" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="AF33" s="164"/>
-      <c r="AG33" s="164" t="s">
+      <c r="AF33" s="207"/>
+      <c r="AG33" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="AH33" s="164"/>
+      <c r="AH33" s="207"/>
       <c r="AI33" s="2"/>
       <c r="AK33" s="2" t="s">
         <v>18</v>
@@ -10601,16 +10559,16 @@
       <c r="S34" s="2"/>
       <c r="W34" s="1"/>
       <c r="X34" s="16"/>
-      <c r="AK34" s="156" t="s">
+      <c r="AK34" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="AL34" s="156"/>
-      <c r="AM34" s="156"/>
-      <c r="AN34" s="156" t="s">
+      <c r="AL34" s="192"/>
+      <c r="AM34" s="192"/>
+      <c r="AN34" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="AO34" s="156"/>
-      <c r="AP34" s="156"/>
+      <c r="AO34" s="192"/>
+      <c r="AP34" s="192"/>
     </row>
     <row r="35" spans="10:42" ht="31.5" x14ac:dyDescent="0.5">
       <c r="J35" s="18"/>
@@ -10623,12 +10581,54 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="AN34:AP34"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AJ5:AO5"/>
+    <mergeCell ref="I6:L11"/>
+    <mergeCell ref="X6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AD6:AE7"/>
+    <mergeCell ref="AF6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="AP6:AP8"/>
+    <mergeCell ref="X8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AD8:AE9"/>
+    <mergeCell ref="AF8:AG9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AP9:AP11"/>
+    <mergeCell ref="X10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AD10:AE11"/>
+    <mergeCell ref="AF10:AG11"/>
+    <mergeCell ref="AH10:AH11"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="X15:AA15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="AM13:AO13"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="AK26:AP26"/>
+    <mergeCell ref="J27:M32"/>
+    <mergeCell ref="Y27:AB28"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AE27:AF28"/>
+    <mergeCell ref="AG27:AH28"/>
+    <mergeCell ref="AI27:AI28"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="AE26:AH26"/>
     <mergeCell ref="AQ27:AQ29"/>
     <mergeCell ref="Y29:AB30"/>
     <mergeCell ref="AC29:AC30"/>
@@ -10641,54 +10641,12 @@
     <mergeCell ref="AE31:AF32"/>
     <mergeCell ref="AG31:AH32"/>
     <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="AK26:AP26"/>
-    <mergeCell ref="J27:M32"/>
-    <mergeCell ref="Y27:AB28"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AE27:AF28"/>
-    <mergeCell ref="AG27:AH28"/>
-    <mergeCell ref="AI27:AI28"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="AE26:AH26"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="X15:AA15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="AM13:AO13"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="AP6:AP8"/>
-    <mergeCell ref="X8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AD8:AE9"/>
-    <mergeCell ref="AF8:AG9"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AP9:AP11"/>
-    <mergeCell ref="X10:AA11"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AD10:AE11"/>
-    <mergeCell ref="AF10:AG11"/>
-    <mergeCell ref="AH10:AH11"/>
-    <mergeCell ref="AJ5:AO5"/>
-    <mergeCell ref="I6:L11"/>
-    <mergeCell ref="X6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AD6:AE7"/>
-    <mergeCell ref="AF6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AN34:AP34"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AK34:AM34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10791,57 +10749,57 @@
     </row>
     <row r="9" spans="4:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
-      <c r="E9" s="160" t="s">
+      <c r="E9" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="210"/>
+      <c r="H9" s="210"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="158" t="s">
+      <c r="J9" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
+      <c r="K9" s="209"/>
+      <c r="L9" s="209"/>
+      <c r="M9" s="209"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="158" t="s">
+      <c r="O9" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="158"/>
-      <c r="R9" s="158"/>
+      <c r="P9" s="209"/>
+      <c r="Q9" s="209"/>
+      <c r="R9" s="209"/>
       <c r="S9" s="17"/>
-      <c r="T9" s="158" t="s">
+      <c r="T9" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="158"/>
-      <c r="V9" s="158"/>
-      <c r="W9" s="158"/>
+      <c r="U9" s="209"/>
+      <c r="V9" s="209"/>
+      <c r="W9" s="209"/>
       <c r="X9" s="13"/>
-      <c r="Y9" s="159" t="s">
+      <c r="Y9" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="Z9" s="159"/>
-      <c r="AA9" s="159"/>
-      <c r="AB9" s="159"/>
+      <c r="Z9" s="211"/>
+      <c r="AA9" s="211"/>
+      <c r="AB9" s="211"/>
       <c r="AC9" s="15"/>
-      <c r="AD9" s="158" t="s">
+      <c r="AD9" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="AE9" s="158"/>
-      <c r="AF9" s="158"/>
-      <c r="AG9" s="158"/>
-      <c r="AH9" s="158"/>
-      <c r="AI9" s="158"/>
+      <c r="AE9" s="209"/>
+      <c r="AF9" s="209"/>
+      <c r="AG9" s="209"/>
+      <c r="AH9" s="209"/>
+      <c r="AI9" s="209"/>
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="4:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="146"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="195"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="196"/>
       <c r="I10" s="2"/>
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
@@ -10853,18 +10811,18 @@
       <c r="Q10" s="33"/>
       <c r="R10" s="28"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="145"/>
-      <c r="V10" s="145"/>
-      <c r="W10" s="146"/>
-      <c r="X10" s="150" t="s">
+      <c r="T10" s="194"/>
+      <c r="U10" s="195"/>
+      <c r="V10" s="195"/>
+      <c r="W10" s="196"/>
+      <c r="X10" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="Y10" s="144"/>
-      <c r="Z10" s="146"/>
-      <c r="AA10" s="144"/>
-      <c r="AB10" s="146"/>
-      <c r="AC10" s="150" t="s">
+      <c r="Y10" s="194"/>
+      <c r="Z10" s="196"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="196"/>
+      <c r="AC10" s="205" t="s">
         <v>18</v>
       </c>
       <c r="AD10" s="10"/>
@@ -10873,14 +10831,14 @@
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
       <c r="AI10" s="10"/>
-      <c r="AJ10" s="161"/>
+      <c r="AJ10" s="208"/>
     </row>
     <row r="11" spans="4:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="154"/>
+      <c r="E11" s="197"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="199"/>
       <c r="I11" s="2"/>
       <c r="J11" s="29"/>
       <c r="K11" s="30"/>
@@ -10892,30 +10850,30 @@
       <c r="Q11" s="35"/>
       <c r="R11" s="30"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="148"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="149"/>
-      <c r="X11" s="150"/>
-      <c r="Y11" s="147"/>
-      <c r="Z11" s="149"/>
-      <c r="AA11" s="147"/>
-      <c r="AB11" s="149"/>
-      <c r="AC11" s="150"/>
+      <c r="T11" s="200"/>
+      <c r="U11" s="201"/>
+      <c r="V11" s="201"/>
+      <c r="W11" s="202"/>
+      <c r="X11" s="205"/>
+      <c r="Y11" s="200"/>
+      <c r="Z11" s="202"/>
+      <c r="AA11" s="200"/>
+      <c r="AB11" s="202"/>
+      <c r="AC11" s="205"/>
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
       <c r="AI11" s="10"/>
-      <c r="AJ11" s="161"/>
+      <c r="AJ11" s="208"/>
     </row>
     <row r="12" spans="4:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="154"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="198"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="199"/>
       <c r="I12" s="2"/>
       <c r="J12" s="29"/>
       <c r="K12" s="30"/>
@@ -10927,18 +10885,18 @@
       <c r="Q12" s="34"/>
       <c r="R12" s="32"/>
       <c r="S12" s="8"/>
-      <c r="T12" s="144"/>
-      <c r="U12" s="145"/>
-      <c r="V12" s="145"/>
-      <c r="W12" s="146"/>
-      <c r="X12" s="150" t="s">
+      <c r="T12" s="194"/>
+      <c r="U12" s="195"/>
+      <c r="V12" s="195"/>
+      <c r="W12" s="196"/>
+      <c r="X12" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="Y12" s="144"/>
-      <c r="Z12" s="146"/>
-      <c r="AA12" s="144"/>
-      <c r="AB12" s="146"/>
-      <c r="AC12" s="150" t="s">
+      <c r="Y12" s="194"/>
+      <c r="Z12" s="196"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="196"/>
+      <c r="AC12" s="205" t="s">
         <v>19</v>
       </c>
       <c r="AD12" s="10"/>
@@ -10947,14 +10905,14 @@
       <c r="AG12" s="10"/>
       <c r="AH12" s="10"/>
       <c r="AI12" s="10"/>
-      <c r="AJ12" s="161"/>
+      <c r="AJ12" s="208"/>
     </row>
     <row r="13" spans="4:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="154"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="198"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="199"/>
       <c r="I13" s="2"/>
       <c r="J13" s="29"/>
       <c r="K13" s="30"/>
@@ -10966,30 +10924,30 @@
       <c r="Q13" s="33"/>
       <c r="R13" s="28"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="148"/>
-      <c r="V13" s="148"/>
-      <c r="W13" s="149"/>
-      <c r="X13" s="150"/>
-      <c r="Y13" s="147"/>
-      <c r="Z13" s="149"/>
-      <c r="AA13" s="147"/>
-      <c r="AB13" s="149"/>
-      <c r="AC13" s="150"/>
+      <c r="T13" s="200"/>
+      <c r="U13" s="201"/>
+      <c r="V13" s="201"/>
+      <c r="W13" s="202"/>
+      <c r="X13" s="205"/>
+      <c r="Y13" s="200"/>
+      <c r="Z13" s="202"/>
+      <c r="AA13" s="200"/>
+      <c r="AB13" s="202"/>
+      <c r="AC13" s="205"/>
       <c r="AD13" s="10"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
       <c r="AG13" s="10"/>
       <c r="AH13" s="10"/>
       <c r="AI13" s="10"/>
-      <c r="AJ13" s="161"/>
+      <c r="AJ13" s="208"/>
     </row>
     <row r="14" spans="4:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="154"/>
+      <c r="E14" s="197"/>
+      <c r="F14" s="198"/>
+      <c r="G14" s="198"/>
+      <c r="H14" s="199"/>
       <c r="I14" s="2"/>
       <c r="J14" s="29"/>
       <c r="K14" s="30"/>
@@ -11001,18 +10959,18 @@
       <c r="Q14" s="35"/>
       <c r="R14" s="30"/>
       <c r="S14" s="8"/>
-      <c r="T14" s="144"/>
-      <c r="U14" s="145"/>
-      <c r="V14" s="145"/>
-      <c r="W14" s="146"/>
-      <c r="X14" s="150" t="s">
+      <c r="T14" s="194"/>
+      <c r="U14" s="195"/>
+      <c r="V14" s="195"/>
+      <c r="W14" s="196"/>
+      <c r="X14" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="Y14" s="144"/>
-      <c r="Z14" s="146"/>
-      <c r="AA14" s="144"/>
-      <c r="AB14" s="146"/>
-      <c r="AC14" s="150" t="s">
+      <c r="Y14" s="194"/>
+      <c r="Z14" s="196"/>
+      <c r="AA14" s="194"/>
+      <c r="AB14" s="196"/>
+      <c r="AC14" s="205" t="s">
         <v>20</v>
       </c>
       <c r="AD14" s="10"/>
@@ -11021,14 +10979,14 @@
       <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
       <c r="AI14" s="10"/>
-      <c r="AJ14" s="161"/>
+      <c r="AJ14" s="208"/>
     </row>
     <row r="15" spans="4:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="149"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="202"/>
       <c r="I15" s="2"/>
       <c r="J15" s="31"/>
       <c r="K15" s="32"/>
@@ -11040,23 +10998,23 @@
       <c r="Q15" s="34"/>
       <c r="R15" s="32"/>
       <c r="S15" s="8"/>
-      <c r="T15" s="147"/>
-      <c r="U15" s="148"/>
-      <c r="V15" s="148"/>
-      <c r="W15" s="149"/>
-      <c r="X15" s="150"/>
-      <c r="Y15" s="147"/>
-      <c r="Z15" s="149"/>
-      <c r="AA15" s="147"/>
-      <c r="AB15" s="149"/>
-      <c r="AC15" s="150"/>
+      <c r="T15" s="200"/>
+      <c r="U15" s="201"/>
+      <c r="V15" s="201"/>
+      <c r="W15" s="202"/>
+      <c r="X15" s="205"/>
+      <c r="Y15" s="200"/>
+      <c r="Z15" s="202"/>
+      <c r="AA15" s="200"/>
+      <c r="AB15" s="202"/>
+      <c r="AC15" s="205"/>
       <c r="AD15" s="10"/>
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
       <c r="AG15" s="10"/>
       <c r="AH15" s="10"/>
       <c r="AI15" s="10"/>
-      <c r="AJ15" s="161"/>
+      <c r="AJ15" s="208"/>
     </row>
     <row r="16" spans="4:36" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
@@ -11065,14 +11023,14 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="164" t="s">
+      <c r="J16" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="164"/>
-      <c r="L16" s="164" t="s">
+      <c r="K16" s="207"/>
+      <c r="L16" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="164"/>
+      <c r="M16" s="207"/>
       <c r="N16" s="2"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -11084,14 +11042,14 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="164" t="s">
+      <c r="Y16" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="Z16" s="164"/>
-      <c r="AA16" s="164" t="s">
+      <c r="Z16" s="207"/>
+      <c r="AA16" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="AB16" s="164"/>
+      <c r="AB16" s="207"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2" t="s">
         <v>18</v>
@@ -11140,16 +11098,16 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="156" t="s">
+      <c r="AD17" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="AE17" s="156"/>
-      <c r="AF17" s="156"/>
-      <c r="AG17" s="156" t="s">
+      <c r="AE17" s="192"/>
+      <c r="AF17" s="192"/>
+      <c r="AG17" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="AH17" s="156"/>
-      <c r="AI17" s="156"/>
+      <c r="AH17" s="192"/>
+      <c r="AI17" s="192"/>
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="4:36" ht="31.5" x14ac:dyDescent="0.5">
@@ -11189,11 +11147,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="AD9:AI9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="E10:H15"/>
+    <mergeCell ref="T10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="AA10:AB11"/>
+    <mergeCell ref="AA14:AB15"/>
     <mergeCell ref="AG17:AI17"/>
     <mergeCell ref="AJ10:AJ12"/>
     <mergeCell ref="T12:W13"/>
@@ -11207,18 +11172,11 @@
     <mergeCell ref="Y14:Z15"/>
     <mergeCell ref="AC10:AC11"/>
     <mergeCell ref="AC14:AC15"/>
-    <mergeCell ref="E10:H15"/>
-    <mergeCell ref="T10:W11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="AA10:AB11"/>
-    <mergeCell ref="AA14:AB15"/>
-    <mergeCell ref="AD9:AI9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AD17:AF17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11228,7 +11186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55407F7-75E6-47E4-919B-CE326E7DA3D3}">
   <dimension ref="A2:AX35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14:V18"/>
     </sheetView>
   </sheetViews>
@@ -11270,46 +11228,46 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="151" t="s">
+      <c r="J3" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="Q3" s="151" t="s">
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="203"/>
+      <c r="Q3" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="151"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="X3" s="151" t="s">
+      <c r="R3" s="203"/>
+      <c r="S3" s="203"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="X3" s="203" t="s">
         <v>50</v>
       </c>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="151"/>
-      <c r="AA3" s="151"/>
-      <c r="AB3" s="151"/>
-      <c r="AC3" s="151"/>
-      <c r="AE3" s="151" t="s">
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="203"/>
+      <c r="AA3" s="203"/>
+      <c r="AB3" s="203"/>
+      <c r="AC3" s="203"/>
+      <c r="AE3" s="203" t="s">
         <v>51</v>
       </c>
-      <c r="AF3" s="151"/>
-      <c r="AG3" s="151"/>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="151"/>
+      <c r="AF3" s="203"/>
+      <c r="AG3" s="203"/>
+      <c r="AH3" s="203"/>
+      <c r="AI3" s="203"/>
       <c r="AJ3" s="9"/>
-      <c r="AL3" s="151" t="s">
+      <c r="AL3" s="203" t="s">
         <v>52</v>
       </c>
-      <c r="AM3" s="151"/>
-      <c r="AN3" s="151"/>
-      <c r="AO3" s="151"/>
-      <c r="AP3" s="151"/>
-      <c r="AQ3" s="151"/>
+      <c r="AM3" s="203"/>
+      <c r="AN3" s="203"/>
+      <c r="AO3" s="203"/>
+      <c r="AP3" s="203"/>
+      <c r="AQ3" s="203"/>
       <c r="AS3" t="s">
         <v>53</v>
       </c>
@@ -13491,54 +13449,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="C1" s="151" t="s">
+      <c r="C1" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="J1" s="165" t="s">
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="J1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="Q1" s="165" t="s">
+      <c r="K1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="214"/>
+      <c r="Q1" s="214" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="165"/>
-      <c r="S1" s="165"/>
-      <c r="T1" s="165"/>
-      <c r="U1" s="165"/>
-      <c r="V1" s="165"/>
-      <c r="X1" s="165" t="s">
+      <c r="R1" s="214"/>
+      <c r="S1" s="214"/>
+      <c r="T1" s="214"/>
+      <c r="U1" s="214"/>
+      <c r="V1" s="214"/>
+      <c r="X1" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="165"/>
-      <c r="AB1" s="165"/>
-      <c r="AC1" s="165"/>
-      <c r="AE1" s="151" t="s">
+      <c r="Y1" s="214"/>
+      <c r="Z1" s="214"/>
+      <c r="AA1" s="214"/>
+      <c r="AB1" s="214"/>
+      <c r="AC1" s="214"/>
+      <c r="AE1" s="203" t="s">
         <v>51</v>
       </c>
-      <c r="AF1" s="151"/>
-      <c r="AG1" s="151"/>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="151"/>
-      <c r="AJ1" s="151"/>
-      <c r="AL1" s="165" t="s">
+      <c r="AF1" s="203"/>
+      <c r="AG1" s="203"/>
+      <c r="AH1" s="203"/>
+      <c r="AI1" s="203"/>
+      <c r="AJ1" s="203"/>
+      <c r="AL1" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="AM1" s="165"/>
-      <c r="AN1" s="165"/>
-      <c r="AO1" s="165"/>
-      <c r="AP1" s="165"/>
-      <c r="AQ1" s="165"/>
+      <c r="AM1" s="214"/>
+      <c r="AN1" s="214"/>
+      <c r="AO1" s="214"/>
+      <c r="AP1" s="214"/>
+      <c r="AQ1" s="214"/>
     </row>
     <row r="2" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="9" t="s">
@@ -13559,24 +13517,24 @@
       <c r="H2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="165"/>
-      <c r="AA2" s="165"/>
-      <c r="AB2" s="165"/>
-      <c r="AC2" s="165"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="214"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="214"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="214"/>
+      <c r="AB2" s="214"/>
+      <c r="AC2" s="214"/>
       <c r="AE2" s="9" t="s">
         <v>18</v>
       </c>
@@ -13595,12 +13553,12 @@
       <c r="AJ2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="165"/>
-      <c r="AM2" s="165"/>
-      <c r="AN2" s="165"/>
-      <c r="AO2" s="165"/>
-      <c r="AP2" s="165"/>
-      <c r="AQ2" s="165"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="214"/>
+      <c r="AN2" s="214"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="214"/>
+      <c r="AQ2" s="214"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C3" s="22">
@@ -16208,7 +16166,7 @@
   </sheetPr>
   <dimension ref="B4:AL22"/>
   <sheetViews>
-    <sheetView topLeftCell="D9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="V4" sqref="V4:Z8"/>
     </sheetView>
   </sheetViews>
@@ -16240,63 +16198,63 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="G5" s="160" t="s">
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="G5" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="158" t="s">
+      <c r="L5" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="158"/>
-      <c r="N5" s="158"/>
-      <c r="O5" s="158"/>
-      <c r="Q5" s="158" t="s">
+      <c r="M5" s="209"/>
+      <c r="N5" s="209"/>
+      <c r="O5" s="209"/>
+      <c r="Q5" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="158"/>
-      <c r="S5" s="158"/>
-      <c r="T5" s="158"/>
+      <c r="R5" s="209"/>
+      <c r="S5" s="209"/>
+      <c r="T5" s="209"/>
       <c r="U5" s="17"/>
-      <c r="V5" s="158" t="s">
+      <c r="V5" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="158"/>
-      <c r="X5" s="158"/>
-      <c r="Y5" s="158"/>
+      <c r="W5" s="209"/>
+      <c r="X5" s="209"/>
+      <c r="Y5" s="209"/>
       <c r="Z5" s="13"/>
-      <c r="AB5" s="159" t="s">
+      <c r="AB5" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="AC5" s="159"/>
-      <c r="AD5" s="159"/>
-      <c r="AE5" s="159"/>
+      <c r="AC5" s="211"/>
+      <c r="AD5" s="211"/>
+      <c r="AE5" s="211"/>
       <c r="AF5" s="15"/>
       <c r="AG5" s="14"/>
-      <c r="AH5" s="158" t="s">
+      <c r="AH5" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="AI5" s="158"/>
-      <c r="AJ5" s="158"/>
-      <c r="AK5" s="158"/>
+      <c r="AI5" s="209"/>
+      <c r="AJ5" s="209"/>
+      <c r="AK5" s="209"/>
     </row>
     <row r="6" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="196"/>
       <c r="K6" s="2"/>
       <c r="L6" s="27"/>
       <c r="M6" s="28"/>
@@ -16307,17 +16265,17 @@
       <c r="S6" s="103"/>
       <c r="T6" s="28"/>
       <c r="U6" s="8"/>
-      <c r="V6" s="144"/>
-      <c r="W6" s="145"/>
-      <c r="X6" s="145"/>
-      <c r="Y6" s="146"/>
+      <c r="V6" s="194"/>
+      <c r="W6" s="195"/>
+      <c r="X6" s="195"/>
+      <c r="Y6" s="196"/>
       <c r="Z6" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="AB6" s="144"/>
-      <c r="AC6" s="146"/>
-      <c r="AD6" s="144"/>
-      <c r="AE6" s="146"/>
+      <c r="AB6" s="194"/>
+      <c r="AC6" s="196"/>
+      <c r="AD6" s="194"/>
+      <c r="AE6" s="196"/>
       <c r="AF6" s="96" t="s">
         <v>18</v>
       </c>
@@ -16325,7 +16283,7 @@
       <c r="AI6" s="10"/>
       <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
-      <c r="AL6" s="161"/>
+      <c r="AL6" s="208"/>
     </row>
     <row r="7" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
@@ -16335,10 +16293,10 @@
       <c r="F7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="152"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="198"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="199"/>
       <c r="K7" s="2" t="s">
         <v>46</v>
       </c>
@@ -16356,20 +16314,20 @@
       <c r="U7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="V7" s="144"/>
-      <c r="W7" s="145"/>
-      <c r="X7" s="145"/>
-      <c r="Y7" s="146"/>
+      <c r="V7" s="194"/>
+      <c r="W7" s="195"/>
+      <c r="X7" s="195"/>
+      <c r="Y7" s="196"/>
       <c r="Z7" s="96" t="s">
         <v>19</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AB7" s="144"/>
-      <c r="AC7" s="146"/>
-      <c r="AD7" s="144"/>
-      <c r="AE7" s="146"/>
+      <c r="AB7" s="194"/>
+      <c r="AC7" s="196"/>
+      <c r="AD7" s="194"/>
+      <c r="AE7" s="196"/>
       <c r="AF7" s="96" t="s">
         <v>19</v>
       </c>
@@ -16380,17 +16338,17 @@
       <c r="AI7" s="10"/>
       <c r="AJ7" s="10"/>
       <c r="AK7" s="10"/>
-      <c r="AL7" s="161"/>
+      <c r="AL7" s="208"/>
     </row>
     <row r="8" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="201"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="202"/>
       <c r="K8" s="2"/>
       <c r="L8" s="31"/>
       <c r="M8" s="32"/>
@@ -16401,17 +16359,17 @@
       <c r="S8" s="105"/>
       <c r="T8" s="32"/>
       <c r="U8" s="8"/>
-      <c r="V8" s="166"/>
-      <c r="W8" s="167"/>
-      <c r="X8" s="167"/>
-      <c r="Y8" s="168"/>
+      <c r="V8" s="215"/>
+      <c r="W8" s="217"/>
+      <c r="X8" s="217"/>
+      <c r="Y8" s="216"/>
       <c r="Z8" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="AB8" s="166"/>
-      <c r="AC8" s="168"/>
-      <c r="AD8" s="166"/>
-      <c r="AE8" s="168"/>
+      <c r="AB8" s="215"/>
+      <c r="AC8" s="216"/>
+      <c r="AD8" s="215"/>
+      <c r="AE8" s="216"/>
       <c r="AF8" s="96" t="s">
         <v>20</v>
       </c>
@@ -16427,14 +16385,14 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="164" t="s">
+      <c r="L9" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="164"/>
-      <c r="N9" s="164" t="s">
+      <c r="M9" s="207"/>
+      <c r="N9" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="164"/>
+      <c r="O9" s="207"/>
       <c r="Q9" s="1" t="s">
         <v>65</v>
       </c>
@@ -16447,14 +16405,14 @@
       <c r="T9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AB9" s="164" t="s">
+      <c r="AB9" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="AC9" s="164"/>
-      <c r="AD9" s="164" t="s">
+      <c r="AC9" s="207"/>
+      <c r="AD9" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="AE9" s="164"/>
+      <c r="AE9" s="207"/>
       <c r="AF9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
@@ -16462,14 +16420,14 @@
       <c r="AK9" s="2"/>
     </row>
     <row r="10" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="AH10" s="156"/>
-      <c r="AI10" s="156"/>
-      <c r="AJ10" s="156"/>
-      <c r="AK10" s="156"/>
+      <c r="B10" s="192"/>
+      <c r="C10" s="192"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="192"/>
+      <c r="AH10" s="192"/>
+      <c r="AI10" s="192"/>
+      <c r="AJ10" s="192"/>
+      <c r="AK10" s="192"/>
     </row>
     <row r="11" spans="2:38" ht="31.5" x14ac:dyDescent="0.5">
       <c r="G11" s="18"/>
@@ -16480,19 +16438,19 @@
       <c r="F12" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="162" t="s">
+      <c r="G12" s="212" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="162"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="162"/>
+      <c r="H12" s="212"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="212"/>
       <c r="K12" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="163"/>
-      <c r="M12" s="163"/>
-      <c r="N12" s="163"/>
-      <c r="O12" s="163"/>
+      <c r="L12" s="213"/>
+      <c r="M12" s="213"/>
+      <c r="N12" s="213"/>
+      <c r="O12" s="213"/>
       <c r="P12" s="19" t="s">
         <v>46</v>
       </c>
@@ -16500,10 +16458,10 @@
       <c r="U12" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="V12" s="156"/>
-      <c r="W12" s="156"/>
-      <c r="X12" s="156"/>
-      <c r="Y12" s="156"/>
+      <c r="V12" s="192"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="192"/>
       <c r="AA12" s="19" t="s">
         <v>46</v>
       </c>
@@ -16522,12 +16480,12 @@
       <c r="I14" s="18"/>
     </row>
     <row r="16" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="158" t="s">
+      <c r="B16" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
+      <c r="C16" s="209"/>
+      <c r="D16" s="209"/>
+      <c r="E16" s="209"/>
     </row>
     <row r="17" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10">
@@ -16570,11 +16528,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AH5:AK5"/>
     <mergeCell ref="G6:J8"/>
     <mergeCell ref="V6:Y6"/>
@@ -16582,24 +16553,11 @@
     <mergeCell ref="AD6:AE6"/>
     <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="V5:Y5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16614,7 +16572,7 @@
   </sheetPr>
   <dimension ref="B2:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -16626,14 +16584,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="C2" s="169" t="s">
+      <c r="C2" s="218" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="170"/>
-      <c r="E2" s="169" t="s">
+      <c r="D2" s="219"/>
+      <c r="E2" s="218" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="169"/>
+      <c r="F2" s="218"/>
     </row>
     <row r="3" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="139" t="s">
@@ -16727,10 +16685,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B4:DH35"/>
+  <dimension ref="B4:DH34"/>
   <sheetViews>
-    <sheetView topLeftCell="AK9" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16791,118 +16749,118 @@
   <sheetData>
     <row r="4" spans="2:112" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K4" s="2"/>
-      <c r="BN4" s="171" t="s">
+      <c r="BN4" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="BO4" s="171"/>
-      <c r="BP4" s="171"/>
-      <c r="BQ4" s="171"/>
+      <c r="BO4" s="220"/>
+      <c r="BP4" s="220"/>
+      <c r="BQ4" s="220"/>
       <c r="BR4" s="2"/>
     </row>
     <row r="5" spans="2:112" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="G5" s="160" t="s">
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="G5" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="158" t="s">
+      <c r="L5" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="158"/>
-      <c r="N5" s="158"/>
-      <c r="O5" s="158"/>
-      <c r="Q5" s="158" t="s">
+      <c r="M5" s="209"/>
+      <c r="N5" s="209"/>
+      <c r="O5" s="209"/>
+      <c r="Q5" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="158"/>
-      <c r="S5" s="158"/>
-      <c r="T5" s="158"/>
+      <c r="R5" s="209"/>
+      <c r="S5" s="209"/>
+      <c r="T5" s="209"/>
       <c r="U5" s="17"/>
-      <c r="V5" s="158" t="s">
+      <c r="V5" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="158"/>
-      <c r="X5" s="158"/>
-      <c r="Y5" s="158"/>
+      <c r="W5" s="209"/>
+      <c r="X5" s="209"/>
+      <c r="Y5" s="209"/>
       <c r="Z5" s="13"/>
-      <c r="AB5" s="159" t="s">
+      <c r="AB5" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="AC5" s="159"/>
-      <c r="AD5" s="159"/>
-      <c r="AE5" s="159"/>
+      <c r="AC5" s="211"/>
+      <c r="AD5" s="211"/>
+      <c r="AE5" s="211"/>
       <c r="AF5" s="15"/>
       <c r="AG5" s="14"/>
-      <c r="AH5" s="158" t="s">
+      <c r="AH5" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="AI5" s="158"/>
-      <c r="AJ5" s="158"/>
-      <c r="AK5" s="158"/>
-      <c r="AN5" s="158" t="s">
+      <c r="AI5" s="209"/>
+      <c r="AJ5" s="209"/>
+      <c r="AK5" s="209"/>
+      <c r="AN5" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AO5" s="158"/>
-      <c r="AP5" s="158"/>
-      <c r="AQ5" s="158"/>
-      <c r="AT5" s="160" t="s">
+      <c r="AO5" s="209"/>
+      <c r="AP5" s="209"/>
+      <c r="AQ5" s="209"/>
+      <c r="AT5" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="AU5" s="160"/>
-      <c r="AV5" s="160"/>
-      <c r="AW5" s="160"/>
+      <c r="AU5" s="210"/>
+      <c r="AV5" s="210"/>
+      <c r="AW5" s="210"/>
       <c r="AX5" s="2"/>
-      <c r="AY5" s="158" t="s">
+      <c r="AY5" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="AZ5" s="158"/>
-      <c r="BA5" s="158"/>
-      <c r="BB5" s="158"/>
+      <c r="AZ5" s="209"/>
+      <c r="BA5" s="209"/>
+      <c r="BB5" s="209"/>
       <c r="BC5" s="2"/>
-      <c r="BD5" s="158" t="s">
+      <c r="BD5" s="209" t="s">
         <v>73</v>
       </c>
-      <c r="BE5" s="158"/>
-      <c r="BF5" s="158"/>
-      <c r="BG5" s="158"/>
+      <c r="BE5" s="209"/>
+      <c r="BF5" s="209"/>
+      <c r="BG5" s="209"/>
       <c r="BH5" s="17"/>
-      <c r="BI5" s="158" t="s">
+      <c r="BI5" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="BJ5" s="158"/>
-      <c r="BK5" s="158"/>
-      <c r="BL5" s="158"/>
-      <c r="BN5" s="159" t="s">
+      <c r="BJ5" s="209"/>
+      <c r="BK5" s="209"/>
+      <c r="BL5" s="209"/>
+      <c r="BN5" s="211" t="s">
         <v>78</v>
       </c>
-      <c r="BO5" s="159"/>
-      <c r="BP5" s="159"/>
-      <c r="BQ5" s="159"/>
+      <c r="BO5" s="211"/>
+      <c r="BP5" s="211"/>
+      <c r="BQ5" s="211"/>
       <c r="BR5" s="13"/>
-      <c r="BS5" s="158" t="s">
+      <c r="BS5" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="BT5" s="158"/>
-      <c r="BU5" s="158"/>
-      <c r="BV5" s="158"/>
+      <c r="BT5" s="209"/>
+      <c r="BU5" s="209"/>
+      <c r="BV5" s="209"/>
     </row>
     <row r="6" spans="2:112" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="196"/>
       <c r="K6" s="2"/>
       <c r="L6" s="27"/>
       <c r="M6" s="28"/>
@@ -16913,17 +16871,17 @@
       <c r="S6" s="103"/>
       <c r="T6" s="28"/>
       <c r="U6" s="8"/>
-      <c r="V6" s="144"/>
-      <c r="W6" s="145"/>
-      <c r="X6" s="145"/>
-      <c r="Y6" s="146"/>
+      <c r="V6" s="194"/>
+      <c r="W6" s="195"/>
+      <c r="X6" s="195"/>
+      <c r="Y6" s="196"/>
       <c r="Z6" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="AB6" s="144"/>
-      <c r="AC6" s="146"/>
-      <c r="AD6" s="144"/>
-      <c r="AE6" s="146"/>
+      <c r="AB6" s="194"/>
+      <c r="AC6" s="196"/>
+      <c r="AD6" s="194"/>
+      <c r="AE6" s="196"/>
       <c r="AF6" s="96" t="s">
         <v>18</v>
       </c>
@@ -16931,75 +16889,75 @@
       <c r="AI6" s="10"/>
       <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
-      <c r="AL6" s="161"/>
-      <c r="AN6" s="201">
+      <c r="AL6" s="208"/>
+      <c r="AN6" s="144">
         <v>200</v>
       </c>
-      <c r="AO6" s="201">
+      <c r="AO6" s="144">
         <v>214</v>
       </c>
-      <c r="AP6" s="201">
+      <c r="AP6" s="144">
         <v>214</v>
       </c>
-      <c r="AQ6" s="201">
+      <c r="AQ6" s="144">
         <v>214</v>
       </c>
-      <c r="AT6" s="144">
+      <c r="AT6" s="194">
         <f>AVERAGE(AN6:AQ8)</f>
         <v>209</v>
       </c>
-      <c r="AU6" s="145"/>
-      <c r="AV6" s="145"/>
-      <c r="AW6" s="146"/>
+      <c r="AU6" s="195"/>
+      <c r="AV6" s="195"/>
+      <c r="AW6" s="196"/>
       <c r="AX6" s="2"/>
-      <c r="AY6" s="144">
+      <c r="AY6" s="194">
         <f>AVERAGE(AN6:AO8)</f>
         <v>206.66666666666666</v>
       </c>
-      <c r="AZ6" s="146"/>
-      <c r="BA6" s="144">
+      <c r="AZ6" s="196"/>
+      <c r="BA6" s="194">
         <f>AVERAGE(AP6:AQ8)</f>
         <v>211.33333333333334</v>
       </c>
-      <c r="BB6" s="146"/>
+      <c r="BB6" s="196"/>
       <c r="BC6" s="2"/>
-      <c r="BD6" s="202">
+      <c r="BD6" s="222">
         <f>AVERAGE(AN6:AN8)</f>
         <v>198</v>
       </c>
-      <c r="BE6" s="205">
+      <c r="BE6" s="225">
         <f>AVERAGE(AO6:AO8)</f>
         <v>215.33333333333334</v>
       </c>
-      <c r="BF6" s="202">
+      <c r="BF6" s="222">
         <f>AVERAGE(AP6:AP8)</f>
         <v>216.33333333333334</v>
       </c>
-      <c r="BG6" s="208">
+      <c r="BG6" s="228">
         <f>AVERAGE(AQ6:AQ8)</f>
         <v>206.33333333333334</v>
       </c>
       <c r="BH6" s="8"/>
-      <c r="BI6" s="213">
+      <c r="BI6" s="231">
         <f>AVERAGE(AN6:AQ6)</f>
         <v>210.5</v>
       </c>
-      <c r="BJ6" s="214"/>
-      <c r="BK6" s="214"/>
-      <c r="BL6" s="215"/>
-      <c r="BM6" s="219" t="s">
+      <c r="BJ6" s="232"/>
+      <c r="BK6" s="232"/>
+      <c r="BL6" s="233"/>
+      <c r="BM6" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="BN6" s="211">
+      <c r="BN6" s="234">
         <f>AVERAGE(AN6:AO6)</f>
         <v>207</v>
       </c>
-      <c r="BO6" s="212"/>
-      <c r="BP6" s="211">
+      <c r="BO6" s="235"/>
+      <c r="BP6" s="234">
         <f>AVERAGE(AP6:AQ6)</f>
         <v>214</v>
       </c>
-      <c r="BQ6" s="212"/>
+      <c r="BQ6" s="235"/>
       <c r="BR6" s="2"/>
       <c r="BS6" s="10"/>
       <c r="BT6" s="10"/>
@@ -17014,10 +16972,10 @@
       <c r="F7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="152"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="198"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="199"/>
       <c r="K7" s="2" t="s">
         <v>46</v>
       </c>
@@ -17035,20 +16993,20 @@
       <c r="U7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="V7" s="144"/>
-      <c r="W7" s="145"/>
-      <c r="X7" s="145"/>
-      <c r="Y7" s="146"/>
+      <c r="V7" s="194"/>
+      <c r="W7" s="195"/>
+      <c r="X7" s="195"/>
+      <c r="Y7" s="196"/>
       <c r="Z7" s="96" t="s">
         <v>19</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AB7" s="144"/>
-      <c r="AC7" s="146"/>
-      <c r="AD7" s="144"/>
-      <c r="AE7" s="146"/>
+      <c r="AB7" s="194"/>
+      <c r="AC7" s="196"/>
+      <c r="AD7" s="194"/>
+      <c r="AE7" s="196"/>
       <c r="AF7" s="96" t="s">
         <v>19</v>
       </c>
@@ -17059,58 +17017,58 @@
       <c r="AI7" s="10"/>
       <c r="AJ7" s="10"/>
       <c r="AK7" s="10"/>
-      <c r="AL7" s="161"/>
-      <c r="AN7" s="201">
+      <c r="AL7" s="208"/>
+      <c r="AN7" s="144">
         <v>202</v>
       </c>
-      <c r="AO7" s="201">
+      <c r="AO7" s="144">
         <v>221</v>
       </c>
-      <c r="AP7" s="201">
+      <c r="AP7" s="144">
         <v>220</v>
       </c>
-      <c r="AQ7" s="201">
+      <c r="AQ7" s="144">
         <v>204</v>
       </c>
       <c r="AR7" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AS7" s="2"/>
-      <c r="AT7" s="152"/>
-      <c r="AU7" s="153"/>
-      <c r="AV7" s="153"/>
-      <c r="AW7" s="154"/>
+      <c r="AT7" s="197"/>
+      <c r="AU7" s="198"/>
+      <c r="AV7" s="198"/>
+      <c r="AW7" s="199"/>
       <c r="AX7" s="2"/>
-      <c r="AY7" s="152"/>
-      <c r="AZ7" s="154"/>
-      <c r="BA7" s="152"/>
-      <c r="BB7" s="154"/>
+      <c r="AY7" s="197"/>
+      <c r="AZ7" s="199"/>
+      <c r="BA7" s="197"/>
+      <c r="BB7" s="199"/>
       <c r="BC7" s="2"/>
-      <c r="BD7" s="203"/>
-      <c r="BE7" s="206"/>
-      <c r="BF7" s="203"/>
-      <c r="BG7" s="209"/>
+      <c r="BD7" s="223"/>
+      <c r="BE7" s="226"/>
+      <c r="BF7" s="223"/>
+      <c r="BG7" s="229"/>
       <c r="BH7" s="8"/>
-      <c r="BI7" s="213">
+      <c r="BI7" s="231">
         <f>AVERAGE(AN7:AQ7)</f>
         <v>211.75</v>
       </c>
-      <c r="BJ7" s="214"/>
-      <c r="BK7" s="214"/>
-      <c r="BL7" s="215"/>
-      <c r="BM7" s="219" t="s">
+      <c r="BJ7" s="232"/>
+      <c r="BK7" s="232"/>
+      <c r="BL7" s="233"/>
+      <c r="BM7" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="BN7" s="211">
+      <c r="BN7" s="234">
         <f t="shared" ref="BN7:BN8" si="0">AVERAGE(AN7:AO7)</f>
         <v>211.5</v>
       </c>
-      <c r="BO7" s="212"/>
-      <c r="BP7" s="211">
+      <c r="BO7" s="235"/>
+      <c r="BP7" s="234">
         <f t="shared" ref="BP7:BP8" si="1">AVERAGE(AP7:AQ7)</f>
         <v>212</v>
       </c>
-      <c r="BQ7" s="212"/>
+      <c r="BQ7" s="235"/>
       <c r="BR7" s="2"/>
       <c r="BS7" s="10"/>
       <c r="BT7" s="10"/>
@@ -17122,10 +17080,10 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="201"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="202"/>
       <c r="K8" s="2"/>
       <c r="L8" s="31"/>
       <c r="M8" s="32"/>
@@ -17136,17 +17094,17 @@
       <c r="S8" s="105"/>
       <c r="T8" s="32"/>
       <c r="U8" s="8"/>
-      <c r="V8" s="166"/>
-      <c r="W8" s="167"/>
-      <c r="X8" s="167"/>
-      <c r="Y8" s="168"/>
+      <c r="V8" s="215"/>
+      <c r="W8" s="217"/>
+      <c r="X8" s="217"/>
+      <c r="Y8" s="216"/>
       <c r="Z8" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="AB8" s="166"/>
-      <c r="AC8" s="168"/>
-      <c r="AD8" s="166"/>
-      <c r="AE8" s="168"/>
+      <c r="AB8" s="215"/>
+      <c r="AC8" s="216"/>
+      <c r="AD8" s="215"/>
+      <c r="AE8" s="216"/>
       <c r="AF8" s="96" t="s">
         <v>20</v>
       </c>
@@ -17155,53 +17113,53 @@
       <c r="AJ8" s="10"/>
       <c r="AK8" s="10"/>
       <c r="AL8" s="97"/>
-      <c r="AN8" s="201">
+      <c r="AN8" s="144">
         <v>192</v>
       </c>
-      <c r="AO8" s="201">
+      <c r="AO8" s="144">
         <v>211</v>
       </c>
-      <c r="AP8" s="201">
+      <c r="AP8" s="144">
         <v>215</v>
       </c>
-      <c r="AQ8" s="201">
+      <c r="AQ8" s="144">
         <v>201</v>
       </c>
-      <c r="AT8" s="147"/>
-      <c r="AU8" s="148"/>
-      <c r="AV8" s="148"/>
-      <c r="AW8" s="149"/>
+      <c r="AT8" s="200"/>
+      <c r="AU8" s="201"/>
+      <c r="AV8" s="201"/>
+      <c r="AW8" s="202"/>
       <c r="AX8" s="2"/>
-      <c r="AY8" s="147"/>
-      <c r="AZ8" s="149"/>
-      <c r="BA8" s="147"/>
-      <c r="BB8" s="149"/>
+      <c r="AY8" s="200"/>
+      <c r="AZ8" s="202"/>
+      <c r="BA8" s="200"/>
+      <c r="BB8" s="202"/>
       <c r="BC8" s="2"/>
-      <c r="BD8" s="204"/>
-      <c r="BE8" s="207"/>
-      <c r="BF8" s="204"/>
-      <c r="BG8" s="210"/>
+      <c r="BD8" s="224"/>
+      <c r="BE8" s="227"/>
+      <c r="BF8" s="224"/>
+      <c r="BG8" s="230"/>
       <c r="BH8" s="8"/>
-      <c r="BI8" s="216">
+      <c r="BI8" s="236">
         <f>AVERAGE(AN8:AQ8)</f>
         <v>204.75</v>
       </c>
-      <c r="BJ8" s="217"/>
-      <c r="BK8" s="217"/>
-      <c r="BL8" s="218"/>
-      <c r="BM8" s="219" t="s">
+      <c r="BJ8" s="237"/>
+      <c r="BK8" s="237"/>
+      <c r="BL8" s="238"/>
+      <c r="BM8" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="BN8" s="211">
+      <c r="BN8" s="234">
         <f t="shared" si="0"/>
         <v>201.5</v>
       </c>
-      <c r="BO8" s="212"/>
-      <c r="BP8" s="211">
+      <c r="BO8" s="235"/>
+      <c r="BP8" s="234">
         <f t="shared" si="1"/>
         <v>208</v>
       </c>
-      <c r="BQ8" s="212"/>
+      <c r="BQ8" s="235"/>
       <c r="BR8" s="2"/>
       <c r="BS8" s="10"/>
       <c r="BT8" s="10"/>
@@ -17214,14 +17172,14 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="164" t="s">
+      <c r="L9" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="164"/>
-      <c r="N9" s="164" t="s">
+      <c r="M9" s="207"/>
+      <c r="N9" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="164"/>
+      <c r="O9" s="207"/>
       <c r="Q9" s="1" t="s">
         <v>91</v>
       </c>
@@ -17234,14 +17192,14 @@
       <c r="T9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AB9" s="164" t="s">
+      <c r="AB9" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="AC9" s="164"/>
-      <c r="AD9" s="164" t="s">
+      <c r="AC9" s="207"/>
+      <c r="AD9" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="AE9" s="164"/>
+      <c r="AE9" s="207"/>
       <c r="AF9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
@@ -17252,14 +17210,14 @@
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2"/>
       <c r="AX9" s="2"/>
-      <c r="AY9" s="181" t="s">
+      <c r="AY9" s="221" t="s">
         <v>24</v>
       </c>
-      <c r="AZ9" s="181"/>
-      <c r="BA9" s="181" t="s">
+      <c r="AZ9" s="221"/>
+      <c r="BA9" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="BB9" s="181"/>
+      <c r="BB9" s="221"/>
       <c r="BC9" s="120"/>
       <c r="BD9" s="120">
         <v>1</v>
@@ -17279,14 +17237,14 @@
       <c r="BK9" s="122"/>
       <c r="BL9" s="122"/>
       <c r="BM9" s="122"/>
-      <c r="BN9" s="181" t="s">
+      <c r="BN9" s="221" t="s">
         <v>24</v>
       </c>
-      <c r="BO9" s="181"/>
-      <c r="BP9" s="181" t="s">
+      <c r="BO9" s="221"/>
+      <c r="BP9" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="BQ9" s="181"/>
+      <c r="BQ9" s="221"/>
       <c r="BR9" s="2"/>
       <c r="BS9" s="2"/>
       <c r="BT9" s="2"/>
@@ -17297,19 +17255,19 @@
       <c r="F10" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="162" t="s">
+      <c r="G10" s="212" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
+      <c r="H10" s="212"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="212"/>
       <c r="K10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="163"/>
+      <c r="L10" s="213"/>
+      <c r="M10" s="213"/>
+      <c r="N10" s="213"/>
+      <c r="O10" s="213"/>
       <c r="P10" s="19" t="s">
         <v>46</v>
       </c>
@@ -17317,10 +17275,10 @@
       <c r="U10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="V10" s="156"/>
-      <c r="W10" s="156"/>
-      <c r="X10" s="156"/>
-      <c r="Y10" s="156"/>
+      <c r="V10" s="192"/>
+      <c r="W10" s="192"/>
+      <c r="X10" s="192"/>
+      <c r="Y10" s="192"/>
       <c r="AA10" s="19" t="s">
         <v>46</v>
       </c>
@@ -17332,19 +17290,19 @@
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
-      <c r="BN11" s="171" t="s">
+      <c r="BN11" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="BO11" s="171"/>
-      <c r="BP11" s="171"/>
-      <c r="BQ11" s="171"/>
+      <c r="BO11" s="220"/>
+      <c r="BP11" s="220"/>
+      <c r="BQ11" s="220"/>
       <c r="BR11" s="2"/>
-      <c r="CS11" s="171" t="s">
+      <c r="CS11" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="CT11" s="171"/>
-      <c r="CU11" s="171"/>
-      <c r="CV11" s="171"/>
+      <c r="CT11" s="220"/>
+      <c r="CU11" s="220"/>
+      <c r="CV11" s="220"/>
       <c r="CW11" s="2"/>
     </row>
     <row r="12" spans="2:112" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -17354,286 +17312,286 @@
       <c r="AN12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AT12" s="160" t="s">
+      <c r="AT12" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="AU12" s="160"/>
-      <c r="AV12" s="160"/>
-      <c r="AW12" s="160"/>
+      <c r="AU12" s="210"/>
+      <c r="AV12" s="210"/>
+      <c r="AW12" s="210"/>
       <c r="AX12" s="2"/>
-      <c r="AY12" s="158" t="s">
+      <c r="AY12" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="AZ12" s="158"/>
-      <c r="BA12" s="158"/>
-      <c r="BB12" s="158"/>
+      <c r="AZ12" s="209"/>
+      <c r="BA12" s="209"/>
+      <c r="BB12" s="209"/>
       <c r="BC12" s="2"/>
-      <c r="BD12" s="158" t="s">
+      <c r="BD12" s="209" t="s">
         <v>73</v>
       </c>
-      <c r="BE12" s="158"/>
-      <c r="BF12" s="158"/>
-      <c r="BG12" s="158"/>
+      <c r="BE12" s="209"/>
+      <c r="BF12" s="209"/>
+      <c r="BG12" s="209"/>
       <c r="BH12" s="17"/>
-      <c r="BI12" s="158" t="s">
+      <c r="BI12" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="BJ12" s="158"/>
-      <c r="BK12" s="158"/>
-      <c r="BL12" s="158"/>
-      <c r="BN12" s="160" t="s">
+      <c r="BJ12" s="209"/>
+      <c r="BK12" s="209"/>
+      <c r="BL12" s="209"/>
+      <c r="BN12" s="210" t="s">
         <v>78</v>
       </c>
-      <c r="BO12" s="160"/>
-      <c r="BP12" s="160"/>
-      <c r="BQ12" s="160"/>
+      <c r="BO12" s="210"/>
+      <c r="BP12" s="210"/>
+      <c r="BQ12" s="210"/>
       <c r="BR12" s="13"/>
-      <c r="BS12" s="158" t="s">
+      <c r="BS12" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="BT12" s="158"/>
-      <c r="BU12" s="158"/>
-      <c r="BV12" s="158"/>
-      <c r="BY12" s="160" t="s">
+      <c r="BT12" s="209"/>
+      <c r="BU12" s="209"/>
+      <c r="BV12" s="209"/>
+      <c r="BY12" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="BZ12" s="160"/>
-      <c r="CA12" s="160"/>
-      <c r="CB12" s="160"/>
+      <c r="BZ12" s="210"/>
+      <c r="CA12" s="210"/>
+      <c r="CB12" s="210"/>
       <c r="CC12" s="2"/>
-      <c r="CD12" s="158" t="s">
+      <c r="CD12" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="CE12" s="158"/>
-      <c r="CF12" s="158"/>
-      <c r="CG12" s="158"/>
+      <c r="CE12" s="209"/>
+      <c r="CF12" s="209"/>
+      <c r="CG12" s="209"/>
       <c r="CH12" s="2"/>
-      <c r="CI12" s="158" t="s">
+      <c r="CI12" s="209" t="s">
         <v>73</v>
       </c>
-      <c r="CJ12" s="158"/>
-      <c r="CK12" s="158"/>
-      <c r="CL12" s="158"/>
+      <c r="CJ12" s="209"/>
+      <c r="CK12" s="209"/>
+      <c r="CL12" s="209"/>
       <c r="CM12" s="17"/>
-      <c r="CN12" s="158" t="s">
+      <c r="CN12" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="CO12" s="158"/>
-      <c r="CP12" s="158"/>
-      <c r="CQ12" s="158"/>
-      <c r="CS12" s="160" t="s">
+      <c r="CO12" s="209"/>
+      <c r="CP12" s="209"/>
+      <c r="CQ12" s="209"/>
+      <c r="CS12" s="210" t="s">
         <v>78</v>
       </c>
-      <c r="CT12" s="160"/>
-      <c r="CU12" s="160"/>
-      <c r="CV12" s="160"/>
+      <c r="CT12" s="210"/>
+      <c r="CU12" s="210"/>
+      <c r="CV12" s="210"/>
       <c r="CW12" s="13"/>
-      <c r="CX12" s="158" t="s">
+      <c r="CX12" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="CY12" s="158"/>
-      <c r="CZ12" s="158"/>
-      <c r="DA12" s="158"/>
+      <c r="CY12" s="209"/>
+      <c r="CZ12" s="209"/>
+      <c r="DA12" s="209"/>
     </row>
     <row r="13" spans="2:112" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AN13" s="201">
+      <c r="AN13" s="144">
         <v>200</v>
       </c>
-      <c r="AO13" s="201">
+      <c r="AO13" s="144">
         <v>214</v>
       </c>
-      <c r="AP13" s="201">
+      <c r="AP13" s="144">
         <v>214</v>
       </c>
-      <c r="AQ13" s="201">
+      <c r="AQ13" s="144">
         <v>214</v>
       </c>
-      <c r="AT13" s="221">
+      <c r="AT13" s="147">
         <v>209</v>
       </c>
-      <c r="AU13" s="229">
+      <c r="AU13" s="155">
         <v>209</v>
       </c>
-      <c r="AV13" s="229">
+      <c r="AV13" s="155">
         <v>209</v>
       </c>
-      <c r="AW13" s="230">
+      <c r="AW13" s="156">
         <v>209</v>
       </c>
-      <c r="AY13" s="220">
+      <c r="AY13" s="146">
         <f>$AY$6-AT13</f>
         <v>-2.3333333333333428</v>
       </c>
-      <c r="AZ13" s="223">
+      <c r="AZ13" s="149">
         <f t="shared" ref="AZ13:AZ15" si="2">$AY$6-AU13</f>
         <v>-2.3333333333333428</v>
       </c>
-      <c r="BA13" s="222">
-        <f>$BA$6-$AV$13</f>
+      <c r="BA13" s="148">
+        <f t="shared" ref="BA13:BB15" si="3">$BA$6-$AV$13</f>
         <v>2.3333333333333428</v>
       </c>
-      <c r="BB13" s="223">
-        <f>$BA$6-$AV$13</f>
+      <c r="BB13" s="149">
+        <f t="shared" si="3"/>
         <v>2.3333333333333428</v>
       </c>
-      <c r="BD13" s="239">
+      <c r="BD13" s="165">
         <f>$BD$6-SUM(AY13,AT13)</f>
         <v>-8.6666666666666572</v>
       </c>
-      <c r="BE13" s="239">
+      <c r="BE13" s="165">
         <f>$BE$6-SUM(AZ13,AU13)</f>
         <v>8.6666666666666856</v>
       </c>
-      <c r="BF13" s="239">
+      <c r="BF13" s="165">
         <f>$BF$6-SUM(BA13,AV13)</f>
         <v>5</v>
       </c>
-      <c r="BG13" s="239">
+      <c r="BG13" s="165">
         <f>$BG$6-SUM(BB13,AW13)</f>
         <v>-5</v>
       </c>
-      <c r="BI13" s="242">
+      <c r="BI13" s="168">
         <f>$BI6-AT13</f>
         <v>1.5</v>
       </c>
-      <c r="BJ13" s="243">
-        <f t="shared" ref="BJ13:BL13" si="3">$BI6-AU13</f>
+      <c r="BJ13" s="169">
+        <f t="shared" ref="BJ13:BL13" si="4">$BI6-AU13</f>
         <v>1.5</v>
       </c>
-      <c r="BK13" s="243">
-        <f t="shared" si="3"/>
+      <c r="BK13" s="169">
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="BL13" s="244">
-        <f t="shared" si="3"/>
+      <c r="BL13" s="170">
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="BN13" s="242">
+      <c r="BN13" s="168">
         <f>BN6-SUM(BI13,AY13,AT13)</f>
         <v>-1.1666666666666572</v>
       </c>
-      <c r="BO13" s="244">
+      <c r="BO13" s="170">
         <f>BN6-SUM(BJ13,AZ13,AU13)</f>
         <v>-1.1666666666666572</v>
       </c>
-      <c r="BP13" s="242">
+      <c r="BP13" s="168">
         <f>$BP6-SUM(BK13,BA13,AV13)</f>
         <v>1.1666666666666572</v>
       </c>
-      <c r="BQ13" s="244">
+      <c r="BQ13" s="170">
         <f>$BP6-SUM(BL13,BB13,AW13)</f>
         <v>1.1666666666666572</v>
       </c>
-      <c r="BS13" s="245">
+      <c r="BS13" s="171">
         <f>AN13-SUM(AT13,AY13,BD13,BI13,BN13)</f>
         <v>1.6666666666666572</v>
       </c>
-      <c r="BT13" s="245">
-        <f t="shared" ref="BT13:BT15" si="4">AO13-SUM(AU13,AZ13,BE13,BJ13,BO13)</f>
+      <c r="BT13" s="171">
+        <f t="shared" ref="BT13:BT15" si="5">AO13-SUM(AU13,AZ13,BE13,BJ13,BO13)</f>
         <v>-1.6666666666666856</v>
       </c>
-      <c r="BU13" s="245">
-        <f t="shared" ref="BU13:BU15" si="5">AP13-SUM(AV13,BA13,BF13,BK13,BP13)</f>
+      <c r="BU13" s="171">
+        <f t="shared" ref="BU13:BU15" si="6">AP13-SUM(AV13,BA13,BF13,BK13,BP13)</f>
         <v>-5</v>
       </c>
-      <c r="BV13" s="245">
-        <f t="shared" ref="BV13:BV15" si="6">AQ13-SUM(AW13,BB13,BG13,BL13,BQ13)</f>
+      <c r="BV13" s="171">
+        <f t="shared" ref="BV13:BV15" si="7">AQ13-SUM(AW13,BB13,BG13,BL13,BQ13)</f>
         <v>5</v>
       </c>
-      <c r="BY13" s="221">
+      <c r="BY13" s="147">
         <f>AT13^2</f>
         <v>43681</v>
       </c>
-      <c r="BZ13" s="229">
-        <f t="shared" ref="BZ13:BZ15" si="7">AU13^2</f>
+      <c r="BZ13" s="155">
+        <f t="shared" ref="BZ13:BZ15" si="8">AU13^2</f>
         <v>43681</v>
       </c>
-      <c r="CA13" s="229">
-        <f t="shared" ref="CA13:CA15" si="8">AV13^2</f>
+      <c r="CA13" s="155">
+        <f t="shared" ref="CA13:CA15" si="9">AV13^2</f>
         <v>43681</v>
       </c>
-      <c r="CB13" s="230">
-        <f t="shared" ref="CB13:CB15" si="9">AW13^2</f>
+      <c r="CB13" s="156">
+        <f t="shared" ref="CB13:CB15" si="10">AW13^2</f>
         <v>43681</v>
       </c>
-      <c r="CD13" s="220">
-        <f t="shared" ref="CD13:CG15" si="10">AY13^2</f>
+      <c r="CD13" s="146">
+        <f t="shared" ref="CD13:CD15" si="11">AY13^2</f>
         <v>5.4444444444444891</v>
       </c>
-      <c r="CE13" s="223">
-        <f t="shared" ref="CE13:CG15" si="11">AZ13^2</f>
+      <c r="CE13" s="149">
+        <f t="shared" ref="CE13:CE15" si="12">AZ13^2</f>
         <v>5.4444444444444891</v>
       </c>
-      <c r="CF13" s="222">
-        <f t="shared" ref="CF13:CG15" si="12">BA13^2</f>
+      <c r="CF13" s="148">
+        <f t="shared" ref="CF13:CF15" si="13">BA13^2</f>
         <v>5.4444444444444891</v>
       </c>
-      <c r="CG13" s="223">
-        <f t="shared" ref="CG13:CG15" si="13">BB13^2</f>
+      <c r="CG13" s="149">
+        <f t="shared" ref="CG13:CG15" si="14">BB13^2</f>
         <v>5.4444444444444891</v>
       </c>
-      <c r="CI13" s="258">
-        <f t="shared" ref="CI13:CL15" si="14">BD13^2</f>
+      <c r="CI13" s="183">
+        <f t="shared" ref="CI13:CI15" si="15">BD13^2</f>
         <v>75.111111111110944</v>
       </c>
-      <c r="CJ13" s="258">
-        <f t="shared" ref="CJ13:CL15" si="15">BE13^2</f>
+      <c r="CJ13" s="183">
+        <f t="shared" ref="CJ13:CJ15" si="16">BE13^2</f>
         <v>75.111111111111441</v>
       </c>
-      <c r="CK13" s="258">
-        <f t="shared" ref="CK13:CL15" si="16">BF13^2</f>
+      <c r="CK13" s="183">
+        <f t="shared" ref="CK13:CK15" si="17">BF13^2</f>
         <v>25</v>
       </c>
-      <c r="CL13" s="258">
-        <f t="shared" ref="CL13:CL15" si="17">BG13^2</f>
+      <c r="CL13" s="183">
+        <f t="shared" ref="CL13:CL15" si="18">BG13^2</f>
         <v>25</v>
       </c>
-      <c r="CN13" s="242">
-        <f t="shared" ref="CN13:CQ15" si="18">BI13^2</f>
+      <c r="CN13" s="168">
+        <f t="shared" ref="CN13:CN15" si="19">BI13^2</f>
         <v>2.25</v>
       </c>
-      <c r="CO13" s="243">
-        <f t="shared" ref="CO13:CQ15" si="19">BJ13^2</f>
+      <c r="CO13" s="169">
+        <f t="shared" ref="CO13:CO15" si="20">BJ13^2</f>
         <v>2.25</v>
       </c>
-      <c r="CP13" s="243">
-        <f t="shared" ref="CP13:CQ15" si="20">BK13^2</f>
+      <c r="CP13" s="169">
+        <f t="shared" ref="CP13:CP15" si="21">BK13^2</f>
         <v>2.25</v>
       </c>
-      <c r="CQ13" s="244">
-        <f t="shared" ref="CQ13:CQ15" si="21">BL13^2</f>
+      <c r="CQ13" s="170">
+        <f t="shared" ref="CQ13:CQ15" si="22">BL13^2</f>
         <v>2.25</v>
       </c>
-      <c r="CS13" s="252">
-        <f t="shared" ref="CS13:CV15" si="22">BN13^2</f>
+      <c r="CS13" s="178">
+        <f t="shared" ref="CS13:CS15" si="23">BN13^2</f>
         <v>1.361111111111089</v>
       </c>
-      <c r="CT13" s="253">
-        <f t="shared" ref="CT13:CV15" si="23">BO13^2</f>
+      <c r="CT13" s="179">
+        <f t="shared" ref="CT13:CT15" si="24">BO13^2</f>
         <v>1.361111111111089</v>
       </c>
-      <c r="CU13" s="252">
-        <f t="shared" ref="CU13:CV15" si="24">BP13^2</f>
+      <c r="CU13" s="178">
+        <f t="shared" ref="CU13:CU15" si="25">BP13^2</f>
         <v>1.361111111111089</v>
       </c>
-      <c r="CV13" s="253">
-        <f t="shared" ref="CV13:CV15" si="25">BQ13^2</f>
+      <c r="CV13" s="179">
+        <f t="shared" ref="CV13:CV15" si="26">BQ13^2</f>
         <v>1.361111111111089</v>
       </c>
-      <c r="CX13" s="262">
-        <f t="shared" ref="CX13:DA15" si="26">BS13^2</f>
+      <c r="CX13" s="187">
+        <f t="shared" ref="CX13:CX15" si="27">BS13^2</f>
         <v>2.7777777777777461</v>
       </c>
-      <c r="CY13" s="262">
-        <f t="shared" ref="CY13:DA15" si="27">BT13^2</f>
+      <c r="CY13" s="187">
+        <f t="shared" ref="CY13:CY15" si="28">BT13^2</f>
         <v>2.7777777777778407</v>
       </c>
-      <c r="CZ13" s="262">
-        <f t="shared" ref="CZ13:DA15" si="28">BU13^2</f>
+      <c r="CZ13" s="187">
+        <f t="shared" ref="CZ13:CZ15" si="29">BU13^2</f>
         <v>25</v>
       </c>
-      <c r="DA13" s="262">
-        <f t="shared" ref="DA13:DA15" si="29">BV13^2</f>
+      <c r="DA13" s="187">
+        <f t="shared" ref="DA13:DA15" si="30">BV13^2</f>
         <v>25</v>
       </c>
       <c r="DC13" s="1" t="s">
@@ -17653,229 +17611,229 @@
       </c>
     </row>
     <row r="14" spans="2:112" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AN14" s="201">
+      <c r="AN14" s="144">
         <v>202</v>
       </c>
-      <c r="AO14" s="201">
+      <c r="AO14" s="144">
         <v>221</v>
       </c>
-      <c r="AP14" s="246">
+      <c r="AP14" s="172">
         <v>220</v>
       </c>
-      <c r="AQ14" s="201">
+      <c r="AQ14" s="144">
         <v>204</v>
       </c>
-      <c r="AR14" s="237" t="s">
+      <c r="AR14" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="AT14" s="231">
+      <c r="AT14" s="157">
         <v>209</v>
       </c>
-      <c r="AU14" s="232">
+      <c r="AU14" s="158">
         <v>209</v>
       </c>
-      <c r="AV14" s="247">
+      <c r="AV14" s="173">
         <v>209</v>
       </c>
-      <c r="AW14" s="233">
+      <c r="AW14" s="159">
         <v>209</v>
       </c>
-      <c r="AX14" s="238" t="s">
+      <c r="AX14" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="AY14" s="224">
-        <f t="shared" ref="AY14:AY15" si="30">$AY$6-AT14</f>
+      <c r="AY14" s="150">
+        <f t="shared" ref="AY14:AY15" si="31">$AY$6-AT14</f>
         <v>-2.3333333333333428</v>
       </c>
-      <c r="AZ14" s="225">
+      <c r="AZ14" s="151">
         <f t="shared" si="2"/>
         <v>-2.3333333333333428</v>
       </c>
-      <c r="BA14" s="248">
-        <f>$BA$6-$AV$13</f>
+      <c r="BA14" s="174">
+        <f t="shared" si="3"/>
         <v>2.3333333333333428</v>
       </c>
-      <c r="BB14" s="225">
-        <f>$BA$6-$AV$13</f>
+      <c r="BB14" s="151">
+        <f t="shared" si="3"/>
         <v>2.3333333333333428</v>
       </c>
-      <c r="BC14" s="238" t="s">
+      <c r="BC14" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="BD14" s="240">
-        <f t="shared" ref="BD14:BD15" si="31">$BD$6-SUM(AY14,AT14)</f>
+      <c r="BD14" s="166">
+        <f t="shared" ref="BD14:BD15" si="32">$BD$6-SUM(AY14,AT14)</f>
         <v>-8.6666666666666572</v>
       </c>
-      <c r="BE14" s="240">
-        <f t="shared" ref="BE14:BE15" si="32">$BE$6-SUM(AZ14,AU14)</f>
+      <c r="BE14" s="166">
+        <f t="shared" ref="BE14:BE15" si="33">$BE$6-SUM(AZ14,AU14)</f>
         <v>8.6666666666666856</v>
       </c>
-      <c r="BF14" s="249">
-        <f t="shared" ref="BF14:BF15" si="33">$BF$6-SUM(BA14,AV14)</f>
+      <c r="BF14" s="175">
+        <f t="shared" ref="BF14:BF15" si="34">$BF$6-SUM(BA14,AV14)</f>
         <v>5</v>
       </c>
-      <c r="BG14" s="240">
-        <f t="shared" ref="BG14:BG15" si="34">$BG$6-SUM(BB14,AW14)</f>
+      <c r="BG14" s="166">
+        <f t="shared" ref="BG14:BG15" si="35">$BG$6-SUM(BB14,AW14)</f>
         <v>-5</v>
       </c>
-      <c r="BH14" s="238" t="s">
+      <c r="BH14" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="BI14" s="242">
-        <f t="shared" ref="BI14:BI15" si="35">$BI7-AT14</f>
+      <c r="BI14" s="168">
+        <f t="shared" ref="BI14:BI15" si="36">$BI7-AT14</f>
         <v>2.75</v>
       </c>
-      <c r="BJ14" s="243">
-        <f t="shared" ref="BJ14:BJ15" si="36">$BI7-AU14</f>
+      <c r="BJ14" s="169">
+        <f t="shared" ref="BJ14:BJ15" si="37">$BI7-AU14</f>
         <v>2.75</v>
       </c>
-      <c r="BK14" s="250">
-        <f t="shared" ref="BK14:BK15" si="37">$BI7-AV14</f>
+      <c r="BK14" s="176">
+        <f t="shared" ref="BK14:BK15" si="38">$BI7-AV14</f>
         <v>2.75</v>
       </c>
-      <c r="BL14" s="244">
-        <f t="shared" ref="BL14:BL15" si="38">$BI7-AW14</f>
+      <c r="BL14" s="170">
+        <f t="shared" ref="BL14:BL15" si="39">$BI7-AW14</f>
         <v>2.75</v>
       </c>
-      <c r="BM14" s="238" t="s">
+      <c r="BM14" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="BN14" s="242">
-        <f t="shared" ref="BN14:BN15" si="39">BN7-SUM(BI14,AY14,AT14)</f>
+      <c r="BN14" s="168">
+        <f t="shared" ref="BN14:BN15" si="40">BN7-SUM(BI14,AY14,AT14)</f>
         <v>2.0833333333333428</v>
       </c>
-      <c r="BO14" s="244">
-        <f t="shared" ref="BO14:BO15" si="40">BN7-SUM(BJ14,AZ14,AU14)</f>
+      <c r="BO14" s="170">
+        <f t="shared" ref="BO14:BO15" si="41">BN7-SUM(BJ14,AZ14,AU14)</f>
         <v>2.0833333333333428</v>
       </c>
-      <c r="BP14" s="255">
-        <f t="shared" ref="BP14:BQ14" si="41">$BP7-SUM(BK14,BA14,AV14)</f>
+      <c r="BP14" s="181">
+        <f t="shared" ref="BP14:BQ14" si="42">$BP7-SUM(BK14,BA14,AV14)</f>
         <v>-2.0833333333333428</v>
       </c>
-      <c r="BQ14" s="244">
-        <f t="shared" si="41"/>
+      <c r="BQ14" s="170">
+        <f t="shared" si="42"/>
         <v>-2.0833333333333428</v>
       </c>
-      <c r="BR14" s="238" t="s">
+      <c r="BR14" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="BS14" s="245">
-        <f t="shared" ref="BS14:BS15" si="42">AN14-SUM(AT14,AY14,BD14,BI14,BN14)</f>
+      <c r="BS14" s="171">
+        <f t="shared" ref="BS14:BS15" si="43">AN14-SUM(AT14,AY14,BD14,BI14,BN14)</f>
         <v>-0.83333333333334281</v>
       </c>
-      <c r="BT14" s="245">
-        <f t="shared" si="4"/>
+      <c r="BT14" s="171">
+        <f t="shared" si="5"/>
         <v>0.83333333333331439</v>
       </c>
-      <c r="BU14" s="251">
-        <f t="shared" si="5"/>
+      <c r="BU14" s="177">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="BV14" s="245">
-        <f t="shared" si="6"/>
+      <c r="BV14" s="171">
+        <f t="shared" si="7"/>
         <v>-3</v>
       </c>
-      <c r="BY14" s="231">
-        <f t="shared" ref="BY14:BY15" si="43">AT14^2</f>
+      <c r="BY14" s="157">
+        <f t="shared" ref="BY14:BY15" si="44">AT14^2</f>
         <v>43681</v>
       </c>
-      <c r="BZ14" s="232">
-        <f t="shared" si="7"/>
-        <v>43681</v>
-      </c>
-      <c r="CA14" s="256">
+      <c r="BZ14" s="158">
         <f t="shared" si="8"/>
         <v>43681</v>
       </c>
-      <c r="CB14" s="233">
+      <c r="CA14" s="158">
         <f t="shared" si="9"/>
         <v>43681</v>
       </c>
-      <c r="CC14" s="238" t="s">
+      <c r="CB14" s="159">
+        <f t="shared" si="10"/>
+        <v>43681</v>
+      </c>
+      <c r="CC14" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="CD14" s="224">
-        <f t="shared" si="10"/>
-        <v>5.4444444444444891</v>
-      </c>
-      <c r="CE14" s="225">
+      <c r="CD14" s="150">
         <f t="shared" si="11"/>
         <v>5.4444444444444891</v>
       </c>
-      <c r="CF14" s="257">
+      <c r="CE14" s="151">
         <f t="shared" si="12"/>
         <v>5.4444444444444891</v>
       </c>
-      <c r="CG14" s="225">
+      <c r="CF14" s="182">
         <f t="shared" si="13"/>
         <v>5.4444444444444891</v>
       </c>
-      <c r="CH14" s="238"/>
-      <c r="CI14" s="259">
+      <c r="CG14" s="151">
         <f t="shared" si="14"/>
+        <v>5.4444444444444891</v>
+      </c>
+      <c r="CH14" s="164"/>
+      <c r="CI14" s="184">
+        <f t="shared" si="15"/>
         <v>75.111111111110944</v>
       </c>
-      <c r="CJ14" s="259">
-        <f t="shared" si="15"/>
+      <c r="CJ14" s="184">
+        <f t="shared" si="16"/>
         <v>75.111111111111441</v>
       </c>
-      <c r="CK14" s="260">
-        <f t="shared" si="16"/>
-        <v>25</v>
-      </c>
-      <c r="CL14" s="259">
+      <c r="CK14" s="185">
         <f t="shared" si="17"/>
         <v>25</v>
       </c>
-      <c r="CM14" s="238"/>
-      <c r="CN14" s="242">
+      <c r="CL14" s="184">
         <f t="shared" si="18"/>
-        <v>7.5625</v>
-      </c>
-      <c r="CO14" s="243">
+        <v>25</v>
+      </c>
+      <c r="CM14" s="164"/>
+      <c r="CN14" s="168">
         <f t="shared" si="19"/>
         <v>7.5625</v>
       </c>
-      <c r="CP14" s="250">
+      <c r="CO14" s="169">
         <f t="shared" si="20"/>
         <v>7.5625</v>
       </c>
-      <c r="CQ14" s="244">
+      <c r="CP14" s="176">
         <f t="shared" si="21"/>
         <v>7.5625</v>
       </c>
-      <c r="CR14" s="238"/>
-      <c r="CS14" s="252">
+      <c r="CQ14" s="170">
         <f t="shared" si="22"/>
-        <v>4.3402777777778176</v>
-      </c>
-      <c r="CT14" s="253">
+        <v>7.5625</v>
+      </c>
+      <c r="CR14" s="164"/>
+      <c r="CS14" s="178">
         <f t="shared" si="23"/>
         <v>4.3402777777778176</v>
       </c>
-      <c r="CU14" s="254">
+      <c r="CT14" s="179">
         <f t="shared" si="24"/>
         <v>4.3402777777778176</v>
       </c>
-      <c r="CV14" s="253">
+      <c r="CU14" s="180">
         <f t="shared" si="25"/>
         <v>4.3402777777778176</v>
       </c>
-      <c r="CW14" s="238"/>
-      <c r="CX14" s="262">
+      <c r="CV14" s="179">
         <f t="shared" si="26"/>
+        <v>4.3402777777778176</v>
+      </c>
+      <c r="CW14" s="164"/>
+      <c r="CX14" s="187">
+        <f t="shared" si="27"/>
         <v>0.69444444444446018</v>
       </c>
-      <c r="CY14" s="262">
-        <f t="shared" si="27"/>
+      <c r="CY14" s="187">
+        <f t="shared" si="28"/>
         <v>0.69444444444441289</v>
       </c>
-      <c r="CZ14" s="263">
-        <f t="shared" si="28"/>
+      <c r="CZ14" s="188">
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
-      <c r="DA14" s="262">
-        <f t="shared" si="29"/>
+      <c r="DA14" s="187">
+        <f t="shared" si="30"/>
         <v>9</v>
       </c>
       <c r="DC14" s="1" t="s">
@@ -17890,204 +17848,204 @@
       </c>
     </row>
     <row r="15" spans="2:112" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AN15" s="201">
+      <c r="AN15" s="144">
         <v>192</v>
       </c>
-      <c r="AO15" s="201">
+      <c r="AO15" s="144">
         <v>211</v>
       </c>
-      <c r="AP15" s="201">
+      <c r="AP15" s="144">
         <v>215</v>
       </c>
-      <c r="AQ15" s="201">
+      <c r="AQ15" s="144">
         <v>201</v>
       </c>
-      <c r="AT15" s="234">
+      <c r="AT15" s="160">
         <v>209</v>
       </c>
-      <c r="AU15" s="235">
+      <c r="AU15" s="161">
         <v>209</v>
       </c>
-      <c r="AV15" s="235">
+      <c r="AV15" s="161">
         <v>209</v>
       </c>
-      <c r="AW15" s="236">
+      <c r="AW15" s="162">
         <v>209</v>
       </c>
-      <c r="AY15" s="226">
-        <f t="shared" si="30"/>
+      <c r="AY15" s="152">
+        <f t="shared" si="31"/>
         <v>-2.3333333333333428</v>
       </c>
-      <c r="AZ15" s="228">
+      <c r="AZ15" s="154">
         <f t="shared" si="2"/>
         <v>-2.3333333333333428</v>
       </c>
-      <c r="BA15" s="227">
-        <f>$BA$6-$AV$13</f>
+      <c r="BA15" s="153">
+        <f t="shared" si="3"/>
         <v>2.3333333333333428</v>
       </c>
-      <c r="BB15" s="228">
-        <f>$BA$6-$AV$13</f>
+      <c r="BB15" s="154">
+        <f t="shared" si="3"/>
         <v>2.3333333333333428</v>
       </c>
-      <c r="BD15" s="241">
-        <f t="shared" si="31"/>
+      <c r="BD15" s="167">
+        <f t="shared" si="32"/>
         <v>-8.6666666666666572</v>
       </c>
-      <c r="BE15" s="241">
-        <f t="shared" si="32"/>
+      <c r="BE15" s="167">
+        <f t="shared" si="33"/>
         <v>8.6666666666666856</v>
       </c>
-      <c r="BF15" s="241">
-        <f t="shared" si="33"/>
+      <c r="BF15" s="167">
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
-      <c r="BG15" s="241">
-        <f t="shared" si="34"/>
+      <c r="BG15" s="167">
+        <f t="shared" si="35"/>
         <v>-5</v>
       </c>
-      <c r="BI15" s="242">
-        <f t="shared" si="35"/>
-        <v>-4.25</v>
-      </c>
-      <c r="BJ15" s="243">
+      <c r="BI15" s="168">
         <f t="shared" si="36"/>
         <v>-4.25</v>
       </c>
-      <c r="BK15" s="243">
+      <c r="BJ15" s="169">
         <f t="shared" si="37"/>
         <v>-4.25</v>
       </c>
-      <c r="BL15" s="244">
+      <c r="BK15" s="169">
         <f t="shared" si="38"/>
         <v>-4.25</v>
       </c>
-      <c r="BN15" s="242">
+      <c r="BL15" s="170">
         <f t="shared" si="39"/>
-        <v>-0.91666666666665719</v>
-      </c>
-      <c r="BO15" s="244">
+        <v>-4.25</v>
+      </c>
+      <c r="BN15" s="168">
         <f t="shared" si="40"/>
         <v>-0.91666666666665719</v>
       </c>
-      <c r="BP15" s="242">
-        <f t="shared" ref="BP15:BQ15" si="44">$BP8-SUM(BK15,BA15,AV15)</f>
+      <c r="BO15" s="170">
+        <f t="shared" si="41"/>
+        <v>-0.91666666666665719</v>
+      </c>
+      <c r="BP15" s="168">
+        <f t="shared" ref="BP15:BQ15" si="45">$BP8-SUM(BK15,BA15,AV15)</f>
         <v>0.91666666666665719</v>
       </c>
-      <c r="BQ15" s="244">
+      <c r="BQ15" s="170">
+        <f t="shared" si="45"/>
+        <v>0.91666666666665719</v>
+      </c>
+      <c r="BS15" s="171">
+        <f t="shared" si="43"/>
+        <v>-0.83333333333334281</v>
+      </c>
+      <c r="BT15" s="171">
+        <f t="shared" si="5"/>
+        <v>0.83333333333331439</v>
+      </c>
+      <c r="BU15" s="171">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="BV15" s="171">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="BY15" s="160">
         <f t="shared" si="44"/>
-        <v>0.91666666666665719</v>
-      </c>
-      <c r="BS15" s="245">
-        <f t="shared" si="42"/>
-        <v>-0.83333333333334281</v>
-      </c>
-      <c r="BT15" s="245">
-        <f t="shared" si="4"/>
-        <v>0.83333333333331439</v>
-      </c>
-      <c r="BU15" s="245">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="BV15" s="245">
-        <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="BY15" s="234">
-        <f t="shared" si="43"/>
         <v>43681</v>
       </c>
-      <c r="BZ15" s="235">
-        <f t="shared" si="7"/>
-        <v>43681</v>
-      </c>
-      <c r="CA15" s="235">
+      <c r="BZ15" s="161">
         <f t="shared" si="8"/>
         <v>43681</v>
       </c>
-      <c r="CB15" s="236">
+      <c r="CA15" s="161">
         <f t="shared" si="9"/>
         <v>43681</v>
       </c>
-      <c r="CD15" s="226">
+      <c r="CB15" s="162">
         <f t="shared" si="10"/>
-        <v>5.4444444444444891</v>
-      </c>
-      <c r="CE15" s="228">
+        <v>43681</v>
+      </c>
+      <c r="CD15" s="152">
         <f t="shared" si="11"/>
         <v>5.4444444444444891</v>
       </c>
-      <c r="CF15" s="227">
+      <c r="CE15" s="154">
         <f t="shared" si="12"/>
         <v>5.4444444444444891</v>
       </c>
-      <c r="CG15" s="228">
+      <c r="CF15" s="153">
         <f t="shared" si="13"/>
         <v>5.4444444444444891</v>
       </c>
-      <c r="CI15" s="261">
+      <c r="CG15" s="154">
         <f t="shared" si="14"/>
+        <v>5.4444444444444891</v>
+      </c>
+      <c r="CI15" s="186">
+        <f t="shared" si="15"/>
         <v>75.111111111110944</v>
       </c>
-      <c r="CJ15" s="261">
-        <f t="shared" si="15"/>
+      <c r="CJ15" s="186">
+        <f t="shared" si="16"/>
         <v>75.111111111111441</v>
       </c>
-      <c r="CK15" s="261">
-        <f t="shared" si="16"/>
-        <v>25</v>
-      </c>
-      <c r="CL15" s="261">
+      <c r="CK15" s="186">
         <f t="shared" si="17"/>
         <v>25</v>
       </c>
-      <c r="CN15" s="242">
+      <c r="CL15" s="186">
         <f t="shared" si="18"/>
-        <v>18.0625</v>
-      </c>
-      <c r="CO15" s="243">
+        <v>25</v>
+      </c>
+      <c r="CN15" s="168">
         <f t="shared" si="19"/>
         <v>18.0625</v>
       </c>
-      <c r="CP15" s="243">
+      <c r="CO15" s="169">
         <f t="shared" si="20"/>
         <v>18.0625</v>
       </c>
-      <c r="CQ15" s="244">
+      <c r="CP15" s="169">
         <f t="shared" si="21"/>
         <v>18.0625</v>
       </c>
-      <c r="CS15" s="252">
+      <c r="CQ15" s="170">
         <f t="shared" si="22"/>
-        <v>0.84027777777776036</v>
-      </c>
-      <c r="CT15" s="253">
+        <v>18.0625</v>
+      </c>
+      <c r="CS15" s="178">
         <f t="shared" si="23"/>
         <v>0.84027777777776036</v>
       </c>
-      <c r="CU15" s="252">
+      <c r="CT15" s="179">
         <f t="shared" si="24"/>
         <v>0.84027777777776036</v>
       </c>
-      <c r="CV15" s="253">
+      <c r="CU15" s="178">
         <f t="shared" si="25"/>
         <v>0.84027777777776036</v>
       </c>
-      <c r="CX15" s="262">
+      <c r="CV15" s="179">
         <f t="shared" si="26"/>
+        <v>0.84027777777776036</v>
+      </c>
+      <c r="CX15" s="187">
+        <f t="shared" si="27"/>
         <v>0.69444444444446018</v>
       </c>
-      <c r="CY15" s="262">
-        <f t="shared" si="27"/>
+      <c r="CY15" s="187">
+        <f t="shared" si="28"/>
         <v>0.69444444444441289</v>
       </c>
-      <c r="CZ15" s="262">
-        <f t="shared" si="28"/>
+      <c r="CZ15" s="187">
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
-      <c r="DA15" s="262">
-        <f t="shared" si="29"/>
+      <c r="DA15" s="187">
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="DC15" s="1" t="s">
@@ -18101,7 +18059,7 @@
         <v>65.333333333333854</v>
       </c>
       <c r="DF15" s="1">
-        <f t="shared" ref="DF15:DF19" si="45">DE15/DD15</f>
+        <f t="shared" ref="DF15:DF19" si="46">DE15/DD15</f>
         <v>65.333333333333854</v>
       </c>
       <c r="DG15" s="1">
@@ -18121,7 +18079,7 @@
         <v>600.6666666666672</v>
       </c>
       <c r="DF16" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>300.3333333333336</v>
       </c>
       <c r="DG16" s="1">
@@ -18133,7 +18091,7 @@
         <v>1.5157144463980175E-2</v>
       </c>
     </row>
-    <row r="17" spans="4:111" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:111" x14ac:dyDescent="0.25">
       <c r="DC17" s="1" t="s">
         <v>3</v>
       </c>
@@ -18145,7 +18103,7 @@
         <v>111.5</v>
       </c>
       <c r="DF17" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>55.75</v>
       </c>
       <c r="DG17" s="1">
@@ -18153,7 +18111,7 @@
         <v>2.6442687747035576</v>
       </c>
     </row>
-    <row r="18" spans="4:111" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:111" x14ac:dyDescent="0.25">
       <c r="DC18" s="1" t="s">
         <v>78</v>
       </c>
@@ -18165,7 +18123,7 @@
         <v>26.166666666666668</v>
       </c>
       <c r="DF18" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>13.083333333333334</v>
       </c>
       <c r="DG18" s="1">
@@ -18173,7 +18131,7 @@
         <v>0.62055335968379455</v>
       </c>
     </row>
-    <row r="19" spans="4:111" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:111" x14ac:dyDescent="0.25">
       <c r="P19" s="1"/>
       <c r="Q19" s="2"/>
       <c r="U19" s="1"/>
@@ -18189,45 +18147,16 @@
         <v>84.333333333333329</v>
       </c>
       <c r="DF19" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>21.083333333333332</v>
       </c>
     </row>
-    <row r="20" spans="4:111" x14ac:dyDescent="0.25">
-      <c r="F20" s="182"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="182"/>
-      <c r="K20" s="182"/>
-      <c r="L20" s="184"/>
-      <c r="M20" s="182"/>
-      <c r="N20" s="182"/>
-      <c r="O20" s="182"/>
-      <c r="P20" s="182"/>
-      <c r="Q20" s="184"/>
-      <c r="R20" s="182"/>
-      <c r="S20" s="182"/>
-      <c r="T20" s="182"/>
-      <c r="U20" s="182"/>
-      <c r="V20" s="187"/>
-      <c r="W20" s="182"/>
-      <c r="X20" s="182"/>
-      <c r="Y20" s="182"/>
-      <c r="Z20" s="182"/>
-      <c r="AA20" s="182"/>
-      <c r="AB20" s="182"/>
-      <c r="AC20" s="182"/>
-      <c r="AD20" s="182"/>
-      <c r="AE20" s="182"/>
-      <c r="AF20" s="182"/>
-      <c r="AG20" s="182"/>
-      <c r="AH20" s="182"/>
-      <c r="AI20" s="182"/>
-      <c r="AJ20" s="182"/>
-      <c r="AK20" s="182"/>
-      <c r="AL20" s="182"/>
-      <c r="AM20" s="182"/>
+    <row r="20" spans="7:111" x14ac:dyDescent="0.25">
+      <c r="L20" s="2"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="2"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="16"/>
       <c r="DC20" s="1" t="s">
         <v>60</v>
       </c>
@@ -18235,482 +18164,340 @@
         <f>SUM(DD14:DD19)</f>
         <v>12</v>
       </c>
-      <c r="DE20" s="264">
+      <c r="DE20" s="189">
         <f>SUMSQ(AN13:AQ15)</f>
         <v>525060</v>
       </c>
     </row>
-    <row r="21" spans="4:111" x14ac:dyDescent="0.25">
-      <c r="F21" s="182"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="188"/>
-      <c r="J21" s="188"/>
-      <c r="K21" s="188"/>
-      <c r="L21" s="184"/>
-      <c r="M21" s="188"/>
-      <c r="N21" s="188"/>
-      <c r="O21" s="188"/>
-      <c r="P21" s="188"/>
-      <c r="Q21" s="184"/>
-      <c r="R21" s="188"/>
-      <c r="S21" s="188"/>
-      <c r="T21" s="188"/>
-      <c r="U21" s="188"/>
-      <c r="V21" s="189"/>
-      <c r="W21" s="188"/>
-      <c r="X21" s="188"/>
-      <c r="Y21" s="188"/>
-      <c r="Z21" s="188"/>
-      <c r="AA21" s="190"/>
-      <c r="AB21" s="182"/>
-      <c r="AC21" s="191"/>
-      <c r="AD21" s="191"/>
-      <c r="AE21" s="191"/>
-      <c r="AF21" s="191"/>
-      <c r="AG21" s="192"/>
-      <c r="AH21" s="193"/>
-      <c r="AI21" s="188"/>
-      <c r="AJ21" s="188"/>
-      <c r="AK21" s="188"/>
-      <c r="AL21" s="188"/>
-      <c r="AM21" s="182"/>
-    </row>
-    <row r="22" spans="4:111" x14ac:dyDescent="0.25">
-      <c r="F22" s="182"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="194"/>
-      <c r="J22" s="194"/>
-      <c r="K22" s="194"/>
-      <c r="L22" s="184"/>
-      <c r="M22" s="195"/>
-      <c r="N22" s="195"/>
-      <c r="O22" s="195"/>
-      <c r="P22" s="195"/>
-      <c r="Q22" s="184"/>
-      <c r="R22" s="195"/>
-      <c r="S22" s="195"/>
-      <c r="T22" s="195"/>
-      <c r="U22" s="195"/>
-      <c r="V22" s="196"/>
-      <c r="W22" s="194"/>
-      <c r="X22" s="194"/>
-      <c r="Y22" s="194"/>
-      <c r="Z22" s="194"/>
-      <c r="AA22" s="197"/>
-      <c r="AB22" s="182"/>
-      <c r="AC22" s="194"/>
-      <c r="AD22" s="194"/>
-      <c r="AE22" s="194"/>
-      <c r="AF22" s="194"/>
-      <c r="AG22" s="197"/>
-      <c r="AH22" s="182"/>
-      <c r="AI22" s="198"/>
-      <c r="AJ22" s="198"/>
-      <c r="AK22" s="198"/>
-      <c r="AL22" s="198"/>
-      <c r="AM22" s="199"/>
-    </row>
-    <row r="23" spans="4:111" x14ac:dyDescent="0.25">
-      <c r="F23" s="182"/>
-      <c r="G23" s="182"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="194"/>
-      <c r="J23" s="194"/>
-      <c r="K23" s="194"/>
-      <c r="L23" s="184"/>
-      <c r="M23" s="195"/>
-      <c r="N23" s="195"/>
-      <c r="O23" s="195"/>
-      <c r="P23" s="195"/>
-      <c r="Q23" s="184"/>
-      <c r="R23" s="195"/>
-      <c r="S23" s="195"/>
-      <c r="T23" s="195"/>
-      <c r="U23" s="195"/>
-      <c r="V23" s="196"/>
-      <c r="W23" s="194"/>
-      <c r="X23" s="194"/>
-      <c r="Y23" s="194"/>
-      <c r="Z23" s="194"/>
-      <c r="AA23" s="197"/>
-      <c r="AB23" s="182"/>
-      <c r="AC23" s="194"/>
-      <c r="AD23" s="194"/>
-      <c r="AE23" s="194"/>
-      <c r="AF23" s="194"/>
-      <c r="AG23" s="197"/>
-      <c r="AH23" s="182"/>
-      <c r="AI23" s="198"/>
-      <c r="AJ23" s="198"/>
-      <c r="AK23" s="198"/>
-      <c r="AL23" s="198"/>
-      <c r="AM23" s="199"/>
-    </row>
-    <row r="24" spans="4:111" x14ac:dyDescent="0.25">
-      <c r="F24" s="182"/>
-      <c r="G24" s="184"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="194"/>
-      <c r="J24" s="194"/>
-      <c r="K24" s="194"/>
-      <c r="L24" s="184"/>
-      <c r="M24" s="195"/>
-      <c r="N24" s="195"/>
-      <c r="O24" s="195"/>
-      <c r="P24" s="195"/>
-      <c r="Q24" s="184"/>
-      <c r="R24" s="195"/>
-      <c r="S24" s="195"/>
-      <c r="T24" s="195"/>
-      <c r="U24" s="195"/>
-      <c r="V24" s="196"/>
-      <c r="W24" s="194"/>
-      <c r="X24" s="194"/>
-      <c r="Y24" s="194"/>
-      <c r="Z24" s="194"/>
-      <c r="AA24" s="197"/>
-      <c r="AB24" s="182"/>
-      <c r="AC24" s="194"/>
-      <c r="AD24" s="194"/>
-      <c r="AE24" s="194"/>
-      <c r="AF24" s="194"/>
-      <c r="AG24" s="197"/>
-      <c r="AH24" s="182"/>
-      <c r="AI24" s="198"/>
-      <c r="AJ24" s="198"/>
-      <c r="AK24" s="198"/>
-      <c r="AL24" s="198"/>
-      <c r="AM24" s="199"/>
-    </row>
-    <row r="25" spans="4:111" x14ac:dyDescent="0.25">
-      <c r="F25" s="182"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="194"/>
-      <c r="I25" s="194"/>
-      <c r="J25" s="194"/>
-      <c r="K25" s="194"/>
-      <c r="L25" s="184"/>
-      <c r="M25" s="195"/>
-      <c r="N25" s="195"/>
-      <c r="O25" s="195"/>
-      <c r="P25" s="195"/>
-      <c r="Q25" s="184"/>
-      <c r="R25" s="195"/>
-      <c r="S25" s="195"/>
-      <c r="T25" s="195"/>
-      <c r="U25" s="195"/>
-      <c r="V25" s="196"/>
-      <c r="W25" s="194"/>
-      <c r="X25" s="194"/>
-      <c r="Y25" s="194"/>
-      <c r="Z25" s="194"/>
-      <c r="AA25" s="197"/>
-      <c r="AB25" s="182"/>
-      <c r="AC25" s="194"/>
-      <c r="AD25" s="194"/>
-      <c r="AE25" s="194"/>
-      <c r="AF25" s="194"/>
-      <c r="AG25" s="197"/>
-      <c r="AH25" s="182"/>
-      <c r="AI25" s="198"/>
-      <c r="AJ25" s="198"/>
-      <c r="AK25" s="198"/>
-      <c r="AL25" s="198"/>
-      <c r="AM25" s="199"/>
-    </row>
-    <row r="26" spans="4:111" x14ac:dyDescent="0.25">
-      <c r="F26" s="182"/>
-      <c r="G26" s="182"/>
-      <c r="H26" s="194"/>
-      <c r="I26" s="194"/>
-      <c r="J26" s="194"/>
-      <c r="K26" s="194"/>
-      <c r="L26" s="184"/>
-      <c r="M26" s="195"/>
-      <c r="N26" s="195"/>
-      <c r="O26" s="195"/>
-      <c r="P26" s="195"/>
-      <c r="Q26" s="184"/>
-      <c r="R26" s="195"/>
-      <c r="S26" s="195"/>
-      <c r="T26" s="195"/>
-      <c r="U26" s="195"/>
-      <c r="V26" s="196"/>
-      <c r="W26" s="194"/>
-      <c r="X26" s="194"/>
-      <c r="Y26" s="194"/>
-      <c r="Z26" s="194"/>
-      <c r="AA26" s="197"/>
-      <c r="AB26" s="182"/>
-      <c r="AC26" s="194"/>
-      <c r="AD26" s="194"/>
-      <c r="AE26" s="194"/>
-      <c r="AF26" s="194"/>
-      <c r="AG26" s="197"/>
-      <c r="AH26" s="182"/>
-      <c r="AI26" s="198"/>
-      <c r="AJ26" s="198"/>
-      <c r="AK26" s="198"/>
-      <c r="AL26" s="198"/>
-      <c r="AM26" s="199"/>
-    </row>
-    <row r="27" spans="4:111" x14ac:dyDescent="0.25">
-      <c r="F27" s="182"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="194"/>
-      <c r="J27" s="194"/>
-      <c r="K27" s="194"/>
-      <c r="L27" s="184"/>
-      <c r="M27" s="195"/>
-      <c r="N27" s="195"/>
-      <c r="O27" s="195"/>
-      <c r="P27" s="195"/>
-      <c r="Q27" s="184"/>
-      <c r="R27" s="195"/>
-      <c r="S27" s="195"/>
-      <c r="T27" s="195"/>
-      <c r="U27" s="195"/>
-      <c r="V27" s="196"/>
-      <c r="W27" s="194"/>
-      <c r="X27" s="194"/>
-      <c r="Y27" s="194"/>
-      <c r="Z27" s="194"/>
-      <c r="AA27" s="197"/>
-      <c r="AB27" s="182"/>
-      <c r="AC27" s="194"/>
-      <c r="AD27" s="194"/>
-      <c r="AE27" s="194"/>
-      <c r="AF27" s="194"/>
-      <c r="AG27" s="197"/>
-      <c r="AH27" s="182"/>
-      <c r="AI27" s="198"/>
-      <c r="AJ27" s="198"/>
-      <c r="AK27" s="198"/>
-      <c r="AL27" s="198"/>
-      <c r="AM27" s="199"/>
-    </row>
-    <row r="28" spans="4:111" x14ac:dyDescent="0.25">
-      <c r="F28" s="182"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="182"/>
-      <c r="J28" s="182"/>
-      <c r="K28" s="182"/>
-      <c r="L28" s="184"/>
-      <c r="M28" s="200"/>
-      <c r="N28" s="200"/>
-      <c r="O28" s="200"/>
-      <c r="P28" s="200"/>
-      <c r="Q28" s="184"/>
-      <c r="R28" s="182"/>
-      <c r="S28" s="182"/>
-      <c r="T28" s="182"/>
-      <c r="U28" s="182"/>
-      <c r="V28" s="187"/>
-      <c r="W28" s="182"/>
-      <c r="X28" s="182"/>
-      <c r="Y28" s="182"/>
-      <c r="Z28" s="182"/>
-      <c r="AA28" s="182"/>
-      <c r="AB28" s="182"/>
-      <c r="AC28" s="200"/>
-      <c r="AD28" s="200"/>
-      <c r="AE28" s="200"/>
-      <c r="AF28" s="200"/>
-      <c r="AG28" s="184"/>
-      <c r="AH28" s="182"/>
-      <c r="AI28" s="184"/>
-      <c r="AJ28" s="184"/>
-      <c r="AK28" s="184"/>
-      <c r="AL28" s="184"/>
-      <c r="AM28" s="182"/>
-    </row>
-    <row r="29" spans="4:111" x14ac:dyDescent="0.25">
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="182"/>
-      <c r="M29" s="182"/>
-      <c r="N29" s="182"/>
-      <c r="O29" s="182"/>
-      <c r="P29" s="182"/>
-      <c r="Q29" s="184"/>
-      <c r="R29" s="182"/>
-      <c r="S29" s="182"/>
-      <c r="T29" s="182"/>
-      <c r="U29" s="182"/>
-      <c r="V29" s="187"/>
-      <c r="W29" s="182"/>
-      <c r="X29" s="182"/>
-      <c r="Y29" s="182"/>
-      <c r="Z29" s="182"/>
-      <c r="AA29" s="182"/>
-      <c r="AB29" s="182"/>
-      <c r="AC29" s="182"/>
-      <c r="AD29" s="182"/>
-      <c r="AE29" s="182"/>
-      <c r="AF29" s="182"/>
-      <c r="AG29" s="182"/>
-      <c r="AH29" s="182"/>
-      <c r="AI29" s="184"/>
-      <c r="AJ29" s="200"/>
-      <c r="AK29" s="200"/>
-      <c r="AL29" s="200"/>
-      <c r="AM29" s="182"/>
-    </row>
-    <row r="30" spans="4:111" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="183"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="182"/>
-      <c r="M30" s="182"/>
-      <c r="N30" s="182"/>
-      <c r="O30" s="182"/>
-      <c r="P30" s="182"/>
-      <c r="Q30" s="184"/>
+    <row r="21" spans="7:111" x14ac:dyDescent="0.25">
+      <c r="H21" s="209"/>
+      <c r="I21" s="209"/>
+      <c r="J21" s="209"/>
+      <c r="K21" s="209"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="209"/>
+      <c r="N21" s="209"/>
+      <c r="O21" s="209"/>
+      <c r="P21" s="209"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="209"/>
+      <c r="S21" s="209"/>
+      <c r="T21" s="209"/>
+      <c r="U21" s="209"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="209"/>
+      <c r="X21" s="209"/>
+      <c r="Y21" s="209"/>
+      <c r="Z21" s="209"/>
+      <c r="AA21" s="13"/>
+      <c r="AC21" s="220"/>
+      <c r="AD21" s="220"/>
+      <c r="AE21" s="220"/>
+      <c r="AF21" s="220"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="209"/>
+      <c r="AJ21" s="209"/>
+      <c r="AK21" s="209"/>
+      <c r="AL21" s="209"/>
+    </row>
+    <row r="22" spans="7:111" x14ac:dyDescent="0.25">
+      <c r="H22" s="198"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="198"/>
+      <c r="K22" s="198"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="198"/>
+      <c r="X22" s="198"/>
+      <c r="Y22" s="198"/>
+      <c r="Z22" s="198"/>
+      <c r="AA22" s="239"/>
+      <c r="AC22" s="198"/>
+      <c r="AD22" s="198"/>
+      <c r="AE22" s="198"/>
+      <c r="AF22" s="198"/>
+      <c r="AG22" s="239"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="240"/>
+    </row>
+    <row r="23" spans="7:111" x14ac:dyDescent="0.25">
+      <c r="H23" s="198"/>
+      <c r="I23" s="198"/>
+      <c r="J23" s="198"/>
+      <c r="K23" s="198"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="198"/>
+      <c r="X23" s="198"/>
+      <c r="Y23" s="198"/>
+      <c r="Z23" s="198"/>
+      <c r="AA23" s="239"/>
+      <c r="AC23" s="198"/>
+      <c r="AD23" s="198"/>
+      <c r="AE23" s="198"/>
+      <c r="AF23" s="198"/>
+      <c r="AG23" s="239"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="240"/>
+    </row>
+    <row r="24" spans="7:111" x14ac:dyDescent="0.25">
+      <c r="G24" s="2"/>
+      <c r="H24" s="198"/>
+      <c r="I24" s="198"/>
+      <c r="J24" s="198"/>
+      <c r="K24" s="198"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="198"/>
+      <c r="X24" s="198"/>
+      <c r="Y24" s="198"/>
+      <c r="Z24" s="198"/>
+      <c r="AA24" s="239"/>
+      <c r="AC24" s="198"/>
+      <c r="AD24" s="198"/>
+      <c r="AE24" s="198"/>
+      <c r="AF24" s="198"/>
+      <c r="AG24" s="239"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="240"/>
+    </row>
+    <row r="25" spans="7:111" x14ac:dyDescent="0.25">
+      <c r="H25" s="198"/>
+      <c r="I25" s="198"/>
+      <c r="J25" s="198"/>
+      <c r="K25" s="198"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="198"/>
+      <c r="X25" s="198"/>
+      <c r="Y25" s="198"/>
+      <c r="Z25" s="198"/>
+      <c r="AA25" s="239"/>
+      <c r="AC25" s="198"/>
+      <c r="AD25" s="198"/>
+      <c r="AE25" s="198"/>
+      <c r="AF25" s="198"/>
+      <c r="AG25" s="239"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="240"/>
+    </row>
+    <row r="26" spans="7:111" x14ac:dyDescent="0.25">
+      <c r="H26" s="198"/>
+      <c r="I26" s="198"/>
+      <c r="J26" s="198"/>
+      <c r="K26" s="198"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="198"/>
+      <c r="X26" s="198"/>
+      <c r="Y26" s="198"/>
+      <c r="Z26" s="198"/>
+      <c r="AA26" s="239"/>
+      <c r="AC26" s="198"/>
+      <c r="AD26" s="198"/>
+      <c r="AE26" s="198"/>
+      <c r="AF26" s="198"/>
+      <c r="AG26" s="239"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="240"/>
+    </row>
+    <row r="27" spans="7:111" x14ac:dyDescent="0.25">
+      <c r="H27" s="198"/>
+      <c r="I27" s="198"/>
+      <c r="J27" s="198"/>
+      <c r="K27" s="198"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="198"/>
+      <c r="X27" s="198"/>
+      <c r="Y27" s="198"/>
+      <c r="Z27" s="198"/>
+      <c r="AA27" s="239"/>
+      <c r="AC27" s="198"/>
+      <c r="AD27" s="198"/>
+      <c r="AE27" s="198"/>
+      <c r="AF27" s="198"/>
+      <c r="AG27" s="239"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="240"/>
+    </row>
+    <row r="28" spans="7:111" x14ac:dyDescent="0.25">
+      <c r="L28" s="2"/>
+      <c r="M28" s="192"/>
+      <c r="N28" s="192"/>
+      <c r="O28" s="192"/>
+      <c r="P28" s="192"/>
+      <c r="Q28" s="2"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="16"/>
+      <c r="AC28" s="192"/>
+      <c r="AD28" s="192"/>
+      <c r="AE28" s="192"/>
+      <c r="AF28" s="192"/>
+      <c r="AG28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+    </row>
+    <row r="29" spans="7:111" x14ac:dyDescent="0.25">
+      <c r="P29" s="1"/>
+      <c r="Q29" s="2"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="16"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="192"/>
+      <c r="AK29" s="192"/>
+      <c r="AL29" s="192"/>
+    </row>
+    <row r="30" spans="7:111" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="2"/>
       <c r="U30" s="1"/>
       <c r="V30" s="16"/>
     </row>
-    <row r="31" spans="4:111" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="182"/>
-      <c r="E31" s="182"/>
-      <c r="F31" s="182"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="182"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="182"/>
-      <c r="P31" s="184"/>
-      <c r="Q31" s="182"/>
-    </row>
-    <row r="32" spans="4:111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="182"/>
-      <c r="E32" s="182"/>
-      <c r="F32" s="182"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="185"/>
-      <c r="I32" s="185"/>
-      <c r="J32" s="185"/>
-      <c r="K32" s="185"/>
-      <c r="L32" s="182"/>
-      <c r="M32" s="186"/>
-      <c r="N32" s="186"/>
-      <c r="O32" s="186"/>
-      <c r="P32" s="186"/>
-      <c r="Q32" s="182"/>
-    </row>
-    <row r="33" spans="4:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="D33" s="182"/>
-      <c r="E33" s="182"/>
-      <c r="F33" s="182"/>
-      <c r="G33" s="182"/>
-      <c r="H33" s="185"/>
-      <c r="I33" s="185"/>
-      <c r="J33" s="185"/>
-      <c r="K33" s="185"/>
-      <c r="L33" s="182"/>
-      <c r="M33" s="186"/>
-      <c r="N33" s="186"/>
-      <c r="O33" s="186"/>
-      <c r="P33" s="186"/>
-      <c r="Q33" s="182"/>
-    </row>
-    <row r="34" spans="4:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="D34" s="182"/>
-      <c r="E34" s="182"/>
-      <c r="F34" s="182"/>
-      <c r="G34" s="182"/>
-      <c r="H34" s="185"/>
-      <c r="I34" s="185"/>
-      <c r="J34" s="185"/>
-      <c r="K34" s="185"/>
-      <c r="L34" s="182"/>
-      <c r="M34" s="186"/>
-      <c r="N34" s="186"/>
-      <c r="O34" s="186"/>
-      <c r="P34" s="186"/>
-      <c r="Q34" s="182"/>
-    </row>
-    <row r="35" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D35" s="182"/>
-      <c r="E35" s="182"/>
-      <c r="F35" s="182"/>
-      <c r="G35" s="182"/>
-      <c r="H35" s="182"/>
-      <c r="I35" s="182"/>
-      <c r="J35" s="182"/>
-      <c r="K35" s="182"/>
-      <c r="L35" s="182"/>
-      <c r="M35" s="182"/>
-      <c r="N35" s="182"/>
-      <c r="O35" s="182"/>
-      <c r="P35" s="184"/>
-      <c r="Q35" s="182"/>
+    <row r="31" spans="7:111" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="7:111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="142"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="142"/>
+      <c r="K32" s="142"/>
+      <c r="M32" s="143"/>
+      <c r="N32" s="143"/>
+      <c r="O32" s="143"/>
+      <c r="P32" s="143"/>
+    </row>
+    <row r="33" spans="8:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="H33" s="142"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="142"/>
+      <c r="K33" s="142"/>
+      <c r="M33" s="143"/>
+      <c r="N33" s="143"/>
+      <c r="O33" s="143"/>
+      <c r="P33" s="143"/>
+    </row>
+    <row r="34" spans="8:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="H34" s="142"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="142"/>
+      <c r="K34" s="142"/>
+      <c r="M34" s="143"/>
+      <c r="N34" s="143"/>
+      <c r="O34" s="143"/>
+      <c r="P34" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="CX12:DA12"/>
-    <mergeCell ref="CS11:CV11"/>
-    <mergeCell ref="BY12:CB12"/>
-    <mergeCell ref="CD12:CG12"/>
-    <mergeCell ref="CI12:CL12"/>
-    <mergeCell ref="CN12:CQ12"/>
-    <mergeCell ref="CS12:CV12"/>
-    <mergeCell ref="BN11:BQ11"/>
-    <mergeCell ref="AT12:AW12"/>
-    <mergeCell ref="AY12:BB12"/>
-    <mergeCell ref="BD12:BG12"/>
-    <mergeCell ref="BI12:BL12"/>
-    <mergeCell ref="BS12:BV12"/>
-    <mergeCell ref="BN12:BQ12"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BN9:BO9"/>
-    <mergeCell ref="BP9:BQ9"/>
-    <mergeCell ref="AY6:AZ8"/>
-    <mergeCell ref="BA6:BB8"/>
-    <mergeCell ref="BD6:BD8"/>
-    <mergeCell ref="BE6:BE8"/>
-    <mergeCell ref="BF6:BF8"/>
-    <mergeCell ref="BG6:BG8"/>
-    <mergeCell ref="BS5:BV5"/>
-    <mergeCell ref="AT6:AW8"/>
-    <mergeCell ref="BI6:BL6"/>
-    <mergeCell ref="BN6:BO6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BI7:BL7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BI8:BL8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="BP8:BQ8"/>
-    <mergeCell ref="BN4:BQ4"/>
-    <mergeCell ref="AN5:AQ5"/>
-    <mergeCell ref="AT5:AW5"/>
-    <mergeCell ref="AY5:BB5"/>
-    <mergeCell ref="BD5:BG5"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="BN5:BQ5"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AJ29:AL29"/>
+    <mergeCell ref="AM22:AM24"/>
+    <mergeCell ref="W24:Z25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AC24:AD25"/>
+    <mergeCell ref="AE24:AF25"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="AM25:AM27"/>
+    <mergeCell ref="W26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AC26:AD27"/>
+    <mergeCell ref="AG22:AG23"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="H22:K27"/>
+    <mergeCell ref="W22:Z23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AC22:AD23"/>
+    <mergeCell ref="AE22:AF23"/>
+    <mergeCell ref="AE26:AF27"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="AB9:AC9"/>
     <mergeCell ref="AD9:AE9"/>
     <mergeCell ref="AI21:AL21"/>
@@ -18727,39 +18514,53 @@
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="H22:K27"/>
-    <mergeCell ref="W22:Z23"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AC22:AD23"/>
-    <mergeCell ref="AE22:AF23"/>
-    <mergeCell ref="AE26:AF27"/>
-    <mergeCell ref="AM22:AM24"/>
-    <mergeCell ref="W24:Z25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AC24:AD25"/>
-    <mergeCell ref="AE24:AF25"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="AM25:AM27"/>
-    <mergeCell ref="W26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AC26:AD27"/>
-    <mergeCell ref="AG22:AG23"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AJ29:AL29"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="BN4:BQ4"/>
+    <mergeCell ref="AN5:AQ5"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="AY5:BB5"/>
+    <mergeCell ref="BD5:BG5"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="BN5:BQ5"/>
+    <mergeCell ref="BG6:BG8"/>
+    <mergeCell ref="BS5:BV5"/>
+    <mergeCell ref="AT6:AW8"/>
+    <mergeCell ref="BI6:BL6"/>
+    <mergeCell ref="BN6:BO6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BI7:BL7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BI8:BL8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="BP8:BQ8"/>
+    <mergeCell ref="AY6:AZ8"/>
+    <mergeCell ref="BA6:BB8"/>
+    <mergeCell ref="BD6:BD8"/>
+    <mergeCell ref="BE6:BE8"/>
+    <mergeCell ref="BF6:BF8"/>
+    <mergeCell ref="BS12:BV12"/>
+    <mergeCell ref="BN12:BQ12"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BN9:BO9"/>
+    <mergeCell ref="BP9:BQ9"/>
+    <mergeCell ref="BN11:BQ11"/>
+    <mergeCell ref="AT12:AW12"/>
+    <mergeCell ref="AY12:BB12"/>
+    <mergeCell ref="BD12:BG12"/>
+    <mergeCell ref="BI12:BL12"/>
+    <mergeCell ref="CX12:DA12"/>
+    <mergeCell ref="CS11:CV11"/>
+    <mergeCell ref="BY12:CB12"/>
+    <mergeCell ref="CD12:CG12"/>
+    <mergeCell ref="CI12:CL12"/>
+    <mergeCell ref="CN12:CQ12"/>
+    <mergeCell ref="CS12:CV12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18772,7 +18573,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:CF33"/>
+  <dimension ref="A1:CF32"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -18808,65 +18609,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="190" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="BQ2" s="171" t="s">
+      <c r="BQ2" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="BR2" s="171"/>
-      <c r="BS2" s="171"/>
-      <c r="BT2" s="171"/>
+      <c r="BR2" s="220"/>
+      <c r="BS2" s="220"/>
+      <c r="BT2" s="220"/>
     </row>
     <row r="3" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ3" s="158" t="s">
+      <c r="AQ3" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AR3" s="158"/>
-      <c r="AS3" s="158"/>
-      <c r="AT3" s="158"/>
-      <c r="AW3" s="160" t="s">
+      <c r="AR3" s="209"/>
+      <c r="AS3" s="209"/>
+      <c r="AT3" s="209"/>
+      <c r="AW3" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="AX3" s="160"/>
-      <c r="AY3" s="160"/>
-      <c r="AZ3" s="160"/>
+      <c r="AX3" s="210"/>
+      <c r="AY3" s="210"/>
+      <c r="AZ3" s="210"/>
       <c r="BA3" s="2"/>
-      <c r="BB3" s="158" t="s">
+      <c r="BB3" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="BC3" s="158"/>
-      <c r="BD3" s="158"/>
-      <c r="BE3" s="158"/>
+      <c r="BC3" s="209"/>
+      <c r="BD3" s="209"/>
+      <c r="BE3" s="209"/>
       <c r="BF3" s="2"/>
-      <c r="BG3" s="158" t="s">
+      <c r="BG3" s="209" t="s">
         <v>73</v>
       </c>
-      <c r="BH3" s="158"/>
-      <c r="BI3" s="158"/>
-      <c r="BJ3" s="158"/>
+      <c r="BH3" s="209"/>
+      <c r="BI3" s="209"/>
+      <c r="BJ3" s="209"/>
       <c r="BK3" s="17"/>
-      <c r="BL3" s="158" t="s">
+      <c r="BL3" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="BM3" s="158"/>
-      <c r="BN3" s="158"/>
-      <c r="BO3" s="158"/>
-      <c r="BQ3" s="159" t="s">
+      <c r="BM3" s="209"/>
+      <c r="BN3" s="209"/>
+      <c r="BO3" s="209"/>
+      <c r="BQ3" s="211" t="s">
         <v>78</v>
       </c>
-      <c r="BR3" s="159"/>
-      <c r="BS3" s="159"/>
-      <c r="BT3" s="159"/>
+      <c r="BR3" s="211"/>
+      <c r="BS3" s="211"/>
+      <c r="BT3" s="211"/>
       <c r="BU3" s="13"/>
-      <c r="BV3" s="158" t="s">
+      <c r="BV3" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="BW3" s="158"/>
-      <c r="BX3" s="158"/>
-      <c r="BY3" s="158"/>
+      <c r="BW3" s="209"/>
+      <c r="BX3" s="209"/>
+      <c r="BY3" s="209"/>
     </row>
     <row r="4" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K4" s="2"/>
@@ -18874,10 +18675,10 @@
       <c r="AR4" s="10"/>
       <c r="AS4" s="10"/>
       <c r="AT4" s="10"/>
-      <c r="AW4" s="144"/>
-      <c r="AX4" s="145"/>
-      <c r="AY4" s="145"/>
-      <c r="AZ4" s="146"/>
+      <c r="AW4" s="194"/>
+      <c r="AX4" s="195"/>
+      <c r="AY4" s="195"/>
+      <c r="AZ4" s="196"/>
       <c r="BA4" s="2"/>
       <c r="BB4" s="27"/>
       <c r="BC4" s="28"/>
@@ -18889,69 +18690,69 @@
       <c r="BI4" s="103"/>
       <c r="BJ4" s="28"/>
       <c r="BK4" s="8"/>
-      <c r="BL4" s="172" t="s">
+      <c r="BL4" s="241" t="s">
         <v>79</v>
       </c>
-      <c r="BM4" s="173"/>
-      <c r="BN4" s="173"/>
-      <c r="BO4" s="174"/>
-      <c r="BQ4" s="166"/>
-      <c r="BR4" s="168"/>
-      <c r="BS4" s="166"/>
-      <c r="BT4" s="168"/>
+      <c r="BM4" s="242"/>
+      <c r="BN4" s="242"/>
+      <c r="BO4" s="243"/>
+      <c r="BQ4" s="215"/>
+      <c r="BR4" s="216"/>
+      <c r="BS4" s="215"/>
+      <c r="BT4" s="216"/>
       <c r="BV4" s="10"/>
       <c r="BW4" s="10"/>
       <c r="BX4" s="10"/>
       <c r="BY4" s="10"/>
     </row>
     <row r="5" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="G5" s="160" t="s">
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="G5" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="158" t="s">
+      <c r="L5" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="158"/>
-      <c r="N5" s="158"/>
-      <c r="O5" s="158"/>
-      <c r="Q5" s="158" t="s">
+      <c r="M5" s="209"/>
+      <c r="N5" s="209"/>
+      <c r="O5" s="209"/>
+      <c r="Q5" s="209" t="s">
         <v>73</v>
       </c>
-      <c r="R5" s="158"/>
-      <c r="S5" s="158"/>
-      <c r="T5" s="158"/>
+      <c r="R5" s="209"/>
+      <c r="S5" s="209"/>
+      <c r="T5" s="209"/>
       <c r="U5" s="17"/>
-      <c r="V5" s="158" t="s">
+      <c r="V5" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="158"/>
-      <c r="X5" s="158"/>
-      <c r="Y5" s="158"/>
+      <c r="W5" s="209"/>
+      <c r="X5" s="209"/>
+      <c r="Y5" s="209"/>
       <c r="Z5" s="13"/>
-      <c r="AB5" s="159" t="s">
+      <c r="AB5" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="AC5" s="159"/>
-      <c r="AD5" s="159"/>
-      <c r="AE5" s="159"/>
+      <c r="AC5" s="211"/>
+      <c r="AD5" s="211"/>
+      <c r="AE5" s="211"/>
       <c r="AF5" s="15"/>
       <c r="AG5" s="14"/>
-      <c r="AH5" s="158" t="s">
+      <c r="AH5" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="AI5" s="158"/>
-      <c r="AJ5" s="158"/>
-      <c r="AK5" s="158"/>
+      <c r="AI5" s="209"/>
+      <c r="AJ5" s="209"/>
+      <c r="AK5" s="209"/>
       <c r="AQ5" s="10"/>
       <c r="AR5" s="10"/>
       <c r="AS5" s="10"/>
@@ -18960,10 +18761,10 @@
         <v>45</v>
       </c>
       <c r="AV5" s="2"/>
-      <c r="AW5" s="152"/>
-      <c r="AX5" s="153"/>
-      <c r="AY5" s="153"/>
-      <c r="AZ5" s="154"/>
+      <c r="AW5" s="197"/>
+      <c r="AX5" s="198"/>
+      <c r="AY5" s="198"/>
+      <c r="AZ5" s="199"/>
       <c r="BA5" s="2"/>
       <c r="BB5" s="29"/>
       <c r="BC5" s="30"/>
@@ -18975,17 +18776,17 @@
       <c r="BI5" s="104"/>
       <c r="BJ5" s="30"/>
       <c r="BK5" s="8"/>
-      <c r="BL5" s="172" t="s">
+      <c r="BL5" s="241" t="s">
         <v>80</v>
       </c>
-      <c r="BM5" s="173"/>
-      <c r="BN5" s="173"/>
-      <c r="BO5" s="174"/>
+      <c r="BM5" s="242"/>
+      <c r="BN5" s="242"/>
+      <c r="BO5" s="243"/>
       <c r="BP5" s="2"/>
-      <c r="BQ5" s="166"/>
-      <c r="BR5" s="168"/>
-      <c r="BS5" s="166"/>
-      <c r="BT5" s="168"/>
+      <c r="BQ5" s="215"/>
+      <c r="BR5" s="216"/>
+      <c r="BS5" s="215"/>
+      <c r="BT5" s="216"/>
       <c r="BV5" s="10"/>
       <c r="BW5" s="10"/>
       <c r="BX5" s="10"/>
@@ -18996,10 +18797,10 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="196"/>
       <c r="K6" s="2"/>
       <c r="L6" s="27"/>
       <c r="M6" s="28"/>
@@ -19010,17 +18811,17 @@
       <c r="S6" s="103"/>
       <c r="T6" s="28"/>
       <c r="U6" s="8"/>
-      <c r="V6" s="144"/>
-      <c r="W6" s="145"/>
-      <c r="X6" s="145"/>
-      <c r="Y6" s="146"/>
+      <c r="V6" s="194"/>
+      <c r="W6" s="195"/>
+      <c r="X6" s="195"/>
+      <c r="Y6" s="196"/>
       <c r="Z6" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="AB6" s="144"/>
-      <c r="AC6" s="146"/>
-      <c r="AD6" s="144"/>
-      <c r="AE6" s="146"/>
+      <c r="AB6" s="194"/>
+      <c r="AC6" s="196"/>
+      <c r="AD6" s="194"/>
+      <c r="AE6" s="196"/>
       <c r="AF6" s="96" t="s">
         <v>18</v>
       </c>
@@ -19028,15 +18829,15 @@
       <c r="AI6" s="10"/>
       <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
-      <c r="AL6" s="161"/>
+      <c r="AL6" s="208"/>
       <c r="AQ6" s="10"/>
       <c r="AR6" s="10"/>
       <c r="AS6" s="10"/>
       <c r="AT6" s="10"/>
-      <c r="AW6" s="147"/>
-      <c r="AX6" s="148"/>
-      <c r="AY6" s="148"/>
-      <c r="AZ6" s="149"/>
+      <c r="AW6" s="200"/>
+      <c r="AX6" s="201"/>
+      <c r="AY6" s="201"/>
+      <c r="AZ6" s="202"/>
       <c r="BA6" s="2"/>
       <c r="BB6" s="31"/>
       <c r="BC6" s="32"/>
@@ -19048,16 +18849,16 @@
       <c r="BI6" s="105"/>
       <c r="BJ6" s="32"/>
       <c r="BK6" s="8"/>
-      <c r="BL6" s="175" t="s">
+      <c r="BL6" s="244" t="s">
         <v>81</v>
       </c>
-      <c r="BM6" s="176"/>
-      <c r="BN6" s="176"/>
-      <c r="BO6" s="177"/>
-      <c r="BQ6" s="166"/>
-      <c r="BR6" s="168"/>
-      <c r="BS6" s="166"/>
-      <c r="BT6" s="168"/>
+      <c r="BM6" s="245"/>
+      <c r="BN6" s="245"/>
+      <c r="BO6" s="246"/>
+      <c r="BQ6" s="215"/>
+      <c r="BR6" s="216"/>
+      <c r="BS6" s="215"/>
+      <c r="BT6" s="216"/>
       <c r="BV6" s="10"/>
       <c r="BW6" s="10"/>
       <c r="BX6" s="10"/>
@@ -19071,10 +18872,10 @@
       <c r="F7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="152"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="198"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="199"/>
       <c r="K7" s="2" t="s">
         <v>46</v>
       </c>
@@ -19092,20 +18893,20 @@
       <c r="U7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="V7" s="144"/>
-      <c r="W7" s="145"/>
-      <c r="X7" s="145"/>
-      <c r="Y7" s="146"/>
+      <c r="V7" s="194"/>
+      <c r="W7" s="195"/>
+      <c r="X7" s="195"/>
+      <c r="Y7" s="196"/>
       <c r="Z7" s="99" t="s">
         <v>19</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AB7" s="144"/>
-      <c r="AC7" s="146"/>
-      <c r="AD7" s="144"/>
-      <c r="AE7" s="146"/>
+      <c r="AB7" s="194"/>
+      <c r="AC7" s="196"/>
+      <c r="AD7" s="194"/>
+      <c r="AE7" s="196"/>
       <c r="AF7" s="96" t="s">
         <v>19</v>
       </c>
@@ -19116,20 +18917,20 @@
       <c r="AI7" s="10"/>
       <c r="AJ7" s="10"/>
       <c r="AK7" s="10"/>
-      <c r="AL7" s="161"/>
+      <c r="AL7" s="208"/>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="2"/>
       <c r="AS7" s="2"/>
       <c r="AT7" s="2"/>
       <c r="BA7" s="2"/>
-      <c r="BB7" s="181" t="s">
+      <c r="BB7" s="221" t="s">
         <v>24</v>
       </c>
-      <c r="BC7" s="181"/>
-      <c r="BD7" s="181" t="s">
+      <c r="BC7" s="221"/>
+      <c r="BD7" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="BE7" s="181"/>
+      <c r="BE7" s="221"/>
       <c r="BF7" s="120"/>
       <c r="BG7" s="120" t="s">
         <v>74</v>
@@ -19149,14 +18950,14 @@
       <c r="BN7" s="122"/>
       <c r="BO7" s="122"/>
       <c r="BP7" s="122"/>
-      <c r="BQ7" s="181" t="s">
+      <c r="BQ7" s="221" t="s">
         <v>24</v>
       </c>
-      <c r="BR7" s="181"/>
-      <c r="BS7" s="181" t="s">
+      <c r="BR7" s="221"/>
+      <c r="BS7" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="BT7" s="181"/>
+      <c r="BT7" s="221"/>
       <c r="BV7" s="2"/>
       <c r="BW7" s="2"/>
       <c r="BX7" s="2"/>
@@ -19167,10 +18968,10 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="201"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="202"/>
       <c r="K8" s="2"/>
       <c r="L8" s="31"/>
       <c r="M8" s="32"/>
@@ -19181,17 +18982,17 @@
       <c r="S8" s="105"/>
       <c r="T8" s="32"/>
       <c r="U8" s="8"/>
-      <c r="V8" s="166"/>
-      <c r="W8" s="167"/>
-      <c r="X8" s="167"/>
-      <c r="Y8" s="168"/>
+      <c r="V8" s="215"/>
+      <c r="W8" s="217"/>
+      <c r="X8" s="217"/>
+      <c r="Y8" s="216"/>
       <c r="Z8" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="AB8" s="166"/>
-      <c r="AC8" s="168"/>
-      <c r="AD8" s="166"/>
-      <c r="AE8" s="168"/>
+      <c r="AB8" s="215"/>
+      <c r="AC8" s="216"/>
+      <c r="AD8" s="215"/>
+      <c r="AE8" s="216"/>
       <c r="AF8" s="96" t="s">
         <v>20</v>
       </c>
@@ -19207,14 +19008,14 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="164" t="s">
+      <c r="L9" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="164"/>
-      <c r="N9" s="164" t="s">
+      <c r="M9" s="207"/>
+      <c r="N9" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="164"/>
+      <c r="O9" s="207"/>
       <c r="Q9" s="2" t="s">
         <v>74</v>
       </c>
@@ -19227,14 +19028,14 @@
       <c r="T9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AB9" s="164" t="s">
+      <c r="AB9" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="AC9" s="164"/>
-      <c r="AD9" s="164" t="s">
+      <c r="AC9" s="207"/>
+      <c r="AD9" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="AE9" s="164"/>
+      <c r="AE9" s="207"/>
       <c r="AF9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
@@ -19242,14 +19043,14 @@
       <c r="AK9" s="2"/>
     </row>
     <row r="10" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="AH10" s="156"/>
-      <c r="AI10" s="156"/>
-      <c r="AJ10" s="156"/>
-      <c r="AK10" s="156"/>
+      <c r="B10" s="192"/>
+      <c r="C10" s="192"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="192"/>
+      <c r="AH10" s="192"/>
+      <c r="AI10" s="192"/>
+      <c r="AJ10" s="192"/>
+      <c r="AK10" s="192"/>
     </row>
     <row r="11" spans="1:77" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="G11" s="18"/>
@@ -19260,19 +19061,19 @@
       <c r="F12" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="162" t="s">
+      <c r="G12" s="212" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="162"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="162"/>
+      <c r="H12" s="212"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="212"/>
       <c r="K12" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="163"/>
-      <c r="M12" s="163"/>
-      <c r="N12" s="163"/>
-      <c r="O12" s="163"/>
+      <c r="L12" s="213"/>
+      <c r="M12" s="213"/>
+      <c r="N12" s="213"/>
+      <c r="O12" s="213"/>
       <c r="P12" s="19" t="s">
         <v>46</v>
       </c>
@@ -19280,10 +19081,10 @@
       <c r="U12" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="V12" s="156"/>
-      <c r="W12" s="156"/>
-      <c r="X12" s="156"/>
-      <c r="Y12" s="156"/>
+      <c r="V12" s="192"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="192"/>
       <c r="AA12" s="19" t="s">
         <v>46</v>
       </c>
@@ -19301,60 +19102,60 @@
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
     </row>
-    <row r="17" spans="4:84" x14ac:dyDescent="0.25">
-      <c r="BR17" s="178"/>
-      <c r="BS17" s="178"/>
-      <c r="BT17" s="178"/>
-      <c r="BU17" s="178"/>
+    <row r="17" spans="7:84" x14ac:dyDescent="0.25">
+      <c r="BR17" s="247"/>
+      <c r="BS17" s="247"/>
+      <c r="BT17" s="247"/>
+      <c r="BU17" s="247"/>
       <c r="BV17" s="2"/>
     </row>
-    <row r="18" spans="4:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AX18" s="160" t="s">
+    <row r="18" spans="7:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AX18" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="AY18" s="160"/>
-      <c r="AZ18" s="160"/>
-      <c r="BA18" s="160"/>
+      <c r="AY18" s="210"/>
+      <c r="AZ18" s="210"/>
+      <c r="BA18" s="210"/>
       <c r="BB18" s="2"/>
-      <c r="BC18" s="179" t="s">
+      <c r="BC18" s="248" t="s">
         <v>84</v>
       </c>
-      <c r="BD18" s="179"/>
-      <c r="BE18" s="179"/>
-      <c r="BF18" s="179"/>
+      <c r="BD18" s="248"/>
+      <c r="BE18" s="248"/>
+      <c r="BF18" s="248"/>
       <c r="BG18" s="2"/>
-      <c r="BH18" s="158" t="s">
+      <c r="BH18" s="209" t="s">
         <v>82</v>
       </c>
-      <c r="BI18" s="158"/>
-      <c r="BJ18" s="158"/>
-      <c r="BK18" s="158"/>
+      <c r="BI18" s="209"/>
+      <c r="BJ18" s="209"/>
+      <c r="BK18" s="209"/>
       <c r="BL18" s="17"/>
-      <c r="BM18" s="180" t="s">
+      <c r="BM18" s="249" t="s">
         <v>83</v>
       </c>
-      <c r="BN18" s="180"/>
-      <c r="BO18" s="180"/>
-      <c r="BP18" s="180"/>
-      <c r="BR18" s="159" t="s">
+      <c r="BN18" s="249"/>
+      <c r="BO18" s="249"/>
+      <c r="BP18" s="249"/>
+      <c r="BR18" s="211" t="s">
         <v>78</v>
       </c>
-      <c r="BS18" s="159"/>
-      <c r="BT18" s="159"/>
-      <c r="BU18" s="159"/>
+      <c r="BS18" s="211"/>
+      <c r="BT18" s="211"/>
+      <c r="BU18" s="211"/>
       <c r="BV18" s="13"/>
-      <c r="BW18" s="158" t="s">
+      <c r="BW18" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="BX18" s="158"/>
-      <c r="BY18" s="158"/>
-      <c r="BZ18" s="158"/>
-    </row>
-    <row r="19" spans="4:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AX19" s="144"/>
-      <c r="AY19" s="145"/>
-      <c r="AZ19" s="145"/>
-      <c r="BA19" s="146"/>
+      <c r="BX18" s="209"/>
+      <c r="BY18" s="209"/>
+      <c r="BZ18" s="209"/>
+    </row>
+    <row r="19" spans="7:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AX19" s="194"/>
+      <c r="AY19" s="195"/>
+      <c r="AZ19" s="195"/>
+      <c r="BA19" s="196"/>
       <c r="BB19" s="2"/>
       <c r="BC19" s="27"/>
       <c r="BD19" s="28"/>
@@ -19366,63 +19167,25 @@
       <c r="BJ19" s="103"/>
       <c r="BK19" s="28"/>
       <c r="BL19" s="8"/>
-      <c r="BM19" s="172"/>
-      <c r="BN19" s="173"/>
-      <c r="BO19" s="173"/>
-      <c r="BP19" s="174"/>
-      <c r="BR19" s="166"/>
-      <c r="BS19" s="168"/>
-      <c r="BT19" s="166"/>
-      <c r="BU19" s="168"/>
+      <c r="BM19" s="241"/>
+      <c r="BN19" s="242"/>
+      <c r="BO19" s="242"/>
+      <c r="BP19" s="243"/>
+      <c r="BR19" s="215"/>
+      <c r="BS19" s="216"/>
+      <c r="BT19" s="215"/>
+      <c r="BU19" s="216"/>
       <c r="BV19" s="2"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="10"/>
       <c r="BY19" s="10"/>
       <c r="BZ19" s="10"/>
     </row>
-    <row r="20" spans="4:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="182"/>
-      <c r="E20" s="182"/>
-      <c r="F20" s="182"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="182"/>
-      <c r="K20" s="182"/>
-      <c r="L20" s="182"/>
-      <c r="M20" s="182"/>
-      <c r="N20" s="182"/>
-      <c r="O20" s="182"/>
-      <c r="P20" s="184"/>
-      <c r="Q20" s="182"/>
-      <c r="R20" s="182"/>
-      <c r="S20" s="182"/>
-      <c r="T20" s="182"/>
-      <c r="U20" s="187"/>
-      <c r="V20" s="182"/>
-      <c r="W20" s="182"/>
-      <c r="X20" s="182"/>
-      <c r="Y20" s="182"/>
-      <c r="Z20" s="182"/>
-      <c r="AA20" s="182"/>
-      <c r="AB20" s="182"/>
-      <c r="AC20" s="182"/>
-      <c r="AD20" s="182"/>
-      <c r="AE20" s="182"/>
-      <c r="AF20" s="182"/>
-      <c r="AG20" s="182"/>
-      <c r="AH20" s="182"/>
-      <c r="AI20" s="182"/>
-      <c r="AJ20" s="182"/>
-      <c r="AK20" s="182"/>
-      <c r="AL20" s="182"/>
-      <c r="AM20" s="182"/>
-      <c r="AN20" s="182"/>
-      <c r="AO20" s="182"/>
-      <c r="AX20" s="152"/>
-      <c r="AY20" s="153"/>
-      <c r="AZ20" s="153"/>
-      <c r="BA20" s="154"/>
+    <row r="20" spans="7:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AX20" s="197"/>
+      <c r="AY20" s="198"/>
+      <c r="AZ20" s="198"/>
+      <c r="BA20" s="199"/>
       <c r="BB20" s="2"/>
       <c r="BC20" s="29"/>
       <c r="BD20" s="30"/>
@@ -19434,64 +19197,30 @@
       <c r="BJ20" s="104"/>
       <c r="BK20" s="30"/>
       <c r="BL20" s="8"/>
-      <c r="BM20" s="172"/>
-      <c r="BN20" s="173"/>
-      <c r="BO20" s="173"/>
-      <c r="BP20" s="174"/>
+      <c r="BM20" s="241"/>
+      <c r="BN20" s="242"/>
+      <c r="BO20" s="242"/>
+      <c r="BP20" s="243"/>
       <c r="BQ20" s="2"/>
-      <c r="BR20" s="166"/>
-      <c r="BS20" s="168"/>
-      <c r="BT20" s="166"/>
-      <c r="BU20" s="168"/>
+      <c r="BR20" s="215"/>
+      <c r="BS20" s="216"/>
+      <c r="BT20" s="215"/>
+      <c r="BU20" s="216"/>
       <c r="BV20" s="2"/>
       <c r="BW20" s="10"/>
       <c r="BX20" s="10"/>
       <c r="BY20" s="10"/>
       <c r="BZ20" s="10"/>
     </row>
-    <row r="21" spans="4:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="182"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="182"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="182"/>
-      <c r="K21" s="182"/>
-      <c r="L21" s="182"/>
-      <c r="M21" s="182"/>
-      <c r="N21" s="182"/>
-      <c r="O21" s="182"/>
-      <c r="P21" s="182"/>
-      <c r="Q21" s="184"/>
-      <c r="R21" s="182"/>
-      <c r="S21" s="182"/>
-      <c r="T21" s="182"/>
-      <c r="U21" s="182"/>
-      <c r="V21" s="187"/>
-      <c r="W21" s="182"/>
-      <c r="X21" s="182"/>
-      <c r="Y21" s="182"/>
-      <c r="Z21" s="182"/>
-      <c r="AA21" s="182"/>
-      <c r="AB21" s="182"/>
-      <c r="AC21" s="182"/>
-      <c r="AD21" s="182"/>
-      <c r="AE21" s="182"/>
-      <c r="AF21" s="182"/>
-      <c r="AG21" s="182"/>
-      <c r="AH21" s="182"/>
-      <c r="AI21" s="182"/>
-      <c r="AJ21" s="182"/>
-      <c r="AK21" s="182"/>
-      <c r="AL21" s="182"/>
-      <c r="AM21" s="182"/>
-      <c r="AN21" s="182"/>
-      <c r="AO21" s="182"/>
-      <c r="AX21" s="147"/>
-      <c r="AY21" s="148"/>
-      <c r="AZ21" s="148"/>
-      <c r="BA21" s="149"/>
+    <row r="21" spans="7:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P21" s="1"/>
+      <c r="Q21" s="2"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="16"/>
+      <c r="AX21" s="200"/>
+      <c r="AY21" s="201"/>
+      <c r="AZ21" s="201"/>
+      <c r="BA21" s="202"/>
       <c r="BB21" s="2"/>
       <c r="BC21" s="31"/>
       <c r="BD21" s="32"/>
@@ -19503,64 +19232,31 @@
       <c r="BJ21" s="105"/>
       <c r="BK21" s="32"/>
       <c r="BL21" s="8"/>
-      <c r="BM21" s="175"/>
-      <c r="BN21" s="176"/>
-      <c r="BO21" s="176"/>
-      <c r="BP21" s="177"/>
-      <c r="BR21" s="166"/>
-      <c r="BS21" s="168"/>
-      <c r="BT21" s="166"/>
-      <c r="BU21" s="168"/>
+      <c r="BM21" s="244"/>
+      <c r="BN21" s="245"/>
+      <c r="BO21" s="245"/>
+      <c r="BP21" s="246"/>
+      <c r="BR21" s="215"/>
+      <c r="BS21" s="216"/>
+      <c r="BT21" s="215"/>
+      <c r="BU21" s="216"/>
       <c r="BV21" s="2"/>
       <c r="BW21" s="10"/>
       <c r="BX21" s="10"/>
       <c r="BY21" s="10"/>
       <c r="BZ21" s="10"/>
     </row>
-    <row r="22" spans="4:84" x14ac:dyDescent="0.25">
-      <c r="D22" s="182"/>
-      <c r="E22" s="182"/>
-      <c r="F22" s="182"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="182"/>
-      <c r="J22" s="182"/>
-      <c r="K22" s="182"/>
-      <c r="L22" s="184"/>
-      <c r="M22" s="182"/>
-      <c r="N22" s="182"/>
-      <c r="O22" s="182"/>
-      <c r="P22" s="182"/>
-      <c r="Q22" s="184"/>
-      <c r="R22" s="182"/>
-      <c r="S22" s="182"/>
-      <c r="T22" s="182"/>
-      <c r="U22" s="182"/>
-      <c r="V22" s="187"/>
-      <c r="W22" s="182"/>
-      <c r="X22" s="182"/>
-      <c r="Y22" s="182"/>
-      <c r="Z22" s="182"/>
-      <c r="AA22" s="182"/>
-      <c r="AB22" s="182"/>
-      <c r="AC22" s="182"/>
-      <c r="AD22" s="182"/>
-      <c r="AE22" s="182"/>
-      <c r="AF22" s="182"/>
-      <c r="AG22" s="182"/>
-      <c r="AH22" s="182"/>
-      <c r="AI22" s="182"/>
-      <c r="AJ22" s="182"/>
-      <c r="AK22" s="182"/>
-      <c r="AL22" s="182"/>
-      <c r="AM22" s="182"/>
-      <c r="AN22" s="182"/>
-      <c r="AO22" s="182"/>
+    <row r="22" spans="7:84" x14ac:dyDescent="0.25">
+      <c r="L22" s="2"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="2"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="16"/>
       <c r="BB22" s="2"/>
-      <c r="BC22" s="181"/>
-      <c r="BD22" s="181"/>
-      <c r="BE22" s="181"/>
-      <c r="BF22" s="181"/>
+      <c r="BC22" s="221"/>
+      <c r="BD22" s="221"/>
+      <c r="BE22" s="221"/>
+      <c r="BF22" s="221"/>
       <c r="BG22" s="120"/>
       <c r="BH22" s="120"/>
       <c r="BI22" s="120"/>
@@ -19572,237 +19268,206 @@
       <c r="BO22" s="122"/>
       <c r="BP22" s="122"/>
       <c r="BQ22" s="122"/>
-      <c r="BR22" s="181"/>
-      <c r="BS22" s="181"/>
-      <c r="BT22" s="181"/>
-      <c r="BU22" s="181"/>
+      <c r="BR22" s="221"/>
+      <c r="BS22" s="221"/>
+      <c r="BT22" s="221"/>
+      <c r="BU22" s="221"/>
       <c r="BV22" s="2"/>
       <c r="BW22" s="2"/>
       <c r="BX22" s="2"/>
       <c r="BY22" s="2"/>
       <c r="BZ22" s="2"/>
     </row>
-    <row r="23" spans="4:84" x14ac:dyDescent="0.25">
-      <c r="D23" s="182"/>
-      <c r="E23" s="182"/>
-      <c r="F23" s="182"/>
-      <c r="G23" s="182"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="188"/>
-      <c r="K23" s="188"/>
-      <c r="L23" s="184"/>
-      <c r="M23" s="188"/>
-      <c r="N23" s="188"/>
-      <c r="O23" s="188"/>
-      <c r="P23" s="188"/>
-      <c r="Q23" s="184"/>
-      <c r="R23" s="188"/>
-      <c r="S23" s="188"/>
-      <c r="T23" s="188"/>
-      <c r="U23" s="188"/>
-      <c r="V23" s="189"/>
-      <c r="W23" s="188"/>
-      <c r="X23" s="188"/>
-      <c r="Y23" s="188"/>
-      <c r="Z23" s="188"/>
-      <c r="AA23" s="190"/>
-      <c r="AB23" s="182"/>
-      <c r="AC23" s="191"/>
-      <c r="AD23" s="191"/>
-      <c r="AE23" s="191"/>
-      <c r="AF23" s="191"/>
-      <c r="AG23" s="192"/>
-      <c r="AH23" s="193"/>
-      <c r="AI23" s="188"/>
-      <c r="AJ23" s="188"/>
-      <c r="AK23" s="188"/>
-      <c r="AL23" s="188"/>
-      <c r="AM23" s="182"/>
-      <c r="AN23" s="182"/>
-      <c r="AO23" s="182"/>
-    </row>
-    <row r="24" spans="4:84" x14ac:dyDescent="0.25">
-      <c r="D24" s="182"/>
-      <c r="E24" s="182"/>
-      <c r="F24" s="182"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="194"/>
-      <c r="J24" s="194"/>
-      <c r="K24" s="194"/>
-      <c r="L24" s="184"/>
-      <c r="M24" s="195"/>
-      <c r="N24" s="195"/>
-      <c r="O24" s="195"/>
-      <c r="P24" s="195"/>
-      <c r="Q24" s="184"/>
-      <c r="R24" s="195"/>
-      <c r="S24" s="195"/>
-      <c r="T24" s="195"/>
-      <c r="U24" s="195"/>
-      <c r="V24" s="196"/>
-      <c r="W24" s="194"/>
-      <c r="X24" s="194"/>
-      <c r="Y24" s="194"/>
-      <c r="Z24" s="194"/>
-      <c r="AA24" s="197"/>
-      <c r="AB24" s="182"/>
-      <c r="AC24" s="194"/>
-      <c r="AD24" s="194"/>
-      <c r="AE24" s="194"/>
-      <c r="AF24" s="194"/>
-      <c r="AG24" s="197"/>
-      <c r="AH24" s="182"/>
-      <c r="AI24" s="198"/>
-      <c r="AJ24" s="198"/>
-      <c r="AK24" s="198"/>
-      <c r="AL24" s="198"/>
-      <c r="AM24" s="199"/>
-      <c r="AN24" s="182"/>
-      <c r="AO24" s="182"/>
+    <row r="23" spans="7:84" x14ac:dyDescent="0.25">
+      <c r="H23" s="209"/>
+      <c r="I23" s="209"/>
+      <c r="J23" s="209"/>
+      <c r="K23" s="209"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="209"/>
+      <c r="N23" s="209"/>
+      <c r="O23" s="209"/>
+      <c r="P23" s="209"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="209"/>
+      <c r="S23" s="209"/>
+      <c r="T23" s="209"/>
+      <c r="U23" s="209"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="209"/>
+      <c r="X23" s="209"/>
+      <c r="Y23" s="209"/>
+      <c r="Z23" s="209"/>
+      <c r="AA23" s="13"/>
+      <c r="AC23" s="220"/>
+      <c r="AD23" s="220"/>
+      <c r="AE23" s="220"/>
+      <c r="AF23" s="220"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="209"/>
+      <c r="AJ23" s="209"/>
+      <c r="AK23" s="209"/>
+      <c r="AL23" s="209"/>
+    </row>
+    <row r="24" spans="7:84" x14ac:dyDescent="0.25">
+      <c r="H24" s="198"/>
+      <c r="I24" s="198"/>
+      <c r="J24" s="198"/>
+      <c r="K24" s="198"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="198"/>
+      <c r="X24" s="198"/>
+      <c r="Y24" s="198"/>
+      <c r="Z24" s="198"/>
+      <c r="AA24" s="239"/>
+      <c r="AC24" s="198"/>
+      <c r="AD24" s="198"/>
+      <c r="AE24" s="198"/>
+      <c r="AF24" s="198"/>
+      <c r="AG24" s="239"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="240"/>
       <c r="BU24" s="1"/>
-      <c r="BX24" s="171" t="s">
+      <c r="BX24" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="BY24" s="171"/>
-      <c r="BZ24" s="171"/>
-      <c r="CA24" s="171"/>
+      <c r="BY24" s="220"/>
+      <c r="BZ24" s="220"/>
+      <c r="CA24" s="220"/>
       <c r="CB24" s="2"/>
     </row>
-    <row r="25" spans="4:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="182"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="182"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="194"/>
-      <c r="I25" s="194"/>
-      <c r="J25" s="194"/>
-      <c r="K25" s="194"/>
-      <c r="L25" s="184"/>
-      <c r="M25" s="195"/>
-      <c r="N25" s="195"/>
-      <c r="O25" s="195"/>
-      <c r="P25" s="195"/>
-      <c r="Q25" s="184"/>
-      <c r="R25" s="195"/>
-      <c r="S25" s="195"/>
-      <c r="T25" s="195"/>
-      <c r="U25" s="195"/>
-      <c r="V25" s="196"/>
-      <c r="W25" s="194"/>
-      <c r="X25" s="194"/>
-      <c r="Y25" s="194"/>
-      <c r="Z25" s="194"/>
-      <c r="AA25" s="197"/>
-      <c r="AB25" s="182"/>
-      <c r="AC25" s="194"/>
-      <c r="AD25" s="194"/>
-      <c r="AE25" s="194"/>
-      <c r="AF25" s="194"/>
-      <c r="AG25" s="197"/>
-      <c r="AH25" s="182"/>
-      <c r="AI25" s="198"/>
-      <c r="AJ25" s="198"/>
-      <c r="AK25" s="198"/>
-      <c r="AL25" s="198"/>
-      <c r="AM25" s="199"/>
-      <c r="AN25" s="182"/>
-      <c r="AO25" s="182"/>
-      <c r="AX25" s="158" t="s">
+    <row r="25" spans="7:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="198"/>
+      <c r="I25" s="198"/>
+      <c r="J25" s="198"/>
+      <c r="K25" s="198"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="198"/>
+      <c r="X25" s="198"/>
+      <c r="Y25" s="198"/>
+      <c r="Z25" s="198"/>
+      <c r="AA25" s="239"/>
+      <c r="AC25" s="198"/>
+      <c r="AD25" s="198"/>
+      <c r="AE25" s="198"/>
+      <c r="AF25" s="198"/>
+      <c r="AG25" s="239"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="240"/>
+      <c r="AX25" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AY25" s="158"/>
-      <c r="AZ25" s="158"/>
-      <c r="BA25" s="158"/>
-      <c r="BD25" s="160" t="s">
+      <c r="AY25" s="209"/>
+      <c r="AZ25" s="209"/>
+      <c r="BA25" s="209"/>
+      <c r="BD25" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="BE25" s="160"/>
-      <c r="BF25" s="160"/>
-      <c r="BG25" s="160"/>
+      <c r="BE25" s="210"/>
+      <c r="BF25" s="210"/>
+      <c r="BG25" s="210"/>
       <c r="BH25" s="2"/>
-      <c r="BI25" s="158" t="s">
+      <c r="BI25" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="BJ25" s="158"/>
-      <c r="BK25" s="158"/>
-      <c r="BL25" s="158"/>
+      <c r="BJ25" s="209"/>
+      <c r="BK25" s="209"/>
+      <c r="BL25" s="209"/>
       <c r="BM25" s="2"/>
-      <c r="BN25" s="158" t="s">
+      <c r="BN25" s="209" t="s">
         <v>73</v>
       </c>
-      <c r="BO25" s="158"/>
-      <c r="BP25" s="158"/>
-      <c r="BQ25" s="158"/>
+      <c r="BO25" s="209"/>
+      <c r="BP25" s="209"/>
+      <c r="BQ25" s="209"/>
       <c r="BR25" s="17"/>
-      <c r="BS25" s="158" t="s">
+      <c r="BS25" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="BT25" s="158"/>
-      <c r="BU25" s="158"/>
-      <c r="BV25" s="158"/>
-      <c r="BX25" s="159" t="s">
+      <c r="BT25" s="209"/>
+      <c r="BU25" s="209"/>
+      <c r="BV25" s="209"/>
+      <c r="BX25" s="211" t="s">
         <v>78</v>
       </c>
-      <c r="BY25" s="159"/>
-      <c r="BZ25" s="159"/>
-      <c r="CA25" s="159"/>
+      <c r="BY25" s="211"/>
+      <c r="BZ25" s="211"/>
+      <c r="CA25" s="211"/>
       <c r="CB25" s="13"/>
-      <c r="CC25" s="158" t="s">
+      <c r="CC25" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="CD25" s="158"/>
-      <c r="CE25" s="158"/>
-      <c r="CF25" s="158"/>
-    </row>
-    <row r="26" spans="4:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="182"/>
-      <c r="E26" s="182"/>
-      <c r="F26" s="182"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="194"/>
-      <c r="I26" s="194"/>
-      <c r="J26" s="194"/>
-      <c r="K26" s="194"/>
-      <c r="L26" s="184"/>
-      <c r="M26" s="195"/>
-      <c r="N26" s="195"/>
-      <c r="O26" s="195"/>
-      <c r="P26" s="195"/>
-      <c r="Q26" s="184"/>
-      <c r="R26" s="195"/>
-      <c r="S26" s="195"/>
-      <c r="T26" s="195"/>
-      <c r="U26" s="195"/>
-      <c r="V26" s="196"/>
-      <c r="W26" s="194"/>
-      <c r="X26" s="194"/>
-      <c r="Y26" s="194"/>
-      <c r="Z26" s="194"/>
-      <c r="AA26" s="197"/>
-      <c r="AB26" s="182"/>
-      <c r="AC26" s="194"/>
-      <c r="AD26" s="194"/>
-      <c r="AE26" s="194"/>
-      <c r="AF26" s="194"/>
-      <c r="AG26" s="197"/>
-      <c r="AH26" s="182"/>
-      <c r="AI26" s="198"/>
-      <c r="AJ26" s="198"/>
-      <c r="AK26" s="198"/>
-      <c r="AL26" s="198"/>
-      <c r="AM26" s="199"/>
-      <c r="AN26" s="182"/>
-      <c r="AO26" s="182"/>
+      <c r="CD25" s="209"/>
+      <c r="CE25" s="209"/>
+      <c r="CF25" s="209"/>
+    </row>
+    <row r="26" spans="7:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="2"/>
+      <c r="H26" s="198"/>
+      <c r="I26" s="198"/>
+      <c r="J26" s="198"/>
+      <c r="K26" s="198"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="198"/>
+      <c r="X26" s="198"/>
+      <c r="Y26" s="198"/>
+      <c r="Z26" s="198"/>
+      <c r="AA26" s="239"/>
+      <c r="AC26" s="198"/>
+      <c r="AD26" s="198"/>
+      <c r="AE26" s="198"/>
+      <c r="AF26" s="198"/>
+      <c r="AG26" s="239"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="240"/>
       <c r="AX26" s="10"/>
       <c r="AY26" s="10"/>
       <c r="AZ26" s="10"/>
       <c r="BA26" s="10"/>
-      <c r="BD26" s="144"/>
-      <c r="BE26" s="145"/>
-      <c r="BF26" s="145"/>
-      <c r="BG26" s="146"/>
+      <c r="BD26" s="194"/>
+      <c r="BE26" s="195"/>
+      <c r="BF26" s="195"/>
+      <c r="BG26" s="196"/>
       <c r="BH26" s="2"/>
       <c r="BI26" s="27"/>
       <c r="BJ26" s="28"/>
@@ -19814,61 +19479,53 @@
       <c r="BP26" s="103"/>
       <c r="BQ26" s="28"/>
       <c r="BR26" s="8"/>
-      <c r="BS26" s="172" t="s">
+      <c r="BS26" s="241" t="s">
         <v>79</v>
       </c>
-      <c r="BT26" s="173"/>
-      <c r="BU26" s="173"/>
-      <c r="BV26" s="174"/>
-      <c r="BX26" s="166"/>
-      <c r="BY26" s="168"/>
-      <c r="BZ26" s="166"/>
-      <c r="CA26" s="168"/>
+      <c r="BT26" s="242"/>
+      <c r="BU26" s="242"/>
+      <c r="BV26" s="243"/>
+      <c r="BX26" s="215"/>
+      <c r="BY26" s="216"/>
+      <c r="BZ26" s="215"/>
+      <c r="CA26" s="216"/>
       <c r="CB26" s="2"/>
       <c r="CC26" s="10"/>
       <c r="CD26" s="10"/>
       <c r="CE26" s="10"/>
       <c r="CF26" s="10"/>
     </row>
-    <row r="27" spans="4:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="182"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="182"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="194"/>
-      <c r="J27" s="194"/>
-      <c r="K27" s="194"/>
-      <c r="L27" s="184"/>
-      <c r="M27" s="195"/>
-      <c r="N27" s="195"/>
-      <c r="O27" s="195"/>
-      <c r="P27" s="195"/>
-      <c r="Q27" s="184"/>
-      <c r="R27" s="195"/>
-      <c r="S27" s="195"/>
-      <c r="T27" s="195"/>
-      <c r="U27" s="195"/>
-      <c r="V27" s="196"/>
-      <c r="W27" s="194"/>
-      <c r="X27" s="194"/>
-      <c r="Y27" s="194"/>
-      <c r="Z27" s="194"/>
-      <c r="AA27" s="197"/>
-      <c r="AB27" s="182"/>
-      <c r="AC27" s="194"/>
-      <c r="AD27" s="194"/>
-      <c r="AE27" s="194"/>
-      <c r="AF27" s="194"/>
-      <c r="AG27" s="197"/>
-      <c r="AH27" s="182"/>
-      <c r="AI27" s="198"/>
-      <c r="AJ27" s="198"/>
-      <c r="AK27" s="198"/>
-      <c r="AL27" s="198"/>
-      <c r="AM27" s="199"/>
-      <c r="AN27" s="182"/>
-      <c r="AO27" s="182"/>
+    <row r="27" spans="7:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="198"/>
+      <c r="I27" s="198"/>
+      <c r="J27" s="198"/>
+      <c r="K27" s="198"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="198"/>
+      <c r="X27" s="198"/>
+      <c r="Y27" s="198"/>
+      <c r="Z27" s="198"/>
+      <c r="AA27" s="239"/>
+      <c r="AC27" s="198"/>
+      <c r="AD27" s="198"/>
+      <c r="AE27" s="198"/>
+      <c r="AF27" s="198"/>
+      <c r="AG27" s="239"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="240"/>
       <c r="AX27" s="10"/>
       <c r="AY27" s="10"/>
       <c r="AZ27" s="10"/>
@@ -19877,10 +19534,10 @@
         <v>45</v>
       </c>
       <c r="BC27" s="2"/>
-      <c r="BD27" s="152"/>
-      <c r="BE27" s="153"/>
-      <c r="BF27" s="153"/>
-      <c r="BG27" s="154"/>
+      <c r="BD27" s="197"/>
+      <c r="BE27" s="198"/>
+      <c r="BF27" s="198"/>
+      <c r="BG27" s="199"/>
       <c r="BH27" s="2"/>
       <c r="BI27" s="29"/>
       <c r="BJ27" s="30"/>
@@ -19892,70 +19549,62 @@
       <c r="BP27" s="104"/>
       <c r="BQ27" s="30"/>
       <c r="BR27" s="8"/>
-      <c r="BS27" s="172" t="s">
+      <c r="BS27" s="241" t="s">
         <v>80</v>
       </c>
-      <c r="BT27" s="173"/>
-      <c r="BU27" s="173"/>
-      <c r="BV27" s="174"/>
+      <c r="BT27" s="242"/>
+      <c r="BU27" s="242"/>
+      <c r="BV27" s="243"/>
       <c r="BW27" s="2"/>
-      <c r="BX27" s="166"/>
-      <c r="BY27" s="168"/>
-      <c r="BZ27" s="166"/>
-      <c r="CA27" s="168"/>
+      <c r="BX27" s="215"/>
+      <c r="BY27" s="216"/>
+      <c r="BZ27" s="215"/>
+      <c r="CA27" s="216"/>
       <c r="CB27" s="2"/>
       <c r="CC27" s="10"/>
       <c r="CD27" s="10"/>
       <c r="CE27" s="10"/>
       <c r="CF27" s="10"/>
     </row>
-    <row r="28" spans="4:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="182"/>
-      <c r="E28" s="182"/>
-      <c r="F28" s="182"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="194"/>
-      <c r="I28" s="194"/>
-      <c r="J28" s="194"/>
-      <c r="K28" s="194"/>
-      <c r="L28" s="184"/>
-      <c r="M28" s="195"/>
-      <c r="N28" s="195"/>
-      <c r="O28" s="195"/>
-      <c r="P28" s="195"/>
-      <c r="Q28" s="184"/>
-      <c r="R28" s="195"/>
-      <c r="S28" s="195"/>
-      <c r="T28" s="195"/>
-      <c r="U28" s="195"/>
-      <c r="V28" s="196"/>
-      <c r="W28" s="194"/>
-      <c r="X28" s="194"/>
-      <c r="Y28" s="194"/>
-      <c r="Z28" s="194"/>
-      <c r="AA28" s="197"/>
-      <c r="AB28" s="182"/>
-      <c r="AC28" s="194"/>
-      <c r="AD28" s="194"/>
-      <c r="AE28" s="194"/>
-      <c r="AF28" s="194"/>
-      <c r="AG28" s="197"/>
-      <c r="AH28" s="182"/>
-      <c r="AI28" s="198"/>
-      <c r="AJ28" s="198"/>
-      <c r="AK28" s="198"/>
-      <c r="AL28" s="198"/>
-      <c r="AM28" s="199"/>
-      <c r="AN28" s="182"/>
-      <c r="AO28" s="182"/>
+    <row r="28" spans="7:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="198"/>
+      <c r="I28" s="198"/>
+      <c r="J28" s="198"/>
+      <c r="K28" s="198"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="198"/>
+      <c r="X28" s="198"/>
+      <c r="Y28" s="198"/>
+      <c r="Z28" s="198"/>
+      <c r="AA28" s="239"/>
+      <c r="AC28" s="198"/>
+      <c r="AD28" s="198"/>
+      <c r="AE28" s="198"/>
+      <c r="AF28" s="198"/>
+      <c r="AG28" s="239"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="240"/>
       <c r="AX28" s="10"/>
       <c r="AY28" s="10"/>
       <c r="AZ28" s="10"/>
       <c r="BA28" s="10"/>
-      <c r="BD28" s="147"/>
-      <c r="BE28" s="148"/>
-      <c r="BF28" s="148"/>
-      <c r="BG28" s="149"/>
+      <c r="BD28" s="200"/>
+      <c r="BE28" s="201"/>
+      <c r="BF28" s="201"/>
+      <c r="BG28" s="202"/>
       <c r="BH28" s="2"/>
       <c r="BI28" s="31"/>
       <c r="BJ28" s="32"/>
@@ -19967,74 +19616,66 @@
       <c r="BP28" s="105"/>
       <c r="BQ28" s="32"/>
       <c r="BR28" s="8"/>
-      <c r="BS28" s="175" t="s">
+      <c r="BS28" s="244" t="s">
         <v>81</v>
       </c>
-      <c r="BT28" s="176"/>
-      <c r="BU28" s="176"/>
-      <c r="BV28" s="177"/>
-      <c r="BX28" s="166"/>
-      <c r="BY28" s="168"/>
-      <c r="BZ28" s="166"/>
-      <c r="CA28" s="168"/>
+      <c r="BT28" s="245"/>
+      <c r="BU28" s="245"/>
+      <c r="BV28" s="246"/>
+      <c r="BX28" s="215"/>
+      <c r="BY28" s="216"/>
+      <c r="BZ28" s="215"/>
+      <c r="CA28" s="216"/>
       <c r="CB28" s="2"/>
       <c r="CC28" s="10"/>
       <c r="CD28" s="10"/>
       <c r="CE28" s="10"/>
       <c r="CF28" s="10"/>
     </row>
-    <row r="29" spans="4:84" x14ac:dyDescent="0.25">
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="194"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="194"/>
-      <c r="L29" s="184"/>
-      <c r="M29" s="195"/>
-      <c r="N29" s="195"/>
-      <c r="O29" s="195"/>
-      <c r="P29" s="195"/>
-      <c r="Q29" s="184"/>
-      <c r="R29" s="195"/>
-      <c r="S29" s="195"/>
-      <c r="T29" s="195"/>
-      <c r="U29" s="195"/>
-      <c r="V29" s="196"/>
-      <c r="W29" s="194"/>
-      <c r="X29" s="194"/>
-      <c r="Y29" s="194"/>
-      <c r="Z29" s="194"/>
-      <c r="AA29" s="197"/>
-      <c r="AB29" s="182"/>
-      <c r="AC29" s="194"/>
-      <c r="AD29" s="194"/>
-      <c r="AE29" s="194"/>
-      <c r="AF29" s="194"/>
-      <c r="AG29" s="197"/>
-      <c r="AH29" s="182"/>
-      <c r="AI29" s="198"/>
-      <c r="AJ29" s="198"/>
-      <c r="AK29" s="198"/>
-      <c r="AL29" s="198"/>
-      <c r="AM29" s="199"/>
-      <c r="AN29" s="182"/>
-      <c r="AO29" s="182"/>
+    <row r="29" spans="7:84" x14ac:dyDescent="0.25">
+      <c r="H29" s="198"/>
+      <c r="I29" s="198"/>
+      <c r="J29" s="198"/>
+      <c r="K29" s="198"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="198"/>
+      <c r="X29" s="198"/>
+      <c r="Y29" s="198"/>
+      <c r="Z29" s="198"/>
+      <c r="AA29" s="239"/>
+      <c r="AC29" s="198"/>
+      <c r="AD29" s="198"/>
+      <c r="AE29" s="198"/>
+      <c r="AF29" s="198"/>
+      <c r="AG29" s="239"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="240"/>
       <c r="AX29" s="2"/>
       <c r="AY29" s="2"/>
       <c r="AZ29" s="2"/>
       <c r="BA29" s="2"/>
       <c r="BH29" s="2"/>
-      <c r="BI29" s="181" t="s">
+      <c r="BI29" s="221" t="s">
         <v>24</v>
       </c>
-      <c r="BJ29" s="181"/>
-      <c r="BK29" s="181" t="s">
+      <c r="BJ29" s="221"/>
+      <c r="BK29" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="BL29" s="181"/>
+      <c r="BL29" s="221"/>
       <c r="BM29" s="120"/>
       <c r="BN29" s="120" t="s">
         <v>74</v>
@@ -20054,265 +19695,83 @@
       <c r="BU29" s="122"/>
       <c r="BV29" s="122"/>
       <c r="BW29" s="122"/>
-      <c r="BX29" s="181" t="s">
+      <c r="BX29" s="221" t="s">
         <v>24</v>
       </c>
-      <c r="BY29" s="181"/>
-      <c r="BZ29" s="181" t="s">
+      <c r="BY29" s="221"/>
+      <c r="BZ29" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="CA29" s="181"/>
+      <c r="CA29" s="221"/>
       <c r="CB29" s="2"/>
       <c r="CC29" s="2"/>
       <c r="CD29" s="2"/>
       <c r="CE29" s="2"/>
       <c r="CF29" s="2"/>
     </row>
-    <row r="30" spans="4:84" x14ac:dyDescent="0.25">
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="182"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="184"/>
-      <c r="M30" s="200"/>
-      <c r="N30" s="200"/>
-      <c r="O30" s="200"/>
-      <c r="P30" s="200"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="182"/>
-      <c r="S30" s="182"/>
-      <c r="T30" s="182"/>
-      <c r="U30" s="182"/>
-      <c r="V30" s="187"/>
-      <c r="W30" s="182"/>
-      <c r="X30" s="182"/>
-      <c r="Y30" s="182"/>
-      <c r="Z30" s="182"/>
-      <c r="AA30" s="182"/>
-      <c r="AB30" s="182"/>
-      <c r="AC30" s="200"/>
-      <c r="AD30" s="200"/>
-      <c r="AE30" s="200"/>
-      <c r="AF30" s="200"/>
-      <c r="AG30" s="184"/>
-      <c r="AH30" s="182"/>
-      <c r="AI30" s="184"/>
-      <c r="AJ30" s="184"/>
-      <c r="AK30" s="184"/>
-      <c r="AL30" s="184"/>
-      <c r="AM30" s="182"/>
-      <c r="AN30" s="182"/>
-      <c r="AO30" s="182"/>
-    </row>
-    <row r="31" spans="4:84" x14ac:dyDescent="0.25">
-      <c r="D31" s="182"/>
-      <c r="E31" s="182"/>
-      <c r="F31" s="182"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="182"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="182"/>
-      <c r="P31" s="182"/>
-      <c r="Q31" s="184"/>
-      <c r="R31" s="182"/>
-      <c r="S31" s="182"/>
-      <c r="T31" s="182"/>
-      <c r="U31" s="182"/>
-      <c r="V31" s="187"/>
-      <c r="W31" s="182"/>
-      <c r="X31" s="182"/>
-      <c r="Y31" s="182"/>
-      <c r="Z31" s="182"/>
-      <c r="AA31" s="182"/>
-      <c r="AB31" s="182"/>
-      <c r="AC31" s="182"/>
-      <c r="AD31" s="182"/>
-      <c r="AE31" s="182"/>
-      <c r="AF31" s="182"/>
-      <c r="AG31" s="182"/>
-      <c r="AH31" s="182"/>
-      <c r="AI31" s="184"/>
-      <c r="AJ31" s="200"/>
-      <c r="AK31" s="200"/>
-      <c r="AL31" s="200"/>
-      <c r="AM31" s="182"/>
-      <c r="AN31" s="182"/>
-      <c r="AO31" s="182"/>
-    </row>
-    <row r="32" spans="4:84" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="D32" s="182"/>
-      <c r="E32" s="182"/>
-      <c r="F32" s="182"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="183"/>
-      <c r="J32" s="183"/>
-      <c r="K32" s="182"/>
-      <c r="L32" s="182"/>
-      <c r="M32" s="182"/>
-      <c r="N32" s="182"/>
-      <c r="O32" s="182"/>
-      <c r="P32" s="182"/>
-      <c r="Q32" s="184"/>
-      <c r="R32" s="182"/>
-      <c r="S32" s="182"/>
-      <c r="T32" s="182"/>
-      <c r="U32" s="182"/>
-      <c r="V32" s="187"/>
-      <c r="W32" s="182"/>
-      <c r="X32" s="182"/>
-      <c r="Y32" s="182"/>
-      <c r="Z32" s="182"/>
-      <c r="AA32" s="182"/>
-      <c r="AB32" s="182"/>
-      <c r="AC32" s="182"/>
-      <c r="AD32" s="182"/>
-      <c r="AE32" s="182"/>
-      <c r="AF32" s="182"/>
-      <c r="AG32" s="182"/>
-      <c r="AH32" s="182"/>
-      <c r="AI32" s="182"/>
-      <c r="AJ32" s="182"/>
-      <c r="AK32" s="182"/>
-      <c r="AL32" s="182"/>
-      <c r="AM32" s="182"/>
-      <c r="AN32" s="182"/>
-      <c r="AO32" s="182"/>
-    </row>
-    <row r="33" spans="4:41" x14ac:dyDescent="0.25">
-      <c r="D33" s="182"/>
-      <c r="E33" s="182"/>
-      <c r="F33" s="182"/>
-      <c r="G33" s="182"/>
-      <c r="H33" s="182"/>
-      <c r="I33" s="182"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="182"/>
-      <c r="L33" s="182"/>
-      <c r="M33" s="182"/>
-      <c r="N33" s="182"/>
-      <c r="O33" s="182"/>
-      <c r="P33" s="184"/>
-      <c r="Q33" s="182"/>
-      <c r="R33" s="182"/>
-      <c r="S33" s="182"/>
-      <c r="T33" s="182"/>
-      <c r="U33" s="187"/>
-      <c r="V33" s="182"/>
-      <c r="W33" s="182"/>
-      <c r="X33" s="182"/>
-      <c r="Y33" s="182"/>
-      <c r="Z33" s="182"/>
-      <c r="AA33" s="182"/>
-      <c r="AB33" s="182"/>
-      <c r="AC33" s="182"/>
-      <c r="AD33" s="182"/>
-      <c r="AE33" s="182"/>
-      <c r="AF33" s="182"/>
-      <c r="AG33" s="182"/>
-      <c r="AH33" s="182"/>
-      <c r="AI33" s="182"/>
-      <c r="AJ33" s="182"/>
-      <c r="AK33" s="182"/>
-      <c r="AL33" s="182"/>
-      <c r="AM33" s="182"/>
-      <c r="AN33" s="182"/>
-      <c r="AO33" s="182"/>
+    <row r="30" spans="7:84" x14ac:dyDescent="0.25">
+      <c r="L30" s="2"/>
+      <c r="M30" s="192"/>
+      <c r="N30" s="192"/>
+      <c r="O30" s="192"/>
+      <c r="P30" s="192"/>
+      <c r="Q30" s="2"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="16"/>
+      <c r="AC30" s="192"/>
+      <c r="AD30" s="192"/>
+      <c r="AE30" s="192"/>
+      <c r="AF30" s="192"/>
+      <c r="AG30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+    </row>
+    <row r="31" spans="7:84" x14ac:dyDescent="0.25">
+      <c r="P31" s="1"/>
+      <c r="Q31" s="2"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="16"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="192"/>
+      <c r="AK31" s="192"/>
+      <c r="AL31" s="192"/>
+    </row>
+    <row r="32" spans="7:84" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="2"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="BI29:BJ29"/>
-    <mergeCell ref="BK29:BL29"/>
-    <mergeCell ref="BX29:BY29"/>
-    <mergeCell ref="BZ29:CA29"/>
-    <mergeCell ref="BX24:CA24"/>
-    <mergeCell ref="AX25:BA25"/>
-    <mergeCell ref="BD25:BG25"/>
-    <mergeCell ref="BI25:BL25"/>
-    <mergeCell ref="BN25:BQ25"/>
-    <mergeCell ref="BS25:BV25"/>
-    <mergeCell ref="BX25:CA25"/>
-    <mergeCell ref="CC25:CF25"/>
-    <mergeCell ref="BD26:BG28"/>
-    <mergeCell ref="BS26:BV26"/>
-    <mergeCell ref="BX26:BY26"/>
-    <mergeCell ref="BZ26:CA26"/>
-    <mergeCell ref="BS27:BV27"/>
-    <mergeCell ref="BX27:BY27"/>
-    <mergeCell ref="BZ27:CA27"/>
-    <mergeCell ref="BS28:BV28"/>
-    <mergeCell ref="BX28:BY28"/>
-    <mergeCell ref="BZ28:CA28"/>
-    <mergeCell ref="BC22:BD22"/>
-    <mergeCell ref="BE22:BF22"/>
-    <mergeCell ref="BR22:BS22"/>
-    <mergeCell ref="BT22:BU22"/>
-    <mergeCell ref="BW18:BZ18"/>
-    <mergeCell ref="AX19:BA21"/>
-    <mergeCell ref="BM19:BP19"/>
-    <mergeCell ref="BR19:BS19"/>
-    <mergeCell ref="BT19:BU19"/>
-    <mergeCell ref="BM20:BP20"/>
-    <mergeCell ref="BR20:BS20"/>
-    <mergeCell ref="BT20:BU20"/>
-    <mergeCell ref="BM21:BP21"/>
-    <mergeCell ref="BR21:BS21"/>
-    <mergeCell ref="BT21:BU21"/>
-    <mergeCell ref="BR17:BU17"/>
-    <mergeCell ref="AX18:BA18"/>
-    <mergeCell ref="BC18:BF18"/>
-    <mergeCell ref="BH18:BK18"/>
-    <mergeCell ref="BM18:BP18"/>
-    <mergeCell ref="BR18:BU18"/>
-    <mergeCell ref="BB7:BC7"/>
-    <mergeCell ref="BD7:BE7"/>
-    <mergeCell ref="BQ7:BR7"/>
-    <mergeCell ref="BS7:BT7"/>
-    <mergeCell ref="BQ2:BT2"/>
-    <mergeCell ref="BQ3:BT3"/>
-    <mergeCell ref="BV3:BY3"/>
-    <mergeCell ref="AW4:AZ6"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="BL5:BO5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BL6:BO6"/>
-    <mergeCell ref="BQ6:BR6"/>
-    <mergeCell ref="BS6:BT6"/>
-    <mergeCell ref="AQ3:AT3"/>
-    <mergeCell ref="AW3:AZ3"/>
-    <mergeCell ref="BB3:BE3"/>
-    <mergeCell ref="BG3:BJ3"/>
-    <mergeCell ref="BL3:BO3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="AH5:AK5"/>
-    <mergeCell ref="G6:J8"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AJ31:AL31"/>
+    <mergeCell ref="H24:K29"/>
+    <mergeCell ref="W24:Z25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AC24:AD25"/>
+    <mergeCell ref="AE24:AF25"/>
+    <mergeCell ref="AE28:AF29"/>
+    <mergeCell ref="AM24:AM26"/>
+    <mergeCell ref="W26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AC26:AD27"/>
+    <mergeCell ref="AE26:AF27"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="AM27:AM29"/>
+    <mergeCell ref="W28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AC28:AD29"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="AG28:AG29"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="AB9:AC9"/>
@@ -20330,29 +19789,89 @@
     <mergeCell ref="R23:U23"/>
     <mergeCell ref="W23:Z23"/>
     <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AM24:AM26"/>
-    <mergeCell ref="W26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AC26:AD27"/>
-    <mergeCell ref="AE26:AF27"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="AM27:AM29"/>
-    <mergeCell ref="W28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AC28:AD29"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AJ31:AL31"/>
-    <mergeCell ref="H24:K29"/>
-    <mergeCell ref="W24:Z25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AC24:AD25"/>
-    <mergeCell ref="AE24:AF25"/>
-    <mergeCell ref="AE28:AF29"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="AH5:AK5"/>
+    <mergeCell ref="G6:J8"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AQ3:AT3"/>
+    <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="BG3:BJ3"/>
+    <mergeCell ref="BL3:BO3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="BQ2:BT2"/>
+    <mergeCell ref="BQ3:BT3"/>
+    <mergeCell ref="BV3:BY3"/>
+    <mergeCell ref="AW4:AZ6"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BL5:BO5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BL6:BO6"/>
+    <mergeCell ref="BQ6:BR6"/>
+    <mergeCell ref="BS6:BT6"/>
+    <mergeCell ref="BR17:BU17"/>
+    <mergeCell ref="AX18:BA18"/>
+    <mergeCell ref="BC18:BF18"/>
+    <mergeCell ref="BH18:BK18"/>
+    <mergeCell ref="BM18:BP18"/>
+    <mergeCell ref="BR18:BU18"/>
+    <mergeCell ref="BB7:BC7"/>
+    <mergeCell ref="BD7:BE7"/>
+    <mergeCell ref="BQ7:BR7"/>
+    <mergeCell ref="BS7:BT7"/>
+    <mergeCell ref="BC22:BD22"/>
+    <mergeCell ref="BE22:BF22"/>
+    <mergeCell ref="BR22:BS22"/>
+    <mergeCell ref="BT22:BU22"/>
+    <mergeCell ref="BW18:BZ18"/>
+    <mergeCell ref="AX19:BA21"/>
+    <mergeCell ref="BM19:BP19"/>
+    <mergeCell ref="BR19:BS19"/>
+    <mergeCell ref="BT19:BU19"/>
+    <mergeCell ref="BM20:BP20"/>
+    <mergeCell ref="BR20:BS20"/>
+    <mergeCell ref="BT20:BU20"/>
+    <mergeCell ref="BM21:BP21"/>
+    <mergeCell ref="BR21:BS21"/>
+    <mergeCell ref="BT21:BU21"/>
+    <mergeCell ref="CC25:CF25"/>
+    <mergeCell ref="BD26:BG28"/>
+    <mergeCell ref="BS26:BV26"/>
+    <mergeCell ref="BX26:BY26"/>
+    <mergeCell ref="BZ26:CA26"/>
+    <mergeCell ref="BS27:BV27"/>
+    <mergeCell ref="BX27:BY27"/>
+    <mergeCell ref="BZ27:CA27"/>
+    <mergeCell ref="BS28:BV28"/>
+    <mergeCell ref="BX28:BY28"/>
+    <mergeCell ref="BZ28:CA28"/>
+    <mergeCell ref="BI29:BJ29"/>
+    <mergeCell ref="BK29:BL29"/>
+    <mergeCell ref="BX29:BY29"/>
+    <mergeCell ref="BZ29:CA29"/>
+    <mergeCell ref="BX24:CA24"/>
+    <mergeCell ref="AX25:BA25"/>
+    <mergeCell ref="BD25:BG25"/>
+    <mergeCell ref="BI25:BL25"/>
+    <mergeCell ref="BN25:BQ25"/>
+    <mergeCell ref="BS25:BV25"/>
+    <mergeCell ref="BX25:CA25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
